--- a/Project_python/out/LDA/test2.xlsx
+++ b/Project_python/out/LDA/test2.xlsx
@@ -486,17 +486,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.14|x3: 0.03|x4: 0.03|x5: 0.08|x6: 0.01|x7: 0.07|x8: 0.08|x9: 0.10|x10: 0.07|x11: 0.07|x12: 0.05|x13: 0.04|x14: 0.07|x15: 0.05|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.08|x2: 0.05|x3: 0.04|x4: 0.07|x5: 0.06|x6: 0.06|x7: 0.03|x8: 0.12|x9: 0.05|x10: 0.08|x11: 0.07|x12: 0.05|x13: 0.05|x14: 0.05|x15: 0.06|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.14]</t>
+          <t>[0.00, 0.06, 0.12]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[8]</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -522,17 +522,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.05|x3: 0.03|x4: 0.14|x5: 0.04|x6: 0.10|x7: 0.07|x8: 0.07|x9: 0.08|x10: 0.09|x11: 0.05|x12: 0.03|x13: 0.06|x14: 0.06|x15: 0.02|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.09|x2: 0.04|x3: 0.08|x4: 0.12|x5: 0.07|x6: 0.06|x7: 0.04|x8: 0.05|x9: 0.06|x10: 0.06|x11: 0.06|x12: 0.05|x13: 0.05|x14: 0.05|x15: 0.04|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.14]</t>
+          <t>[0.00, 0.06, 0.12]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[4, 6]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -558,24 +558,24 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.14|x3: 0.02|x4: 0.05|x5: 0.04|x6: 0.07|x7: 0.06|x8: 0.05|x9: 0.04|x10: 0.08|x11: 0.07|x12: 0.05|x13: 0.05|x14: 0.10|x15: 0.03|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.05|x3: 0.06|x4: 0.06|x5: 0.07|x6: 0.06|x7: 0.04|x8: 0.05|x9: 0.05|x10: 0.05|x11: 0.06|x12: 0.05|x13: 0.07|x14: 0.09|x15: 0.10|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.14]</t>
+          <t>[0.00, 0.06, 0.10]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[2, 14]</t>
+          <t>[15]</t>
         </is>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -594,17 +594,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.11|x3: 0.02|x4: 0.09|x5: 0.08|x6: 0.03|x7: 0.14|x8: 0.03|x9: 0.02|x10: 0.17|x11: 0.03|x12: 0.02|x13: 0.02|x14: 0.03|x15: 0.06|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.10|x2: 0.05|x3: 0.04|x4: 0.07|x5: 0.05|x6: 0.04|x7: 0.05|x8: 0.07|x9: 0.07|x10: 0.08|x11: 0.07|x12: 0.05|x13: 0.06|x14: 0.07|x15: 0.06|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.17]</t>
+          <t>[0.00, 0.06, 0.10]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[2, 7, 10]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -630,24 +630,24 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.09|x3: 0.05|x4: 0.05|x5: 0.04|x6: 0.09|x7: 0.06|x8: 0.09|x9: 0.08|x10: 0.06|x11: 0.05|x12: 0.08|x13: 0.10|x14: 0.04|x15: 0.03|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.04|x2: 0.13|x3: 0.05|x4: 0.08|x5: 0.03|x6: 0.05|x7: 0.05|x8: 0.08|x9: 0.07|x10: 0.06|x11: 0.05|x12: 0.06|x13: 0.06|x14: 0.06|x15: 0.06|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.10]</t>
+          <t>[0.00, 0.06, 0.13]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -666,17 +666,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.06|x3: 0.02|x4: 0.17|x5: 0.08|x6: 0.02|x7: 0.03|x8: 0.10|x9: 0.11|x10: 0.04|x11: 0.04|x12: 0.04|x13: 0.02|x14: 0.05|x15: 0.07|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.05|x2: 0.04|x3: 0.07|x4: 0.18|x5: 0.12|x6: 0.06|x7: 0.04|x8: 0.05|x9: 0.05|x10: 0.05|x11: 0.05|x12: 0.04|x13: 0.04|x14: 0.04|x15: 0.03|x16: 0.09|x17: 0.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.17]</t>
+          <t>[0.00, 0.06, 0.18]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[4, 9]</t>
+          <t>[4, 5]</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -702,24 +702,24 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.11|x3: 0.02|x4: 0.06|x5: 0.04|x6: 0.09|x7: 0.05|x8: 0.09|x9: 0.10|x10: 0.06|x11: 0.04|x12: 0.06|x13: 0.01|x14: 0.07|x15: 0.10|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.08|x2: 0.08|x3: 0.05|x4: 0.05|x5: 0.03|x6: 0.07|x7: 0.05|x8: 0.05|x9: 0.06|x10: 0.06|x11: 0.08|x12: 0.05|x13: 0.06|x14: 0.08|x15: 0.09|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.11]</t>
+          <t>[0.00, 0.06, 0.09]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[2, 9, 15]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -738,17 +738,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>x1: 0.11|x2: 0.02|x3: 0.04|x4: 0.06|x5: 0.08|x6: 0.01|x7: 0.03|x8: 0.07|x9: 0.07|x10: 0.04|x11: 0.05|x12: 0.03|x13: 0.15|x14: 0.09|x15: 0.05|x16: 0.10|x17: 0.00</t>
+          <t>x1: 0.08|x2: 0.06|x3: 0.06|x4: 0.06|x5: 0.03|x6: 0.06|x7: 0.05|x8: 0.06|x9: 0.05|x10: 0.06|x11: 0.08|x12: 0.06|x13: 0.07|x14: 0.08|x15: 0.09|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.15]</t>
+          <t>[0.00, 0.06, 0.09]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[1, 13]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -774,17 +774,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.08|x3: 0.02|x4: 0.03|x5: 0.04|x6: 0.11|x7: 0.04|x8: 0.09|x9: 0.10|x10: 0.05|x11: 0.07|x12: 0.05|x13: 0.02|x14: 0.10|x15: 0.08|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.04|x2: 0.07|x3: 0.07|x4: 0.06|x5: 0.06|x6: 0.07|x7: 0.05|x8: 0.05|x9: 0.06|x10: 0.05|x11: 0.06|x12: 0.05|x13: 0.07|x14: 0.09|x15: 0.09|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.11]</t>
+          <t>[0.00, 0.06, 0.09]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[6, 9]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -810,24 +810,24 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.17|x3: 0.10|x4: 0.08|x5: 0.07|x6: 0.02|x7: 0.05|x8: 0.06|x9: 0.07|x10: 0.05|x11: 0.04|x12: 0.04|x13: 0.02|x14: 0.04|x15: 0.11|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.09|x3: 0.08|x4: 0.10|x5: 0.06|x6: 0.05|x7: 0.03|x8: 0.07|x9: 0.04|x10: 0.04|x11: 0.06|x12: 0.05|x13: 0.05|x14: 0.07|x15: 0.08|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.17]</t>
+          <t>[0.00, 0.06, 0.10]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[2, 3, 15]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -846,24 +846,24 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.13|x3: 0.06|x4: 0.10|x5: 0.04|x6: 0.05|x7: 0.06|x8: 0.05|x9: 0.05|x10: 0.08|x11: 0.07|x12: 0.06|x13: 0.02|x14: 0.05|x15: 0.10|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.04|x2: 0.09|x3: 0.05|x4: 0.09|x5: 0.04|x6: 0.07|x7: 0.04|x8: 0.05|x9: 0.05|x10: 0.05|x11: 0.06|x12: 0.06|x13: 0.06|x14: 0.08|x15: 0.09|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.13]</t>
+          <t>[0.00, 0.06, 0.09]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[2, 4, 15]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -882,17 +882,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.13|x3: 0.07|x4: 0.04|x5: 0.05|x6: 0.02|x7: 0.03|x8: 0.08|x9: 0.05|x10: 0.03|x11: 0.05|x12: 0.12|x13: 0.02|x14: 0.16|x15: 0.03|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.05|x2: 0.14|x3: 0.08|x4: 0.08|x5: 0.03|x6: 0.06|x7: 0.05|x8: 0.08|x9: 0.06|x10: 0.05|x11: 0.06|x12: 0.06|x13: 0.04|x14: 0.05|x15: 0.05|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.16]</t>
+          <t>[0.00, 0.06, 0.14]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[2, 12, 14]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -918,24 +918,24 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.11|x3: 0.13|x4: 0.19|x5: 0.03|x6: 0.04|x7: 0.04|x8: 0.08|x9: 0.08|x10: 0.04|x11: 0.03|x12: 0.06|x13: 0.03|x14: 0.01|x15: 0.05|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.05|x2: 0.05|x3: 0.15|x4: 0.13|x5: 0.03|x6: 0.05|x7: 0.05|x8: 0.04|x9: 0.05|x10: 0.04|x11: 0.06|x12: 0.05|x13: 0.05|x14: 0.07|x15: 0.07|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.19]</t>
+          <t>[0.00, 0.06, 0.15]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[2, 3, 4]</t>
+          <t>[3, 4]</t>
         </is>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -954,7 +954,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.04|x3: 0.25|x4: 0.01|x5: 0.04|x6: 0.05|x7: 0.06|x8: 0.10|x9: 0.12|x10: 0.07|x11: 0.06|x12: 0.05|x13: 0.01|x14: 0.05|x15: 0.02|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.04|x2: 0.07|x3: 0.25|x4: 0.04|x5: 0.03|x6: 0.07|x7: 0.04|x8: 0.05|x9: 0.05|x10: 0.04|x11: 0.06|x12: 0.05|x13: 0.05|x14: 0.05|x15: 0.06|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -964,7 +964,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[3, 8, 9]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -990,12 +990,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.04|x3: 0.29|x4: 0.01|x5: 0.04|x6: 0.01|x7: 0.07|x8: 0.06|x9: 0.08|x10: 0.06|x11: 0.08|x12: 0.05|x13: 0.08|x14: 0.06|x15: 0.03|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.04|x3: 0.25|x4: 0.05|x5: 0.08|x6: 0.06|x7: 0.04|x8: 0.06|x9: 0.06|x10: 0.06|x11: 0.06|x12: 0.04|x13: 0.03|x14: 0.03|x15: 0.03|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.29]</t>
+          <t>[0.00, 0.06, 0.25]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1026,17 +1026,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.05|x3: 0.04|x4: 0.20|x5: 0.09|x6: 0.05|x7: 0.02|x8: 0.08|x9: 0.07|x10: 0.03|x11: 0.04|x12: 0.06|x13: 0.06|x14: 0.04|x15: 0.02|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.04|x3: 0.07|x4: 0.15|x5: 0.13|x6: 0.06|x7: 0.04|x8: 0.04|x9: 0.05|x10: 0.04|x11: 0.04|x12: 0.05|x13: 0.05|x14: 0.04|x15: 0.04|x16: 0.09|x17: 0.00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.20]</t>
+          <t>[0.00, 0.06, 0.15]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[4, 5]</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1062,24 +1062,24 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.04|x3: 0.09|x4: 0.10|x5: 0.03|x6: 0.08|x7: 0.05|x8: 0.08|x9: 0.07|x10: 0.04|x11: 0.04|x12: 0.09|x13: 0.09|x14: 0.07|x15: 0.02|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.05|x2: 0.09|x3: 0.12|x4: 0.07|x5: 0.03|x6: 0.05|x7: 0.05|x8: 0.07|x9: 0.07|x10: 0.06|x11: 0.05|x12: 0.05|x13: 0.06|x14: 0.07|x15: 0.07|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.10]</t>
+          <t>[0.00, 0.06, 0.12]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1098,17 +1098,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.04|x3: 0.06|x4: 0.15|x5: 0.04|x6: 0.02|x7: 0.07|x8: 0.09|x9: 0.11|x10: 0.08|x11: 0.05|x12: 0.05|x13: 0.12|x14: 0.04|x15: 0.02|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.02|x2: 0.05|x3: 0.08|x4: 0.23|x5: 0.07|x6: 0.06|x7: 0.05|x8: 0.05|x9: 0.06|x10: 0.04|x11: 0.04|x12: 0.04|x13: 0.04|x14: 0.05|x15: 0.03|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.15]</t>
+          <t>[0.00, 0.06, 0.23]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[4, 9, 13]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="G19" t="b">
@@ -1134,24 +1134,24 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.01|x3: 0.13|x4: 0.02|x5: 0.02|x6: 0.09|x7: 0.06|x8: 0.04|x9: 0.04|x10: 0.06|x11: 0.05|x12: 0.05|x13: 0.16|x14: 0.12|x15: 0.05|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.05|x2: 0.06|x3: 0.07|x4: 0.01|x5: 0.04|x6: 0.08|x7: 0.07|x8: 0.06|x9: 0.06|x10: 0.05|x11: 0.06|x12: 0.08|x13: 0.09|x14: 0.08|x15: 0.09|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.16]</t>
+          <t>[0.00, 0.06, 0.09]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[3, 13, 14]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1170,24 +1170,24 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.12|x3: 0.11|x4: 0.13|x5: 0.12|x6: 0.02|x7: 0.03|x8: 0.06|x9: 0.04|x10: 0.03|x11: 0.03|x12: 0.07|x13: 0.08|x14: 0.04|x15: 0.03|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.04|x3: 0.05|x4: 0.09|x5: 0.08|x6: 0.05|x7: 0.07|x8: 0.03|x9: 0.05|x10: 0.04|x11: 0.06|x12: 0.08|x13: 0.09|x14: 0.08|x15: 0.08|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.13]</t>
+          <t>[0.00, 0.06, 0.09]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[2, 3, 4, 5]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1206,17 +1206,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>x1: 0.14|x2: 0.02|x3: 0.14|x4: 0.08|x5: 0.03|x6: 0.02|x7: 0.01|x8: 0.08|x9: 0.06|x10: 0.03|x11: 0.03|x12: 0.07|x13: 0.05|x14: 0.02|x15: 0.14|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.13|x2: 0.03|x3: 0.20|x4: 0.11|x5: 0.02|x6: 0.05|x7: 0.04|x8: 0.05|x9: 0.04|x10: 0.07|x11: 0.09|x12: 0.04|x13: 0.03|x14: 0.03|x15: 0.03|x16: 0.04|x17: 0.00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.14]</t>
+          <t>[0.00, 0.06, 0.20]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[1, 3, 15]</t>
+          <t>[1, 3, 4]</t>
         </is>
       </c>
       <c r="G22" t="b">
@@ -1242,24 +1242,24 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>x1: 0.13|x2: 0.02|x3: 0.07|x4: 0.08|x5: 0.05|x6: 0.02|x7: 0.02|x8: 0.14|x9: 0.16|x10: 0.04|x11: 0.05|x12: 0.05|x13: 0.06|x14: 0.02|x15: 0.01|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.05|x3: 0.11|x4: 0.11|x5: 0.03|x6: 0.08|x7: 0.05|x8: 0.05|x9: 0.05|x10: 0.05|x11: 0.07|x12: 0.05|x13: 0.06|x14: 0.07|x15: 0.07|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.16]</t>
+          <t>[0.00, 0.06, 0.11]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[1, 8, 9]</t>
+          <t>[3, 4]</t>
         </is>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.02|x3: 0.03|x4: 0.08|x5: 0.04|x6: 0.01|x7: 0.08|x8: 0.09|x9: 0.11|x10: 0.09|x11: 0.10|x12: 0.08|x13: 0.07|x14: 0.09|x15: 0.02|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.03|x2: 0.08|x3: 0.08|x4: 0.11|x5: 0.03|x6: 0.06|x7: 0.05|x8: 0.05|x9: 0.07|x10: 0.05|x11: 0.05|x12: 0.06|x13: 0.07|x14: 0.08|x15: 0.08|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[9]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="G24" t="b">
@@ -1314,17 +1314,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.01|x3: 0.24|x4: 0.08|x5: 0.04|x6: 0.10|x7: 0.02|x8: 0.08|x9: 0.11|x10: 0.01|x11: 0.05|x12: 0.03|x13: 0.10|x14: 0.05|x15: 0.03|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.02|x2: 0.06|x3: 0.20|x4: 0.05|x5: 0.07|x6: 0.06|x7: 0.05|x8: 0.04|x9: 0.05|x10: 0.04|x11: 0.05|x12: 0.05|x13: 0.06|x14: 0.07|x15: 0.07|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.24]</t>
+          <t>[0.00, 0.06, 0.20]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[3, 9]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="G25" t="b">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>x1: 0.12|x2: 0.02|x3: 0.11|x4: 0.02|x5: 0.05|x6: 0.06|x7: 0.06|x8: 0.09|x9: 0.08|x10: 0.07|x11: 0.06|x12: 0.07|x13: 0.02|x14: 0.08|x15: 0.02|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.12|x3: 0.08|x4: 0.04|x5: 0.06|x6: 0.05|x7: 0.04|x8: 0.06|x9: 0.05|x10: 0.05|x11: 0.06|x12: 0.05|x13: 0.06|x14: 0.07|x15: 0.07|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1360,14 +1360,14 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[1, 3]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.02|x3: 0.09|x4: 0.03|x5: 0.06|x6: 0.01|x7: 0.08|x8: 0.13|x9: 0.15|x10: 0.09|x11: 0.05|x12: 0.07|x13: 0.02|x14: 0.06|x15: 0.02|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.15|x2: 0.06|x3: 0.04|x4: 0.04|x5: 0.09|x6: 0.05|x7: 0.03|x8: 0.06|x9: 0.05|x10: 0.07|x11: 0.09|x12: 0.05|x13: 0.05|x14: 0.05|x15: 0.06|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[8, 9]</t>
+          <t>[1]</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1422,17 +1422,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.23|x3: 0.13|x4: 0.05|x5: 0.04|x6: 0.02|x7: 0.04|x8: 0.10|x9: 0.10|x10: 0.04|x11: 0.05|x12: 0.08|x13: 0.02|x14: 0.02|x15: 0.06|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.02|x2: 0.12|x3: 0.16|x4: 0.05|x5: 0.04|x6: 0.05|x7: 0.03|x8: 0.08|x9: 0.04|x10: 0.05|x11: 0.05|x12: 0.05|x13: 0.05|x14: 0.07|x15: 0.09|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.23]</t>
+          <t>[0.00, 0.06, 0.16]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[2, 3, 8]</t>
+          <t>[2, 3]</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1458,12 +1458,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.07|x3: 0.39|x4: 0.10|x5: 0.04|x6: 0.02|x7: 0.04|x8: 0.06|x9: 0.04|x10: 0.02|x11: 0.01|x12: 0.07|x13: 0.01|x14: 0.01|x15: 0.04|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.01|x2: 0.04|x3: 0.37|x4: 0.08|x5: 0.02|x6: 0.07|x7: 0.04|x8: 0.04|x9: 0.05|x10: 0.04|x11: 0.05|x12: 0.04|x13: 0.03|x14: 0.04|x15: 0.04|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.39]</t>
+          <t>[0.00, 0.06, 0.37]</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1494,17 +1494,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.10|x3: 0.14|x4: 0.03|x5: 0.05|x6: 0.01|x7: 0.02|x8: 0.05|x9: 0.05|x10: 0.01|x11: 0.05|x12: 0.04|x13: 0.15|x14: 0.05|x15: 0.14|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.10|x2: 0.06|x3: 0.12|x4: 0.03|x5: 0.03|x6: 0.04|x7: 0.04|x8: 0.04|x9: 0.04|x10: 0.06|x11: 0.08|x12: 0.04|x13: 0.07|x14: 0.09|x15: 0.10|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.15]</t>
+          <t>[0.00, 0.06, 0.12]</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>[3, 13, 15]</t>
+          <t>[3, 15]</t>
         </is>
       </c>
       <c r="G30" t="b">
@@ -1530,17 +1530,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.07|x3: 0.03|x4: 0.15|x5: 0.03|x6: 0.12|x7: 0.07|x8: 0.04|x9: 0.01|x10: 0.08|x11: 0.02|x12: 0.08|x13: 0.05|x14: 0.03|x15: 0.15|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.04|x2: 0.04|x3: 0.09|x4: 0.19|x5: 0.03|x6: 0.05|x7: 0.04|x8: 0.03|x9: 0.04|x10: 0.03|x11: 0.05|x12: 0.05|x13: 0.07|x14: 0.09|x15: 0.09|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.15]</t>
+          <t>[0.00, 0.06, 0.19]</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[4, 6, 15]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="G31" t="b">
@@ -1566,17 +1566,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.02|x3: 0.12|x4: 0.25|x5: 0.11|x6: 0.08|x7: 0.05|x8: 0.07|x9: 0.07|x10: 0.05|x11: 0.02|x12: 0.03|x13: 0.01|x14: 0.03|x15: 0.01|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.03|x3: 0.11|x4: 0.12|x5: 0.09|x6: 0.07|x7: 0.05|x8: 0.03|x9: 0.05|x10: 0.03|x11: 0.05|x12: 0.06|x13: 0.07|x14: 0.05|x15: 0.05|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.25]</t>
+          <t>[0.00, 0.06, 0.12]</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[3, 4, 5]</t>
+          <t>[3, 4]</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -1602,24 +1602,24 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>x1: 0.10|x2: 0.02|x3: 0.07|x4: 0.10|x5: 0.09|x6: 0.04|x7: 0.03|x8: 0.13|x9: 0.14|x10: 0.04|x11: 0.05|x12: 0.03|x13: 0.01|x14: 0.07|x15: 0.01|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.07|x2: 0.05|x3: 0.20|x4: 0.08|x5: 0.05|x6: 0.03|x7: 0.04|x8: 0.04|x9: 0.07|x10: 0.08|x11: 0.05|x12: 0.04|x13: 0.04|x14: 0.04|x15: 0.04|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.14]</t>
+          <t>[0.00, 0.06, 0.20]</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[4, 8, 9]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1638,17 +1638,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.13|x3: 0.25|x4: 0.02|x5: 0.09|x6: 0.01|x7: 0.04|x8: 0.05|x9: 0.06|x10: 0.04|x11: 0.03|x12: 0.02|x13: 0.04|x14: 0.06|x15: 0.03|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.01|x2: 0.05|x3: 0.27|x4: 0.05|x5: 0.03|x6: 0.07|x7: 0.05|x8: 0.04|x9: 0.05|x10: 0.04|x11: 0.05|x12: 0.04|x13: 0.05|x14: 0.07|x15: 0.08|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.25]</t>
+          <t>[0.00, 0.06, 0.27]</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>[2, 3]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="G34" t="b">
@@ -1674,12 +1674,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.08|x3: 0.30|x4: 0.15|x5: 0.02|x6: 0.02|x7: 0.03|x8: 0.06|x9: 0.05|x10: 0.02|x11: 0.05|x12: 0.06|x13: 0.05|x14: 0.01|x15: 0.03|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.05|x2: 0.05|x3: 0.28|x4: 0.11|x5: 0.06|x6: 0.06|x7: 0.03|x8: 0.04|x9: 0.04|x10: 0.04|x11: 0.05|x12: 0.04|x13: 0.04|x14: 0.03|x15: 0.03|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.30]</t>
+          <t>[0.00, 0.06, 0.28]</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1710,17 +1710,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>x1: 0.11|x2: 0.11|x3: 0.11|x4: 0.09|x5: 0.05|x6: 0.02|x7: 0.04|x8: 0.05|x9: 0.03|x10: 0.06|x11: 0.04|x12: 0.05|x13: 0.04|x14: 0.07|x15: 0.04|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.07|x2: 0.04|x3: 0.13|x4: 0.10|x5: 0.03|x6: 0.06|x7: 0.05|x8: 0.05|x9: 0.06|x10: 0.07|x11: 0.06|x12: 0.05|x13: 0.06|x14: 0.05|x15: 0.05|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.11]</t>
+          <t>[0.00, 0.06, 0.13]</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>[1, 2, 3]</t>
+          <t>[3, 4]</t>
         </is>
       </c>
       <c r="G36" t="b">
@@ -1746,17 +1746,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.02|x3: 0.03|x4: 0.18|x5: 0.11|x6: 0.04|x7: 0.06|x8: 0.07|x9: 0.07|x10: 0.07|x11: 0.02|x12: 0.04|x13: 0.01|x14: 0.05|x15: 0.09|x16: 0.10|x17: 0.00</t>
+          <t>x1: 0.04|x2: 0.03|x3: 0.08|x4: 0.15|x5: 0.07|x6: 0.09|x7: 0.04|x8: 0.06|x9: 0.06|x10: 0.04|x11: 0.05|x12: 0.06|x13: 0.06|x14: 0.06|x15: 0.06|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.18]</t>
+          <t>[0.00, 0.06, 0.15]</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>[4, 5, 16]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="G37" t="b">
@@ -1782,12 +1782,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.07|x3: 0.21|x4: 0.01|x5: 0.08|x6: 0.03|x7: 0.08|x8: 0.04|x9: 0.05|x10: 0.10|x11: 0.07|x12: 0.04|x13: 0.01|x14: 0.02|x15: 0.06|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.02|x2: 0.05|x3: 0.26|x4: 0.03|x5: 0.10|x6: 0.07|x7: 0.05|x8: 0.04|x9: 0.07|x10: 0.06|x11: 0.04|x12: 0.04|x13: 0.04|x14: 0.03|x15: 0.03|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.21]</t>
+          <t>[0.00, 0.06, 0.26]</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1818,17 +1818,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.15|x3: 0.13|x4: 0.03|x5: 0.05|x6: 0.01|x7: 0.04|x8: 0.11|x9: 0.10|x10: 0.04|x11: 0.07|x12: 0.11|x13: 0.01|x14: 0.02|x15: 0.05|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.07|x3: 0.17|x4: 0.03|x5: 0.03|x6: 0.05|x7: 0.04|x8: 0.07|x9: 0.05|x10: 0.06|x11: 0.06|x12: 0.04|x13: 0.05|x14: 0.07|x15: 0.08|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.15]</t>
+          <t>[0.00, 0.06, 0.17]</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[2, 3, 8, 12]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="G39" t="b">
@@ -1854,7 +1854,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.08|x3: 0.02|x4: 0.09|x5: 0.11|x6: 0.05|x7: 0.04|x8: 0.09|x9: 0.11|x10: 0.06|x11: 0.04|x12: 0.02|x13: 0.05|x14: 0.03|x15: 0.02|x16: 0.13|x17: 0.00</t>
+          <t>x1: 0.04|x2: 0.05|x3: 0.03|x4: 0.13|x5: 0.09|x6: 0.05|x7: 0.03|x8: 0.05|x9: 0.05|x10: 0.04|x11: 0.05|x12: 0.05|x13: 0.07|x14: 0.09|x15: 0.09|x16: 0.09|x17: 0.00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[5, 9, 16]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="G40" t="b">
@@ -1890,17 +1890,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.04|x3: 0.19|x4: 0.11|x5: 0.02|x6: 0.01|x7: 0.07|x8: 0.06|x9: 0.06|x10: 0.08|x11: 0.04|x12: 0.04|x13: 0.02|x14: 0.12|x15: 0.02|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.04|x2: 0.03|x3: 0.18|x4: 0.12|x5: 0.03|x6: 0.09|x7: 0.05|x8: 0.06|x9: 0.05|x10: 0.05|x11: 0.06|x12: 0.05|x13: 0.05|x14: 0.04|x15: 0.04|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.19]</t>
+          <t>[0.00, 0.06, 0.18]</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[3, 4, 14]</t>
+          <t>[3, 4]</t>
         </is>
       </c>
       <c r="G41" t="b">
@@ -1926,17 +1926,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.09|x3: 0.12|x4: 0.08|x5: 0.07|x6: 0.02|x7: 0.04|x8: 0.06|x9: 0.05|x10: 0.06|x11: 0.07|x12: 0.06|x13: 0.05|x14: 0.04|x15: 0.03|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.03|x2: 0.07|x3: 0.11|x4: 0.09|x5: 0.10|x6: 0.04|x7: 0.04|x8: 0.05|x9: 0.05|x10: 0.05|x11: 0.04|x12: 0.05|x13: 0.06|x14: 0.07|x15: 0.08|x16: 0.09|x17: 0.00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.12]</t>
+          <t>[0.00, 0.06, 0.11]</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[3]</t>
+          <t>[3, 5]</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -1962,17 +1962,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.05|x3: 0.21|x4: 0.09|x5: 0.07|x6: 0.01|x7: 0.05|x8: 0.03|x9: 0.03|x10: 0.04|x11: 0.08|x12: 0.07|x13: 0.05|x14: 0.08|x15: 0.03|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.02|x2: 0.04|x3: 0.29|x4: 0.10|x5: 0.06|x6: 0.06|x7: 0.03|x8: 0.06|x9: 0.04|x10: 0.05|x11: 0.04|x12: 0.04|x13: 0.03|x14: 0.04|x15: 0.04|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.21]</t>
+          <t>[0.00, 0.06, 0.29]</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>[3]</t>
+          <t>[3, 4]</t>
         </is>
       </c>
       <c r="G43" t="b">
@@ -1998,12 +1998,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.14|x3: 0.03|x4: 0.02|x5: 0.13|x6: 0.02|x7: 0.07|x8: 0.07|x9: 0.04|x10: 0.09|x11: 0.03|x12: 0.10|x13: 0.02|x14: 0.03|x15: 0.02|x16: 0.15|x17: 0.00</t>
+          <t>x1: 0.07|x2: 0.10|x3: 0.04|x4: 0.04|x5: 0.22|x6: 0.04|x7: 0.04|x8: 0.07|x9: 0.05|x10: 0.06|x11: 0.05|x12: 0.04|x13: 0.03|x14: 0.03|x15: 0.02|x16: 0.12|x17: 0.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.15]</t>
+          <t>[0.00, 0.06, 0.22]</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2034,17 +2034,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.02|x3: 0.03|x4: 0.07|x5: 0.14|x6: 0.08|x7: 0.06|x8: 0.05|x9: 0.06|x10: 0.07|x11: 0.06|x12: 0.04|x13: 0.01|x14: 0.10|x15: 0.05|x16: 0.14|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.03|x3: 0.05|x4: 0.11|x5: 0.10|x6: 0.07|x7: 0.04|x8: 0.06|x9: 0.06|x10: 0.05|x11: 0.05|x12: 0.05|x13: 0.06|x14: 0.06|x15: 0.05|x16: 0.09|x17: 0.00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.14]</t>
+          <t>[0.00, 0.06, 0.11]</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>[5, 14, 16]</t>
+          <t>[4, 5]</t>
         </is>
       </c>
       <c r="G45" t="b">
@@ -2070,17 +2070,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>x1: 0.10|x2: 0.03|x3: 0.04|x4: 0.04|x5: 0.05|x6: 0.04|x7: 0.04|x8: 0.06|x9: 0.05|x10: 0.06|x11: 0.05|x12: 0.05|x13: 0.16|x14: 0.04|x15: 0.12|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.09|x2: 0.04|x3: 0.05|x4: 0.10|x5: 0.03|x6: 0.07|x7: 0.04|x8: 0.06|x9: 0.05|x10: 0.06|x11: 0.07|x12: 0.05|x13: 0.07|x14: 0.07|x15: 0.08|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.16]</t>
+          <t>[0.00, 0.06, 0.10]</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>[13, 15]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G46" t="b">
@@ -2106,12 +2106,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.10|x3: 0.13|x4: 0.12|x5: 0.03|x6: 0.02|x7: 0.05|x8: 0.07|x9: 0.07|x10: 0.05|x11: 0.06|x12: 0.06|x13: 0.08|x14: 0.06|x15: 0.03|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.05|x2: 0.05|x3: 0.14|x4: 0.18|x5: 0.03|x6: 0.05|x7: 0.03|x8: 0.08|x9: 0.06|x10: 0.04|x11: 0.04|x12: 0.05|x13: 0.05|x14: 0.05|x15: 0.04|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.13]</t>
+          <t>[0.00, 0.06, 0.18]</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>x1: 0.14|x2: 0.07|x3: 0.12|x4: 0.02|x5: 0.05|x6: 0.06|x7: 0.03|x8: 0.10|x9: 0.10|x10: 0.06|x11: 0.05|x12: 0.03|x13: 0.02|x14: 0.09|x15: 0.02|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.07|x2: 0.05|x3: 0.14|x4: 0.10|x5: 0.03|x6: 0.04|x7: 0.06|x8: 0.03|x9: 0.05|x10: 0.05|x11: 0.06|x12: 0.06|x13: 0.07|x14: 0.07|x15: 0.07|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>[1, 3]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="G48" t="b">
@@ -2178,17 +2178,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.02|x3: 0.10|x4: 0.11|x5: 0.05|x6: 0.19|x7: 0.02|x8: 0.05|x9: 0.02|x10: 0.02|x11: 0.03|x12: 0.11|x13: 0.03|x14: 0.13|x15: 0.01|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.07|x3: 0.12|x4: 0.10|x5: 0.05|x6: 0.05|x7: 0.05|x8: 0.06|x9: 0.07|x10: 0.08|x11: 0.05|x12: 0.05|x13: 0.05|x14: 0.05|x15: 0.04|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.19]</t>
+          <t>[0.00, 0.06, 0.12]</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>[3, 4, 6, 12, 14]</t>
+          <t>[3, 4]</t>
         </is>
       </c>
       <c r="G49" t="b">
@@ -2214,17 +2214,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.02|x3: 0.03|x4: 0.16|x5: 0.06|x6: 0.10|x7: 0.04|x8: 0.08|x9: 0.09|x10: 0.04|x11: 0.05|x12: 0.06|x13: 0.06|x14: 0.06|x15: 0.02|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.04|x2: 0.03|x3: 0.07|x4: 0.17|x5: 0.03|x6: 0.08|x7: 0.05|x8: 0.04|x9: 0.06|x10: 0.05|x11: 0.05|x12: 0.06|x13: 0.08|x14: 0.07|x15: 0.07|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.16]</t>
+          <t>[0.00, 0.06, 0.17]</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>[4, 6]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="G50" t="b">
@@ -2250,17 +2250,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>x1: 0.11|x2: 0.12|x3: 0.09|x4: 0.11|x5: 0.07|x6: 0.02|x7: 0.03|x8: 0.08|x9: 0.05|x10: 0.05|x11: 0.03|x12: 0.10|x13: 0.02|x14: 0.02|x15: 0.04|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.08|x2: 0.05|x3: 0.06|x4: 0.17|x5: 0.04|x6: 0.05|x7: 0.05|x8: 0.05|x9: 0.05|x10: 0.06|x11: 0.07|x12: 0.05|x13: 0.05|x14: 0.06|x15: 0.06|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.12]</t>
+          <t>[0.00, 0.06, 0.17]</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>[1, 2, 4]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="G51" t="b">
@@ -2286,12 +2286,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.04|x3: 0.02|x4: 0.37|x5: 0.02|x6: 0.03|x7: 0.05|x8: 0.07|x9: 0.09|x10: 0.06|x11: 0.03|x12: 0.02|x13: 0.07|x14: 0.02|x15: 0.04|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.04|x2: 0.03|x3: 0.05|x4: 0.23|x5: 0.03|x6: 0.08|x7: 0.05|x8: 0.06|x9: 0.06|x10: 0.04|x11: 0.05|x12: 0.06|x13: 0.06|x14: 0.05|x15: 0.05|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.37]</t>
+          <t>[0.00, 0.06, 0.23]</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2322,17 +2322,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.12|x3: 0.03|x4: 0.18|x5: 0.05|x6: 0.03|x7: 0.01|x8: 0.08|x9: 0.04|x10: 0.02|x11: 0.03|x12: 0.10|x13: 0.05|x14: 0.09|x15: 0.02|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.04|x3: 0.07|x4: 0.15|x5: 0.09|x6: 0.04|x7: 0.03|x8: 0.07|x9: 0.06|x10: 0.05|x11: 0.05|x12: 0.04|x13: 0.04|x14: 0.06|x15: 0.05|x16: 0.08|x17: 0.00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.18]</t>
+          <t>[0.00, 0.06, 0.15]</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[2, 4]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="G53" t="b">
@@ -2358,17 +2358,17 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.07|x3: 0.09|x4: 0.18|x5: 0.06|x6: 0.02|x7: 0.07|x8: 0.07|x9: 0.06|x10: 0.07|x11: 0.04|x12: 0.08|x13: 0.08|x14: 0.02|x15: 0.02|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.04|x2: 0.05|x3: 0.10|x4: 0.15|x5: 0.02|x6: 0.06|x7: 0.06|x8: 0.05|x9: 0.09|x10: 0.07|x11: 0.05|x12: 0.06|x13: 0.06|x14: 0.06|x15: 0.04|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.18]</t>
+          <t>[0.00, 0.06, 0.15]</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[3, 4]</t>
         </is>
       </c>
       <c r="G54" t="b">
@@ -2394,17 +2394,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>x1: 0.09|x2: 0.01|x3: 0.05|x4: 0.30|x5: 0.01|x6: 0.14|x7: 0.01|x8: 0.03|x9: 0.03|x10: 0.02|x11: 0.05|x12: 0.03|x13: 0.09|x14: 0.08|x15: 0.02|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.03|x2: 0.06|x3: 0.03|x4: 0.29|x5: 0.03|x6: 0.06|x7: 0.03|x8: 0.04|x9: 0.05|x10: 0.03|x11: 0.04|x12: 0.05|x13: 0.06|x14: 0.07|x15: 0.07|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.30]</t>
+          <t>[0.00, 0.06, 0.29]</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>[4, 6]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="G55" t="b">
@@ -2430,17 +2430,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.09|x3: 0.04|x4: 0.15|x5: 0.12|x6: 0.03|x7: 0.03|x8: 0.08|x9: 0.09|x10: 0.03|x11: 0.04|x12: 0.06|x13: 0.03|x14: 0.05|x15: 0.03|x16: 0.12|x17: 0.00</t>
+          <t>x1: 0.04|x2: 0.04|x3: 0.04|x4: 0.21|x5: 0.03|x6: 0.07|x7: 0.05|x8: 0.06|x9: 0.06|x10: 0.06|x11: 0.05|x12: 0.06|x13: 0.06|x14: 0.07|x15: 0.06|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.15]</t>
+          <t>[0.00, 0.06, 0.21]</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>[4, 5, 16]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="G56" t="b">
@@ -2466,17 +2466,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.02|x3: 0.02|x4: 0.05|x5: 0.06|x6: 0.01|x7: 0.13|x8: 0.12|x9: 0.16|x10: 0.15|x11: 0.04|x12: 0.03|x13: 0.08|x14: 0.03|x15: 0.01|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.05|x3: 0.06|x4: 0.05|x5: 0.05|x6: 0.08|x7: 0.05|x8: 0.07|x9: 0.07|x10: 0.05|x11: 0.07|x12: 0.06|x13: 0.06|x14: 0.08|x15: 0.08|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.16]</t>
+          <t>[0.00, 0.06, 0.08]</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>[7, 8, 9, 10]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G57" t="b">
@@ -2502,17 +2502,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.11|x3: 0.02|x4: 0.19|x5: 0.07|x6: 0.10|x7: 0.01|x8: 0.07|x9: 0.08|x10: 0.01|x11: 0.06|x12: 0.05|x13: 0.05|x14: 0.08|x15: 0.03|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.07|x2: 0.02|x3: 0.09|x4: 0.20|x5: 0.08|x6: 0.05|x7: 0.02|x8: 0.09|x9: 0.07|x10: 0.04|x11: 0.05|x12: 0.04|x13: 0.04|x14: 0.04|x15: 0.03|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.19]</t>
+          <t>[0.00, 0.06, 0.20]</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>[2, 4]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="G58" t="b">
@@ -2538,24 +2538,24 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.07|x3: 0.04|x4: 0.04|x5: 0.12|x6: 0.02|x7: 0.01|x8: 0.06|x9: 0.04|x10: 0.01|x11: 0.06|x12: 0.10|x13: 0.08|x14: 0.15|x15: 0.07|x16: 0.10|x17: 0.00</t>
+          <t>x1: 0.08|x2: 0.06|x3: 0.09|x4: 0.08|x5: 0.05|x6: 0.07|x7: 0.04|x8: 0.07|x9: 0.07|x10: 0.05|x11: 0.07|x12: 0.05|x13: 0.05|x14: 0.05|x15: 0.06|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.15]</t>
+          <t>[0.00, 0.06, 0.09]</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>[5, 12, 14, 16]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2574,17 +2574,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.02|x3: 0.07|x4: 0.11|x5: 0.06|x6: 0.07|x7: 0.02|x8: 0.07|x9: 0.08|x10: 0.02|x11: 0.05|x12: 0.06|x13: 0.13|x14: 0.05|x15: 0.06|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.08|x2: 0.03|x3: 0.10|x4: 0.09|x5: 0.04|x6: 0.08|x7: 0.05|x8: 0.05|x9: 0.06|x10: 0.06|x11: 0.07|x12: 0.05|x13: 0.06|x14: 0.05|x15: 0.05|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.13]</t>
+          <t>[0.00, 0.06, 0.10]</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>[4, 13]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="G60" t="b">
@@ -2610,24 +2610,24 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.10|x3: 0.02|x4: 0.18|x5: 0.16|x6: 0.07|x7: 0.01|x8: 0.07|x9: 0.06|x10: 0.01|x11: 0.02|x12: 0.06|x13: 0.01|x14: 0.04|x15: 0.02|x16: 0.17|x17: 0.00</t>
+          <t>x1: 0.02|x2: 0.08|x3: 0.05|x4: 0.16|x5: 0.09|x6: 0.05|x7: 0.04|x8: 0.04|x9: 0.04|x10: 0.03|x11: 0.04|x12: 0.05|x13: 0.06|x14: 0.08|x15: 0.09|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.18]</t>
+          <t>[0.00, 0.06, 0.16]</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>[2, 4, 5, 16]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2646,17 +2646,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.12|x3: 0.03|x4: 0.02|x5: 0.18|x6: 0.14|x7: 0.02|x8: 0.02|x9: 0.02|x10: 0.03|x11: 0.03|x12: 0.02|x13: 0.08|x14: 0.05|x15: 0.03|x16: 0.19|x17: 0.00</t>
+          <t>x1: 0.04|x2: 0.12|x3: 0.04|x4: 0.02|x5: 0.10|x6: 0.05|x7: 0.03|x8: 0.04|x9: 0.05|x10: 0.05|x11: 0.06|x12: 0.05|x13: 0.06|x14: 0.09|x15: 0.11|x16: 0.08|x17: 0.00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.19]</t>
+          <t>[0.00, 0.06, 0.12]</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[2, 5, 6, 16]</t>
+          <t>[2, 5, 15]</t>
         </is>
       </c>
       <c r="G62" t="b">
@@ -2682,7 +2682,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.11|x3: 0.02|x4: 0.01|x5: 0.14|x6: 0.01|x7: 0.02|x8: 0.10|x9: 0.12|x10: 0.02|x11: 0.06|x12: 0.04|x13: 0.01|x14: 0.17|x15: 0.02|x16: 0.12|x17: 0.00</t>
+          <t>x1: 0.03|x2: 0.05|x3: 0.10|x4: 0.06|x5: 0.17|x6: 0.05|x7: 0.04|x8: 0.04|x9: 0.04|x10: 0.04|x11: 0.05|x12: 0.04|x13: 0.05|x14: 0.07|x15: 0.08|x16: 0.11|x17: 0.00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>[2, 5, 9, 14, 16]</t>
+          <t>[5, 16]</t>
         </is>
       </c>
       <c r="G63" t="b">
@@ -2718,17 +2718,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.10|x3: 0.06|x4: 0.07|x5: 0.13|x6: 0.04|x7: 0.02|x8: 0.06|x9: 0.06|x10: 0.03|x11: 0.02|x12: 0.05|x13: 0.01|x14: 0.10|x15: 0.06|x16: 0.14|x17: 0.00</t>
+          <t>x1: 0.05|x2: 0.02|x3: 0.09|x4: 0.08|x5: 0.18|x6: 0.06|x7: 0.04|x8: 0.04|x9: 0.04|x10: 0.04|x11: 0.04|x12: 0.05|x13: 0.06|x14: 0.05|x15: 0.05|x16: 0.11|x17: 0.00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.14]</t>
+          <t>[0.00, 0.06, 0.18]</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>[2, 5, 14, 16]</t>
+          <t>[5, 16]</t>
         </is>
       </c>
       <c r="G64" t="b">
@@ -2754,17 +2754,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.09|x3: 0.05|x4: 0.09|x5: 0.17|x6: 0.02|x7: 0.04|x8: 0.04|x9: 0.02|x10: 0.04|x11: 0.03|x12: 0.07|x13: 0.06|x14: 0.06|x15: 0.02|x16: 0.18|x17: 0.00</t>
+          <t>x1: 0.05|x2: 0.03|x3: 0.05|x4: 0.12|x5: 0.16|x6: 0.06|x7: 0.04|x8: 0.05|x9: 0.05|x10: 0.05|x11: 0.05|x12: 0.04|x13: 0.05|x14: 0.05|x15: 0.05|x16: 0.10|x17: 0.00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.18]</t>
+          <t>[0.00, 0.06, 0.16]</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>[5, 16]</t>
+          <t>[4, 5]</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -2790,17 +2790,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.10|x3: 0.14|x4: 0.08|x5: 0.03|x6: 0.02|x7: 0.08|x8: 0.11|x9: 0.10|x10: 0.08|x11: 0.03|x12: 0.08|x13: 0.06|x14: 0.01|x15: 0.03|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.02|x2: 0.05|x3: 0.16|x4: 0.04|x5: 0.04|x6: 0.06|x7: 0.06|x8: 0.07|x9: 0.10|x10: 0.06|x11: 0.05|x12: 0.05|x13: 0.05|x14: 0.06|x15: 0.06|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.14]</t>
+          <t>[0.00, 0.06, 0.16]</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>[2, 3, 8, 9]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="G66" t="b">
@@ -2826,12 +2826,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.06|x3: 0.13|x4: 0.13|x5: 0.05|x6: 0.03|x7: 0.04|x8: 0.06|x9: 0.05|x10: 0.05|x11: 0.05|x12: 0.06|x13: 0.06|x14: 0.03|x15: 0.05|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.05|x2: 0.05|x3: 0.11|x4: 0.11|x5: 0.06|x6: 0.07|x7: 0.05|x8: 0.06|x9: 0.06|x10: 0.05|x11: 0.06|x12: 0.05|x13: 0.05|x14: 0.06|x15: 0.06|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.13]</t>
+          <t>[0.00, 0.06, 0.11]</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2862,12 +2862,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.09|x3: 0.02|x4: 0.06|x5: 0.05|x6: 0.01|x7: 0.07|x8: 0.05|x9: 0.04|x10: 0.09|x11: 0.02|x12: 0.05|x13: 0.02|x14: 0.02|x15: 0.28|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.03|x2: 0.07|x3: 0.07|x4: 0.09|x5: 0.04|x6: 0.07|x7: 0.04|x8: 0.04|x9: 0.05|x10: 0.04|x11: 0.06|x12: 0.05|x13: 0.08|x14: 0.10|x15: 0.11|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.28]</t>
+          <t>[0.00, 0.06, 0.11]</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2898,24 +2898,24 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.03|x3: 0.03|x4: 0.09|x5: 0.02|x6: 0.15|x7: 0.05|x8: 0.07|x9: 0.09|x10: 0.06|x11: 0.04|x12: 0.03|x13: 0.06|x14: 0.11|x15: 0.06|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.07|x2: 0.05|x3: 0.04|x4: 0.13|x5: 0.03|x6: 0.06|x7: 0.04|x8: 0.09|x9: 0.07|x10: 0.06|x11: 0.06|x12: 0.06|x13: 0.06|x14: 0.07|x15: 0.06|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.15]</t>
+          <t>[0.00, 0.06, 0.13]</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>[6, 14]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2934,24 +2934,24 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.06|x3: 0.03|x4: 0.04|x5: 0.03|x6: 0.17|x7: 0.06|x8: 0.03|x9: 0.02|x10: 0.07|x11: 0.07|x12: 0.09|x13: 0.02|x14: 0.08|x15: 0.13|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.08|x2: 0.07|x3: 0.03|x4: 0.07|x5: 0.04|x6: 0.05|x7: 0.03|x8: 0.05|x9: 0.05|x10: 0.06|x11: 0.06|x12: 0.05|x13: 0.08|x14: 0.09|x15: 0.10|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.17]</t>
+          <t>[0.00, 0.06, 0.10]</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>[6, 15]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2970,24 +2970,24 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.01|x3: 0.03|x4: 0.12|x5: 0.03|x6: 0.08|x7: 0.05|x8: 0.04|x9: 0.06|x10: 0.06|x11: 0.08|x12: 0.04|x13: 0.09|x14: 0.14|x15: 0.08|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.02|x2: 0.05|x3: 0.05|x4: 0.15|x5: 0.04|x6: 0.09|x7: 0.04|x8: 0.04|x9: 0.05|x10: 0.04|x11: 0.05|x12: 0.06|x13: 0.07|x14: 0.09|x15: 0.10|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.14]</t>
+          <t>[0.00, 0.06, 0.15]</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>[4, 14]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3006,24 +3006,24 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.01|x3: 0.06|x4: 0.14|x5: 0.06|x6: 0.18|x7: 0.05|x8: 0.02|x9: 0.02|x10: 0.05|x11: 0.07|x12: 0.04|x13: 0.04|x14: 0.16|x15: 0.01|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.04|x2: 0.04|x3: 0.07|x4: 0.09|x5: 0.04|x6: 0.09|x7: 0.06|x8: 0.07|x9: 0.07|x10: 0.05|x11: 0.06|x12: 0.07|x13: 0.07|x14: 0.06|x15: 0.07|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.18]</t>
+          <t>[0.00, 0.06, 0.09]</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>[4, 6, 14]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -3042,17 +3042,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.13|x3: 0.06|x4: 0.05|x5: 0.08|x6: 0.10|x7: 0.04|x8: 0.06|x9: 0.04|x10: 0.05|x11: 0.05|x12: 0.10|x13: 0.07|x14: 0.03|x15: 0.04|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.09|x2: 0.05|x3: 0.06|x4: 0.07|x5: 0.07|x6: 0.06|x7: 0.05|x8: 0.09|x9: 0.06|x10: 0.07|x11: 0.07|x12: 0.05|x13: 0.04|x14: 0.04|x15: 0.04|x16: 0.08|x17: 0.00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.13]</t>
+          <t>[0.00, 0.06, 0.09]</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G73" t="b">
@@ -3078,17 +3078,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.07|x3: 0.08|x4: 0.10|x5: 0.01|x6: 0.03|x7: 0.14|x8: 0.09|x9: 0.10|x10: 0.16|x11: 0.03|x12: 0.06|x13: 0.04|x14: 0.02|x15: 0.02|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.10|x2: 0.06|x3: 0.09|x4: 0.12|x5: 0.02|x6: 0.04|x7: 0.07|x8: 0.05|x9: 0.06|x10: 0.06|x11: 0.07|x12: 0.07|x13: 0.06|x14: 0.04|x15: 0.03|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.16]</t>
+          <t>[0.00, 0.06, 0.12]</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>[4, 7, 10]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="G74" t="b">
@@ -3114,24 +3114,24 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.17|x3: 0.13|x4: 0.03|x5: 0.06|x6: 0.01|x7: 0.02|x8: 0.11|x9: 0.10|x10: 0.02|x11: 0.06|x12: 0.11|x13: 0.02|x14: 0.05|x15: 0.04|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.05|x2: 0.10|x3: 0.05|x4: 0.02|x5: 0.07|x6: 0.05|x7: 0.04|x8: 0.05|x9: 0.04|x10: 0.04|x11: 0.06|x12: 0.06|x13: 0.08|x14: 0.10|x15: 0.12|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.17]</t>
+          <t>[0.00, 0.06, 0.12]</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>[2, 3, 8, 9, 12]</t>
+          <t>[2, 15]</t>
         </is>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -3150,24 +3150,24 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.13|x3: 0.03|x4: 0.07|x5: 0.06|x6: 0.02|x7: 0.04|x8: 0.12|x9: 0.12|x10: 0.03|x11: 0.06|x12: 0.09|x13: 0.06|x14: 0.05|x15: 0.03|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.03|x2: 0.08|x3: 0.03|x4: 0.11|x5: 0.06|x6: 0.04|x7: 0.05|x8: 0.08|x9: 0.06|x10: 0.06|x11: 0.05|x12: 0.06|x13: 0.07|x14: 0.08|x15: 0.09|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.13]</t>
+          <t>[0.00, 0.06, 0.11]</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>[2, 8, 9]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3186,17 +3186,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.09|x3: 0.15|x4: 0.18|x5: 0.03|x6: 0.02|x7: 0.01|x8: 0.08|x9: 0.09|x10: 0.02|x11: 0.04|x12: 0.02|x13: 0.14|x14: 0.01|x15: 0.03|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.08|x2: 0.05|x3: 0.10|x4: 0.15|x5: 0.04|x6: 0.04|x7: 0.03|x8: 0.07|x9: 0.04|x10: 0.06|x11: 0.06|x12: 0.04|x13: 0.06|x14: 0.06|x15: 0.06|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.18]</t>
+          <t>[0.00, 0.06, 0.15]</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>[3, 4, 13]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="G77" t="b">
@@ -3222,24 +3222,24 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.04|x3: 0.03|x4: 0.02|x5: 0.10|x6: 0.12|x7: 0.12|x8: 0.04|x9: 0.05|x10: 0.14|x11: 0.04|x12: 0.04|x13: 0.02|x14: 0.13|x15: 0.02|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.04|x2: 0.04|x3: 0.06|x4: 0.20|x5: 0.04|x6: 0.07|x7: 0.05|x8: 0.06|x9: 0.06|x10: 0.05|x11: 0.04|x12: 0.06|x13: 0.07|x14: 0.06|x15: 0.05|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.14]</t>
+          <t>[0.00, 0.06, 0.20]</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>[6, 7, 10, 14]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3258,17 +3258,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.11|x3: 0.02|x4: 0.03|x5: 0.04|x6: 0.12|x7: 0.12|x8: 0.07|x9: 0.08|x10: 0.14|x11: 0.04|x12: 0.04|x13: 0.02|x14: 0.09|x15: 0.03|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.05|x2: 0.07|x3: 0.05|x4: 0.08|x5: 0.06|x6: 0.08|x7: 0.05|x8: 0.05|x9: 0.05|x10: 0.04|x11: 0.06|x12: 0.05|x13: 0.06|x14: 0.08|x15: 0.09|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.14]</t>
+          <t>[0.00, 0.06, 0.09]</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>[2, 6, 7, 10]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G79" t="b">
@@ -3294,17 +3294,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.10|x3: 0.05|x4: 0.03|x5: 0.02|x6: 0.01|x7: 0.13|x8: 0.06|x9: 0.08|x10: 0.14|x11: 0.06|x12: 0.03|x13: 0.12|x14: 0.03|x15: 0.10|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.07|x2: 0.11|x3: 0.04|x4: 0.05|x5: 0.03|x6: 0.05|x7: 0.05|x8: 0.08|x9: 0.08|x10: 0.06|x11: 0.07|x12: 0.06|x13: 0.05|x14: 0.07|x15: 0.08|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.14]</t>
+          <t>[0.00, 0.06, 0.11]</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>[2, 7, 10, 13]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="G80" t="b">
@@ -3330,24 +3330,24 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.04|x3: 0.03|x4: 0.05|x5: 0.02|x6: 0.01|x7: 0.04|x8: 0.14|x9: 0.17|x10: 0.04|x11: 0.15|x12: 0.09|x13: 0.07|x14: 0.05|x15: 0.03|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.07|x2: 0.05|x3: 0.05|x4: 0.07|x5: 0.03|x6: 0.07|x7: 0.04|x8: 0.08|x9: 0.08|x10: 0.05|x11: 0.07|x12: 0.06|x13: 0.06|x14: 0.08|x15: 0.09|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.17]</t>
+          <t>[0.00, 0.06, 0.09]</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>[8, 9, 11]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3366,24 +3366,24 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.03|x3: 0.08|x4: 0.09|x5: 0.05|x6: 0.18|x7: 0.04|x8: 0.03|x9: 0.03|x10: 0.04|x11: 0.12|x12: 0.07|x13: 0.09|x14: 0.06|x15: 0.02|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.03|x3: 0.09|x4: 0.07|x5: 0.03|x6: 0.09|x7: 0.06|x8: 0.05|x9: 0.06|x10: 0.05|x11: 0.06|x12: 0.07|x13: 0.08|x14: 0.07|x15: 0.08|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.18]</t>
+          <t>[0.00, 0.06, 0.09]</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>[6, 11]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3402,17 +3402,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.18|x3: 0.05|x4: 0.04|x5: 0.06|x6: 0.07|x7: 0.01|x8: 0.06|x9: 0.04|x10: 0.01|x11: 0.07|x12: 0.12|x13: 0.02|x14: 0.16|x15: 0.04|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.04|x2: 0.07|x3: 0.10|x4: 0.09|x5: 0.04|x6: 0.07|x7: 0.05|x8: 0.07|x9: 0.07|x10: 0.05|x11: 0.05|x12: 0.05|x13: 0.06|x14: 0.06|x15: 0.06|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.18]</t>
+          <t>[0.00, 0.06, 0.10]</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>[2, 12, 14]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="G83" t="b">
@@ -3438,17 +3438,17 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.07|x3: 0.04|x4: 0.06|x5: 0.04|x6: 0.06|x7: 0.06|x8: 0.12|x9: 0.13|x10: 0.05|x11: 0.06|x12: 0.09|x13: 0.02|x14: 0.12|x15: 0.02|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.07|x3: 0.09|x4: 0.07|x5: 0.03|x6: 0.06|x7: 0.05|x8: 0.07|x9: 0.06|x10: 0.05|x11: 0.06|x12: 0.06|x13: 0.07|x14: 0.07|x15: 0.08|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.13]</t>
+          <t>[0.00, 0.06, 0.09]</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>[8, 9, 14]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G84" t="b">
@@ -3474,17 +3474,17 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.14|x3: 0.16|x4: 0.07|x5: 0.09|x6: 0.02|x7: 0.03|x8: 0.05|x9: 0.05|x10: 0.03|x11: 0.07|x12: 0.04|x13: 0.01|x14: 0.12|x15: 0.03|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.04|x3: 0.15|x4: 0.10|x5: 0.04|x6: 0.04|x7: 0.03|x8: 0.06|x9: 0.04|x10: 0.06|x11: 0.05|x12: 0.04|x13: 0.06|x14: 0.07|x15: 0.08|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.16]</t>
+          <t>[0.00, 0.06, 0.15]</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>[2, 3, 14]</t>
+          <t>[3, 4]</t>
         </is>
       </c>
       <c r="G85" t="b">
@@ -3510,17 +3510,17 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.06|x3: 0.05|x4: 0.10|x5: 0.09|x6: 0.02|x7: 0.08|x8: 0.07|x9: 0.07|x10: 0.09|x11: 0.05|x12: 0.07|x13: 0.06|x14: 0.07|x15: 0.02|x16: 0.10|x17: 0.00</t>
+          <t>x1: 0.03|x2: 0.04|x3: 0.07|x4: 0.12|x5: 0.13|x6: 0.06|x7: 0.03|x8: 0.06|x9: 0.04|x10: 0.05|x11: 0.04|x12: 0.05|x13: 0.06|x14: 0.06|x15: 0.07|x16: 0.09|x17: 0.00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.10]</t>
+          <t>[0.00, 0.06, 0.13]</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[4, 5]</t>
         </is>
       </c>
       <c r="G86" t="b">
@@ -3546,24 +3546,24 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.05|x3: 0.04|x4: 0.07|x5: 0.10|x6: 0.03|x7: 0.09|x8: 0.10|x9: 0.09|x10: 0.11|x11: 0.03|x12: 0.09|x13: 0.01|x14: 0.03|x15: 0.01|x16: 0.10|x17: 0.00</t>
+          <t>x1: 0.08|x2: 0.04|x3: 0.05|x4: 0.04|x5: 0.17|x6: 0.03|x7: 0.02|x8: 0.10|x9: 0.07|x10: 0.06|x11: 0.05|x12: 0.04|x13: 0.04|x14: 0.04|x15: 0.04|x16: 0.11|x17: 0.00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.11]</t>
+          <t>[0.00, 0.06, 0.17]</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>[10, 16]</t>
+          <t>[5, 8, 16]</t>
         </is>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -3582,17 +3582,17 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>x1: 0.10|x2: 0.10|x3: 0.05|x4: 0.06|x5: 0.05|x6: 0.05|x7: 0.04|x8: 0.06|x9: 0.05|x10: 0.06|x11: 0.10|x12: 0.08|x13: 0.05|x14: 0.09|x15: 0.03|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.13|x2: 0.06|x3: 0.04|x4: 0.08|x5: 0.03|x6: 0.04|x7: 0.04|x8: 0.05|x9: 0.05|x10: 0.07|x11: 0.08|x12: 0.05|x13: 0.07|x14: 0.08|x15: 0.08|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.10]</t>
+          <t>[0.00, 0.06, 0.13]</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>[11]</t>
+          <t>[1]</t>
         </is>
       </c>
       <c r="G88" t="b">
@@ -3618,17 +3618,17 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>x1: 0.09|x2: 0.05|x3: 0.04|x4: 0.07|x5: 0.09|x6: 0.02|x7: 0.07|x8: 0.09|x9: 0.07|x10: 0.09|x11: 0.04|x12: 0.09|x13: 0.02|x14: 0.04|x15: 0.04|x16: 0.11|x17: 0.00</t>
+          <t>x1: 0.11|x2: 0.04|x3: 0.06|x4: 0.08|x5: 0.12|x6: 0.04|x7: 0.04|x8: 0.06|x9: 0.05|x10: 0.07|x11: 0.07|x12: 0.04|x13: 0.04|x14: 0.05|x15: 0.05|x16: 0.09|x17: 0.00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.11]</t>
+          <t>[0.00, 0.06, 0.12]</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[1, 5]</t>
         </is>
       </c>
       <c r="G89" t="b">
@@ -3654,17 +3654,17 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.05|x3: 0.03|x4: 0.04|x5: 0.01|x6: 0.01|x7: 0.13|x8: 0.09|x9: 0.13|x10: 0.14|x11: 0.09|x12: 0.04|x13: 0.12|x14: 0.05|x15: 0.02|x16: 0.01|x17: 0.00</t>
+          <t>x1: 0.10|x2: 0.02|x3: 0.10|x4: 0.24|x5: 0.03|x6: 0.05|x7: 0.03|x8: 0.04|x9: 0.04|x10: 0.05|x11: 0.05|x12: 0.04|x13: 0.06|x14: 0.05|x15: 0.03|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.14]</t>
+          <t>[0.00, 0.06, 0.24]</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>[7, 9, 10, 13]</t>
+          <t>[1, 4]</t>
         </is>
       </c>
       <c r="G90" t="b">
@@ -3690,24 +3690,24 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.04|x3: 0.09|x4: 0.03|x5: 0.03|x6: 0.04|x7: 0.09|x8: 0.07|x9: 0.11|x10: 0.12|x11: 0.19|x12: 0.07|x13: 0.04|x14: 0.02|x15: 0.01|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.09|x2: 0.04|x3: 0.10|x4: 0.08|x5: 0.02|x6: 0.06|x7: 0.05|x8: 0.04|x9: 0.06|x10: 0.07|x11: 0.07|x12: 0.05|x13: 0.06|x14: 0.07|x15: 0.08|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.19]</t>
+          <t>[0.00, 0.06, 0.10]</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>[9, 10, 11]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="G91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.08|x3: 0.03|x4: 0.02|x5: 0.07|x6: 0.09|x7: 0.06|x8: 0.11|x9: 0.10|x10: 0.06|x11: 0.04|x12: 0.12|x13: 0.06|x14: 0.04|x15: 0.02|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.05|x2: 0.08|x3: 0.06|x4: 0.05|x5: 0.12|x6: 0.05|x7: 0.05|x8: 0.06|x9: 0.06|x10: 0.06|x11: 0.06|x12: 0.05|x13: 0.04|x14: 0.06|x15: 0.06|x16: 0.10|x17: 0.00</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>[8, 9, 12]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="G92" t="b">
@@ -3762,17 +3762,17 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.21|x3: 0.02|x4: 0.01|x5: 0.03|x6: 0.05|x7: 0.13|x8: 0.07|x9: 0.08|x10: 0.16|x11: 0.06|x12: 0.03|x13: 0.02|x14: 0.05|x15: 0.04|x16: 0.01|x17: 0.00</t>
+          <t>x1: 0.02|x2: 0.13|x3: 0.07|x4: 0.04|x5: 0.07|x6: 0.05|x7: 0.05|x8: 0.06|x9: 0.06|x10: 0.05|x11: 0.05|x12: 0.05|x13: 0.06|x14: 0.08|x15: 0.09|x16: 0.08|x17: 0.00</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.21]</t>
+          <t>[0.00, 0.06, 0.13]</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>[2, 7, 10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="G93" t="b">
@@ -3798,7 +3798,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.02|x3: 0.17|x4: 0.03|x5: 0.10|x6: 0.10|x7: 0.06|x8: 0.04|x9: 0.04|x10: 0.08|x11: 0.06|x12: 0.03|x13: 0.07|x14: 0.04|x15: 0.02|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.04|x3: 0.17|x4: 0.07|x5: 0.06|x6: 0.06|x7: 0.05|x8: 0.04|x9: 0.05|x10: 0.05|x11: 0.06|x12: 0.05|x13: 0.06|x14: 0.06|x15: 0.07|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3834,24 +3834,24 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.06|x3: 0.12|x4: 0.03|x5: 0.03|x6: 0.03|x7: 0.05|x8: 0.11|x9: 0.15|x10: 0.06|x11: 0.12|x12: 0.06|x13: 0.02|x14: 0.07|x15: 0.03|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.05|x3: 0.12|x4: 0.07|x5: 0.03|x6: 0.06|x7: 0.05|x8: 0.07|x9: 0.07|x10: 0.05|x11: 0.06|x12: 0.06|x13: 0.07|x14: 0.07|x15: 0.08|x16: 0.04|x17: 0.00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.15]</t>
+          <t>[0.00, 0.06, 0.12]</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>[3, 8, 9, 11]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="G95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3870,17 +3870,17 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.06|x3: 0.06|x4: 0.05|x5: 0.05|x6: 0.17|x7: 0.04|x8: 0.05|x9: 0.05|x10: 0.05|x11: 0.06|x12: 0.04|x13: 0.01|x14: 0.14|x15: 0.05|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.07|x2: 0.06|x3: 0.05|x4: 0.09|x5: 0.04|x6: 0.07|x7: 0.05|x8: 0.05|x9: 0.05|x10: 0.05|x11: 0.07|x12: 0.06|x13: 0.07|x14: 0.08|x15: 0.08|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.17]</t>
+          <t>[0.00, 0.06, 0.09]</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>[6, 14]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G96" t="b">
@@ -3906,17 +3906,17 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.11|x3: 0.05|x4: 0.09|x5: 0.03|x6: 0.02|x7: 0.03|x8: 0.03|x9: 0.03|x10: 0.04|x11: 0.05|x12: 0.03|x13: 0.04|x14: 0.06|x15: 0.27|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.07|x2: 0.05|x3: 0.05|x4: 0.16|x5: 0.03|x6: 0.06|x7: 0.03|x8: 0.05|x9: 0.05|x10: 0.04|x11: 0.07|x12: 0.05|x13: 0.07|x14: 0.09|x15: 0.09|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.27]</t>
+          <t>[0.00, 0.06, 0.16]</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>[2, 15]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="G97" t="b">
@@ -3942,17 +3942,17 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.04|x3: 0.16|x4: 0.03|x5: 0.10|x6: 0.01|x7: 0.01|x8: 0.12|x9: 0.14|x10: 0.02|x11: 0.04|x12: 0.03|x13: 0.02|x14: 0.07|x15: 0.02|x16: 0.12|x17: 0.00</t>
+          <t>x1: 0.04|x2: 0.03|x3: 0.26|x4: 0.12|x5: 0.07|x6: 0.07|x7: 0.04|x8: 0.04|x9: 0.05|x10: 0.05|x11: 0.05|x12: 0.04|x13: 0.03|x14: 0.03|x15: 0.03|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.16]</t>
+          <t>[0.00, 0.06, 0.26]</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>[3, 8, 9, 16]</t>
+          <t>[3, 4]</t>
         </is>
       </c>
       <c r="G98" t="b">
@@ -3978,17 +3978,17 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.12|x3: 0.03|x4: 0.13|x5: 0.08|x6: 0.06|x7: 0.03|x8: 0.08|x9: 0.07|x10: 0.04|x11: 0.03|x12: 0.08|x13: 0.07|x14: 0.03|x15: 0.03|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.05|x2: 0.07|x3: 0.07|x4: 0.10|x5: 0.06|x6: 0.06|x7: 0.05|x8: 0.06|x9: 0.05|x10: 0.05|x11: 0.05|x12: 0.05|x13: 0.06|x14: 0.06|x15: 0.06|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.13]</t>
+          <t>[0.00, 0.06, 0.10]</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>[2, 4]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="G99" t="b">
@@ -4014,17 +4014,17 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.02|x3: 0.06|x4: 0.07|x5: 0.03|x6: 0.04|x7: 0.07|x8: 0.08|x9: 0.10|x10: 0.08|x11: 0.08|x12: 0.07|x13: 0.06|x14: 0.12|x15: 0.04|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.05|x3: 0.13|x4: 0.12|x5: 0.06|x6: 0.06|x7: 0.05|x8: 0.05|x9: 0.06|x10: 0.05|x11: 0.05|x12: 0.05|x13: 0.04|x14: 0.04|x15: 0.04|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.12]</t>
+          <t>[0.00, 0.06, 0.13]</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[3, 4]</t>
         </is>
       </c>
       <c r="G100" t="b">
@@ -4050,17 +4050,17 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.02|x3: 0.03|x4: 0.01|x5: 0.05|x6: 0.01|x7: 0.07|x8: 0.14|x9: 0.17|x10: 0.08|x11: 0.08|x12: 0.08|x13: 0.02|x14: 0.12|x15: 0.05|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.05|x3: 0.05|x4: 0.05|x5: 0.05|x6: 0.05|x7: 0.08|x8: 0.04|x9: 0.07|x10: 0.06|x11: 0.06|x12: 0.07|x13: 0.09|x14: 0.08|x15: 0.08|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.17]</t>
+          <t>[0.00, 0.06, 0.09]</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>[8, 9, 14]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G101" t="b">
@@ -4086,24 +4086,24 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.12|x3: 0.06|x4: 0.01|x5: 0.05|x6: 0.01|x7: 0.06|x8: 0.07|x9: 0.08|x10: 0.06|x11: 0.07|x12: 0.04|x13: 0.19|x14: 0.03|x15: 0.06|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.05|x2: 0.08|x3: 0.05|x4: 0.09|x5: 0.03|x6: 0.05|x7: 0.04|x8: 0.04|x9: 0.05|x10: 0.04|x11: 0.07|x12: 0.06|x13: 0.08|x14: 0.10|x15: 0.12|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.19]</t>
+          <t>[0.00, 0.06, 0.12]</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>[2, 13]</t>
+          <t>[14, 15]</t>
         </is>
       </c>
       <c r="G102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.07|x3: 0.11|x4: 0.06|x5: 0.10|x6: 0.05|x7: 0.04|x8: 0.11|x9: 0.12|x10: 0.04|x11: 0.03|x12: 0.08|x13: 0.01|x14: 0.03|x15: 0.02|x16: 0.11|x17: 0.00</t>
+          <t>x1: 0.03|x2: 0.07|x3: 0.04|x4: 0.12|x5: 0.06|x6: 0.07|x7: 0.03|x8: 0.05|x9: 0.06|x10: 0.04|x11: 0.05|x12: 0.05|x13: 0.07|x14: 0.09|x15: 0.10|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4132,7 +4132,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>[3, 8, 9, 16]</t>
+          <t>[4, 15]</t>
         </is>
       </c>
       <c r="G103" t="b">
@@ -4158,24 +4158,24 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.04|x3: 0.03|x4: 0.04|x5: 0.09|x6: 0.02|x7: 0.04|x8: 0.06|x9: 0.05|x10: 0.05|x11: 0.05|x12: 0.07|x13: 0.11|x14: 0.17|x15: 0.02|x16: 0.11|x17: 0.00</t>
+          <t>x1: 0.07|x2: 0.06|x3: 0.06|x4: 0.08|x5: 0.07|x6: 0.06|x7: 0.04|x8: 0.06|x9: 0.05|x10: 0.06|x11: 0.06|x12: 0.05|x13: 0.06|x14: 0.07|x15: 0.07|x16: 0.08|x17: 0.00</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.17]</t>
+          <t>[0.00, 0.06, 0.08]</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>[13, 14, 16]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -4194,24 +4194,24 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.02|x3: 0.02|x4: 0.03|x5: 0.04|x6: 0.07|x7: 0.01|x8: 0.04|x9: 0.02|x10: 0.02|x11: 0.06|x12: 0.09|x13: 0.07|x14: 0.16|x15: 0.20|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.05|x2: 0.06|x3: 0.06|x4: 0.07|x5: 0.07|x6: 0.06|x7: 0.05|x8: 0.04|x9: 0.06|x10: 0.05|x11: 0.06|x12: 0.05|x13: 0.07|x14: 0.09|x15: 0.09|x16: 0.08|x17: 0.00</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.20]</t>
+          <t>[0.00, 0.06, 0.09]</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>[14, 15]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -4230,24 +4230,24 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.03|x3: 0.07|x4: 0.01|x5: 0.04|x6: 0.09|x7: 0.03|x8: 0.04|x9: 0.03|x10: 0.04|x11: 0.06|x12: 0.08|x13: 0.07|x14: 0.23|x15: 0.07|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.07|x2: 0.05|x3: 0.06|x4: 0.03|x5: 0.04|x6: 0.08|x7: 0.06|x8: 0.05|x9: 0.06|x10: 0.05|x11: 0.07|x12: 0.06|x13: 0.07|x14: 0.08|x15: 0.09|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.23]</t>
+          <t>[0.00, 0.06, 0.09]</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -4266,24 +4266,24 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.08|x3: 0.08|x4: 0.01|x5: 0.07|x6: 0.01|x7: 0.07|x8: 0.05|x9: 0.07|x10: 0.07|x11: 0.08|x12: 0.06|x13: 0.02|x14: 0.16|x15: 0.07|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.07|x2: 0.04|x3: 0.13|x4: 0.09|x5: 0.02|x6: 0.07|x7: 0.05|x8: 0.07|x9: 0.07|x10: 0.05|x11: 0.07|x12: 0.05|x13: 0.05|x14: 0.06|x15: 0.05|x16: 0.04|x17: 0.00</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.16]</t>
+          <t>[0.00, 0.06, 0.13]</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="G107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -4302,24 +4302,24 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.09|x3: 0.05|x4: 0.01|x5: 0.05|x6: 0.08|x7: 0.06|x8: 0.04|x9: 0.05|x10: 0.07|x11: 0.08|x12: 0.04|x13: 0.09|x14: 0.14|x15: 0.03|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.04|x3: 0.10|x4: 0.06|x5: 0.06|x6: 0.07|x7: 0.05|x8: 0.05|x9: 0.06|x10: 0.06|x11: 0.06|x12: 0.05|x13: 0.07|x14: 0.07|x15: 0.07|x16: 0.08|x17: 0.00</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.14]</t>
+          <t>[0.00, 0.06, 0.10]</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -4338,24 +4338,24 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.02|x3: 0.03|x4: 0.03|x5: 0.08|x6: 0.06|x7: 0.02|x8: 0.05|x9: 0.06|x10: 0.02|x11: 0.08|x12: 0.08|x13: 0.11|x14: 0.14|x15: 0.08|x16: 0.10|x17: 0.00</t>
+          <t>x1: 0.03|x2: 0.05|x3: 0.10|x4: 0.05|x5: 0.07|x6: 0.07|x7: 0.05|x8: 0.05|x9: 0.04|x10: 0.04|x11: 0.06|x12: 0.06|x13: 0.08|x14: 0.09|x15: 0.11|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.14]</t>
+          <t>[0.00, 0.06, 0.11]</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>[13, 14]</t>
+          <t>[15]</t>
         </is>
       </c>
       <c r="G109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -4374,24 +4374,24 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.04|x3: 0.04|x4: 0.05|x5: 0.05|x6: 0.07|x7: 0.03|x8: 0.06|x9: 0.08|x10: 0.03|x11: 0.04|x12: 0.04|x13: 0.12|x14: 0.15|x15: 0.10|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.03|x2: 0.06|x3: 0.07|x4: 0.05|x5: 0.04|x6: 0.07|x7: 0.05|x8: 0.06|x9: 0.05|x10: 0.05|x11: 0.06|x12: 0.06|x13: 0.08|x14: 0.09|x15: 0.10|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.15]</t>
+          <t>[0.00, 0.06, 0.10]</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>[13, 14]</t>
+          <t>[15]</t>
         </is>
       </c>
       <c r="G110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -4410,17 +4410,17 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.05|x3: 0.13|x4: 0.09|x5: 0.06|x6: 0.03|x7: 0.04|x8: 0.09|x9: 0.09|x10: 0.04|x11: 0.05|x12: 0.05|x13: 0.06|x14: 0.05|x15: 0.06|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.05|x2: 0.08|x3: 0.09|x4: 0.06|x5: 0.03|x6: 0.05|x7: 0.07|x8: 0.05|x9: 0.06|x10: 0.04|x11: 0.06|x12: 0.07|x13: 0.08|x14: 0.08|x15: 0.09|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.13]</t>
+          <t>[0.00, 0.06, 0.09]</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>[3]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G111" t="b">
@@ -4446,24 +4446,24 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>x1: 0.13|x2: 0.02|x3: 0.05|x4: 0.06|x5: 0.03|x6: 0.02|x7: 0.04|x8: 0.06|x9: 0.06|x10: 0.05|x11: 0.06|x12: 0.04|x13: 0.19|x14: 0.02|x15: 0.14|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.05|x2: 0.04|x3: 0.06|x4: 0.05|x5: 0.05|x6: 0.09|x7: 0.05|x8: 0.05|x9: 0.06|x10: 0.05|x11: 0.07|x12: 0.06|x13: 0.07|x14: 0.08|x15: 0.09|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.19]</t>
+          <t>[0.00, 0.06, 0.09]</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>[1, 13, 15]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -4482,17 +4482,17 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.08|x3: 0.07|x4: 0.04|x5: 0.09|x6: 0.01|x7: 0.05|x8: 0.09|x9: 0.10|x10: 0.06|x11: 0.06|x12: 0.06|x13: 0.02|x14: 0.06|x15: 0.04|x16: 0.11|x17: 0.00</t>
+          <t>x1: 0.02|x2: 0.07|x3: 0.08|x4: 0.07|x5: 0.04|x6: 0.05|x7: 0.05|x8: 0.06|x9: 0.06|x10: 0.05|x11: 0.05|x12: 0.05|x13: 0.07|x14: 0.09|x15: 0.09|x16: 0.08|x17: 0.00</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.11]</t>
+          <t>[0.00, 0.06, 0.09]</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G113" t="b">
@@ -4518,24 +4518,24 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.06|x3: 0.03|x4: 0.06|x5: 0.03|x6: 0.12|x7: 0.03|x8: 0.03|x9: 0.03|x10: 0.03|x11: 0.08|x12: 0.08|x13: 0.04|x14: 0.12|x15: 0.17|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.05|x3: 0.08|x4: 0.11|x5: 0.05|x6: 0.06|x7: 0.05|x8: 0.04|x9: 0.05|x10: 0.04|x11: 0.06|x12: 0.05|x13: 0.07|x14: 0.08|x15: 0.09|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.17]</t>
+          <t>[0.00, 0.06, 0.11]</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>[6, 14, 15]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="G114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -4554,24 +4554,24 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>x1: 0.09|x2: 0.15|x3: 0.03|x4: 0.06|x5: 0.06|x6: 0.02|x7: 0.03|x8: 0.06|x9: 0.05|x10: 0.05|x11: 0.04|x12: 0.03|x13: 0.03|x14: 0.03|x15: 0.21|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.07|x2: 0.07|x3: 0.05|x4: 0.07|x5: 0.04|x6: 0.06|x7: 0.04|x8: 0.05|x9: 0.05|x10: 0.05|x11: 0.07|x12: 0.05|x13: 0.07|x14: 0.09|x15: 0.10|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.21]</t>
+          <t>[0.00, 0.06, 0.10]</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>[2, 15]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -4590,17 +4590,17 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.03|x3: 0.11|x4: 0.05|x5: 0.05|x6: 0.04|x7: 0.02|x8: 0.02|x9: 0.02|x10: 0.03|x11: 0.04|x12: 0.03|x13: 0.07|x14: 0.07|x15: 0.28|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.05|x2: 0.05|x3: 0.09|x4: 0.06|x5: 0.03|x6: 0.07|x7: 0.03|x8: 0.04|x9: 0.04|x10: 0.04|x11: 0.07|x12: 0.05|x13: 0.08|x14: 0.11|x15: 0.12|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.28]</t>
+          <t>[0.00, 0.06, 0.12]</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>[3, 15]</t>
+          <t>[14, 15]</t>
         </is>
       </c>
       <c r="G116" t="b">
@@ -4626,17 +4626,17 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.08|x3: 0.03|x4: 0.07|x5: 0.03|x6: 0.05|x7: 0.02|x8: 0.06|x9: 0.05|x10: 0.02|x11: 0.07|x12: 0.08|x13: 0.11|x14: 0.07|x15: 0.17|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.05|x2: 0.05|x3: 0.05|x4: 0.08|x5: 0.03|x6: 0.08|x7: 0.04|x8: 0.04|x9: 0.05|x10: 0.04|x11: 0.07|x12: 0.06|x13: 0.08|x14: 0.10|x15: 0.11|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.17]</t>
+          <t>[0.00, 0.06, 0.11]</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>[13, 15]</t>
+          <t>[14, 15]</t>
         </is>
       </c>
       <c r="G117" t="b">
@@ -4662,24 +4662,24 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.09|x3: 0.03|x4: 0.04|x5: 0.10|x6: 0.01|x7: 0.02|x8: 0.04|x9: 0.04|x10: 0.03|x11: 0.08|x12: 0.05|x13: 0.06|x14: 0.12|x15: 0.10|x16: 0.10|x17: 0.00</t>
+          <t>x1: 0.10|x2: 0.06|x3: 0.03|x4: 0.08|x5: 0.07|x6: 0.05|x7: 0.03|x8: 0.05|x9: 0.04|x10: 0.06|x11: 0.08|x12: 0.05|x13: 0.06|x14: 0.08|x15: 0.09|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.12]</t>
+          <t>[0.00, 0.06, 0.10]</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>[5, 14, 15, 16]</t>
+          <t>[1]</t>
         </is>
       </c>
       <c r="G118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -4698,24 +4698,24 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.06|x3: 0.04|x4: 0.05|x5: 0.10|x6: 0.01|x7: 0.05|x8: 0.03|x9: 0.03|x10: 0.07|x11: 0.03|x12: 0.03|x13: 0.01|x14: 0.12|x15: 0.17|x16: 0.12|x17: 0.00</t>
+          <t>x1: 0.03|x2: 0.07|x3: 0.10|x4: 0.09|x5: 0.04|x6: 0.04|x7: 0.05|x8: 0.04|x9: 0.05|x10: 0.04|x11: 0.05|x12: 0.06|x13: 0.08|x14: 0.09|x15: 0.09|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.17]</t>
+          <t>[0.00, 0.06, 0.10]</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>[14, 15, 16]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="G119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -4734,24 +4734,24 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.11|x3: 0.03|x4: 0.06|x5: 0.06|x6: 0.04|x7: 0.05|x8: 0.06|x9: 0.05|x10: 0.07|x11: 0.07|x12: 0.07|x13: 0.06|x14: 0.05|x15: 0.10|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.08|x2: 0.05|x3: 0.09|x4: 0.06|x5: 0.07|x6: 0.05|x7: 0.04|x8: 0.06|x9: 0.04|x10: 0.06|x11: 0.07|x12: 0.04|x13: 0.05|x14: 0.07|x15: 0.08|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.11]</t>
+          <t>[0.00, 0.06, 0.09]</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>[2, 15]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -4770,17 +4770,17 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.04|x3: 0.10|x4: 0.07|x5: 0.08|x6: 0.03|x7: 0.04|x8: 0.05|x9: 0.04|x10: 0.06|x11: 0.11|x12: 0.08|x13: 0.04|x14: 0.09|x15: 0.02|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.05|x3: 0.12|x4: 0.07|x5: 0.03|x6: 0.05|x7: 0.05|x8: 0.07|x9: 0.05|x10: 0.05|x11: 0.07|x12: 0.06|x13: 0.07|x14: 0.08|x15: 0.08|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.11]</t>
+          <t>[0.00, 0.06, 0.12]</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>[3, 11]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="G121" t="b">
@@ -4806,17 +4806,17 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.06|x3: 0.07|x4: 0.09|x5: 0.08|x6: 0.08|x7: 0.05|x8: 0.10|x9: 0.10|x10: 0.05|x11: 0.07|x12: 0.07|x13: 0.02|x14: 0.07|x15: 0.02|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.04|x2: 0.06|x3: 0.06|x4: 0.07|x5: 0.04|x6: 0.05|x7: 0.06|x8: 0.04|x9: 0.06|x10: 0.04|x11: 0.05|x12: 0.07|x13: 0.10|x14: 0.10|x15: 0.11|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.10]</t>
+          <t>[0.00, 0.06, 0.11]</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[13, 14, 15]</t>
         </is>
       </c>
       <c r="G122" t="b">
@@ -4842,17 +4842,17 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>x1: 0.10|x2: 0.14|x3: 0.03|x4: 0.13|x5: 0.03|x6: 0.06|x7: 0.04|x8: 0.06|x9: 0.06|x10: 0.05|x11: 0.07|x12: 0.04|x13: 0.06|x14: 0.09|x15: 0.03|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.11|x2: 0.03|x3: 0.04|x4: 0.11|x5: 0.02|x6: 0.07|x7: 0.04|x8: 0.11|x9: 0.09|x10: 0.05|x11: 0.08|x12: 0.06|x13: 0.05|x14: 0.06|x15: 0.05|x16: 0.04|x17: 0.00</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.14]</t>
+          <t>[0.00, 0.06, 0.11]</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>[2, 4]</t>
+          <t>[1, 4, 8]</t>
         </is>
       </c>
       <c r="G123" t="b">
@@ -4878,17 +4878,17 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.16|x3: 0.02|x4: 0.07|x5: 0.09|x6: 0.02|x7: 0.04|x8: 0.04|x9: 0.04|x10: 0.05|x11: 0.08|x12: 0.05|x13: 0.05|x14: 0.12|x15: 0.04|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.10|x2: 0.05|x3: 0.05|x4: 0.09|x5: 0.03|x6: 0.06|x7: 0.03|x8: 0.06|x9: 0.06|x10: 0.05|x11: 0.08|x12: 0.05|x13: 0.06|x14: 0.09|x15: 0.09|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.16]</t>
+          <t>[0.00, 0.06, 0.10]</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>[2, 14]</t>
+          <t>[1]</t>
         </is>
       </c>
       <c r="G124" t="b">
@@ -4914,17 +4914,17 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.12|x3: 0.06|x4: 0.07|x5: 0.12|x6: 0.08|x7: 0.05|x8: 0.06|x9: 0.05|x10: 0.07|x11: 0.03|x12: 0.04|x13: 0.04|x14: 0.03|x15: 0.03|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.03|x2: 0.04|x3: 0.11|x4: 0.09|x5: 0.03|x6: 0.07|x7: 0.07|x8: 0.05|x9: 0.07|x10: 0.05|x11: 0.05|x12: 0.07|x13: 0.08|x14: 0.07|x15: 0.07|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.12]</t>
+          <t>[0.00, 0.06, 0.11]</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>[2, 5]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="G125" t="b">
@@ -4950,24 +4950,24 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.09|x3: 0.02|x4: 0.06|x5: 0.10|x6: 0.07|x7: 0.05|x8: 0.05|x9: 0.07|x10: 0.06|x11: 0.07|x12: 0.04|x13: 0.06|x14: 0.06|x15: 0.07|x16: 0.11|x17: 0.00</t>
+          <t>x1: 0.05|x2: 0.07|x3: 0.06|x4: 0.08|x5: 0.07|x6: 0.05|x7: 0.04|x8: 0.05|x9: 0.05|x10: 0.05|x11: 0.07|x12: 0.04|x13: 0.06|x14: 0.09|x15: 0.10|x16: 0.08|x17: 0.00</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.11]</t>
+          <t>[0.00, 0.06, 0.10]</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>[5, 16]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -4986,17 +4986,17 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.02|x3: 0.07|x4: 0.07|x5: 0.05|x6: 0.06|x7: 0.04|x8: 0.10|x9: 0.11|x10: 0.04|x11: 0.06|x12: 0.08|x13: 0.09|x14: 0.06|x15: 0.02|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.04|x2: 0.05|x3: 0.10|x4: 0.12|x5: 0.03|x6: 0.06|x7: 0.05|x8: 0.07|x9: 0.07|x10: 0.06|x11: 0.06|x12: 0.05|x13: 0.06|x14: 0.07|x15: 0.07|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.11]</t>
+          <t>[0.00, 0.06, 0.12]</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>[8, 9]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="G127" t="b">
@@ -5022,17 +5022,17 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.08|x3: 0.19|x4: 0.02|x5: 0.07|x6: 0.01|x7: 0.04|x8: 0.10|x9: 0.12|x10: 0.04|x11: 0.06|x12: 0.06|x13: 0.01|x14: 0.08|x15: 0.02|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.04|x2: 0.05|x3: 0.20|x4: 0.05|x5: 0.03|x6: 0.05|x7: 0.04|x8: 0.05|x9: 0.06|x10: 0.04|x11: 0.05|x12: 0.05|x13: 0.06|x14: 0.08|x15: 0.09|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.19]</t>
+          <t>[0.00, 0.06, 0.20]</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>[3, 8, 9]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="G128" t="b">
@@ -5058,17 +5058,17 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.04|x3: 0.12|x4: 0.04|x5: 0.02|x6: 0.03|x7: 0.09|x8: 0.10|x9: 0.12|x10: 0.10|x11: 0.06|x12: 0.07|x13: 0.09|x14: 0.06|x15: 0.02|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.04|x2: 0.03|x3: 0.19|x4: 0.15|x5: 0.03|x6: 0.07|x7: 0.05|x8: 0.07|x9: 0.06|x10: 0.05|x11: 0.04|x12: 0.05|x13: 0.05|x14: 0.04|x15: 0.03|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.12]</t>
+          <t>[0.00, 0.06, 0.19]</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>[3, 8, 9]</t>
+          <t>[3, 4]</t>
         </is>
       </c>
       <c r="G129" t="b">
@@ -5094,17 +5094,17 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.02|x3: 0.24|x4: 0.02|x5: 0.08|x6: 0.05|x7: 0.03|x8: 0.05|x9: 0.06|x10: 0.03|x11: 0.05|x12: 0.04|x13: 0.05|x14: 0.13|x15: 0.02|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.07|x2: 0.04|x3: 0.19|x4: 0.02|x5: 0.04|x6: 0.06|x7: 0.04|x8: 0.07|x9: 0.07|x10: 0.05|x11: 0.07|x12: 0.05|x13: 0.05|x14: 0.07|x15: 0.08|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.24]</t>
+          <t>[0.00, 0.06, 0.19]</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>[3, 14]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="G130" t="b">
@@ -5130,17 +5130,17 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.02|x3: 0.24|x4: 0.09|x5: 0.01|x6: 0.02|x7: 0.11|x8: 0.04|x9: 0.01|x10: 0.12|x11: 0.02|x12: 0.09|x13: 0.05|x14: 0.04|x15: 0.07|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.09|x2: 0.03|x3: 0.21|x4: 0.09|x5: 0.03|x6: 0.05|x7: 0.04|x8: 0.06|x9: 0.04|x10: 0.07|x11: 0.07|x12: 0.04|x13: 0.04|x14: 0.04|x15: 0.04|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.24]</t>
+          <t>[0.00, 0.06, 0.21]</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>[3, 7, 10]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="G131" t="b">
@@ -5166,17 +5166,17 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.11|x3: 0.27|x4: 0.05|x5: 0.08|x6: 0.01|x7: 0.04|x8: 0.02|x9: 0.03|x10: 0.03|x11: 0.07|x12: 0.03|x13: 0.08|x14: 0.02|x15: 0.06|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.04|x3: 0.15|x4: 0.09|x5: 0.10|x6: 0.06|x7: 0.04|x8: 0.04|x9: 0.04|x10: 0.05|x11: 0.06|x12: 0.04|x13: 0.05|x14: 0.05|x15: 0.05|x16: 0.08|x17: 0.00</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.27]</t>
+          <t>[0.00, 0.06, 0.15]</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>[2, 3]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="G132" t="b">
@@ -5202,24 +5202,24 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.05|x3: 0.03|x4: 0.13|x5: 0.02|x6: 0.20|x7: 0.07|x8: 0.01|x9: 0.01|x10: 0.09|x11: 0.03|x12: 0.02|x13: 0.06|x14: 0.11|x15: 0.06|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.10|x2: 0.03|x3: 0.17|x4: 0.12|x5: 0.03|x6: 0.06|x7: 0.04|x8: 0.04|x9: 0.04|x10: 0.06|x11: 0.07|x12: 0.04|x13: 0.05|x14: 0.05|x15: 0.05|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.20]</t>
+          <t>[0.00, 0.06, 0.17]</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>[4, 6, 14]</t>
+          <t>[1, 3, 4]</t>
         </is>
       </c>
       <c r="G133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -5238,12 +5238,12 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.09|x3: 0.18|x4: 0.02|x5: 0.10|x6: 0.05|x7: 0.06|x8: 0.08|x9: 0.06|x10: 0.06|x11: 0.02|x12: 0.09|x13: 0.01|x14: 0.03|x15: 0.02|x16: 0.11|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.07|x3: 0.12|x4: 0.03|x5: 0.23|x6: 0.03|x7: 0.03|x8: 0.07|x9: 0.04|x10: 0.05|x11: 0.04|x12: 0.03|x13: 0.02|x14: 0.02|x15: 0.02|x16: 0.12|x17: 0.00</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.18]</t>
+          <t>[0.00, 0.06, 0.23]</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -5274,24 +5274,24 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.14|x3: 0.10|x4: 0.02|x5: 0.08|x6: 0.14|x7: 0.02|x8: 0.05|x9: 0.04|x10: 0.03|x11: 0.05|x12: 0.05|x13: 0.02|x14: 0.06|x15: 0.03|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.05|x2: 0.10|x3: 0.10|x4: 0.11|x5: 0.02|x6: 0.06|x7: 0.04|x8: 0.04|x9: 0.07|x10: 0.07|x11: 0.05|x12: 0.05|x13: 0.05|x14: 0.06|x15: 0.06|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.14]</t>
+          <t>[0.00, 0.06, 0.11]</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>[2, 3, 6]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="G135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -5310,24 +5310,24 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.02|x3: 0.07|x4: 0.03|x5: 0.04|x6: 0.01|x7: 0.08|x8: 0.12|x9: 0.14|x10: 0.10|x11: 0.07|x12: 0.07|x13: 0.05|x14: 0.05|x15: 0.01|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.07|x2: 0.04|x3: 0.16|x4: 0.03|x5: 0.04|x6: 0.07|x7: 0.06|x8: 0.04|x9: 0.07|x10: 0.07|x11: 0.07|x12: 0.06|x13: 0.06|x14: 0.06|x15: 0.06|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.14]</t>
+          <t>[0.00, 0.06, 0.16]</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>[8, 9]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="G136" t="b">
         <v>0</v>
       </c>
       <c r="H136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -5346,12 +5346,12 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.04|x3: 0.05|x4: 0.24|x5: 0.06|x6: 0.07|x7: 0.07|x8: 0.06|x9: 0.07|x10: 0.08|x11: 0.03|x12: 0.02|x13: 0.04|x14: 0.03|x15: 0.02|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.03|x3: 0.04|x4: 0.18|x5: 0.09|x6: 0.06|x7: 0.04|x8: 0.07|x9: 0.06|x10: 0.05|x11: 0.05|x12: 0.05|x13: 0.05|x14: 0.05|x15: 0.05|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.24]</t>
+          <t>[0.00, 0.06, 0.18]</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -5382,17 +5382,17 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.11|x3: 0.02|x4: 0.29|x5: 0.04|x6: 0.08|x7: 0.05|x8: 0.04|x9: 0.04|x10: 0.06|x11: 0.03|x12: 0.04|x13: 0.03|x14: 0.05|x15: 0.04|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.05|x2: 0.04|x3: 0.03|x4: 0.21|x5: 0.03|x6: 0.06|x7: 0.04|x8: 0.06|x9: 0.07|x10: 0.07|x11: 0.05|x12: 0.05|x13: 0.05|x14: 0.07|x15: 0.06|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.29]</t>
+          <t>[0.00, 0.06, 0.21]</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>[2, 4]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="G138" t="b">
@@ -5418,17 +5418,17 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.09|x3: 0.04|x4: 0.19|x5: 0.05|x6: 0.02|x7: 0.06|x8: 0.03|x9: 0.03|x10: 0.06|x11: 0.03|x12: 0.02|x13: 0.08|x14: 0.13|x15: 0.10|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.05|x2: 0.05|x3: 0.03|x4: 0.12|x5: 0.03|x6: 0.04|x7: 0.06|x8: 0.05|x9: 0.08|x10: 0.06|x11: 0.06|x12: 0.06|x13: 0.07|x14: 0.09|x15: 0.08|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.19]</t>
+          <t>[0.00, 0.06, 0.12]</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>[4, 14, 15]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="G139" t="b">
@@ -5454,24 +5454,24 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.15|x3: 0.04|x4: 0.01|x5: 0.02|x6: 0.15|x7: 0.01|x8: 0.01|x9: 0.01|x10: 0.02|x11: 0.10|x12: 0.04|x13: 0.15|x14: 0.06|x15: 0.14|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.03|x2: 0.07|x3: 0.05|x4: 0.05|x5: 0.06|x6: 0.07|x7: 0.06|x8: 0.05|x9: 0.07|x10: 0.06|x11: 0.05|x12: 0.06|x13: 0.08|x14: 0.09|x15: 0.09|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.15]</t>
+          <t>[0.00, 0.06, 0.09]</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>[2, 6, 11, 13, 15]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -5490,17 +5490,17 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>x1: 0.09|x2: 0.02|x3: 0.10|x4: 0.02|x5: 0.06|x6: 0.01|x7: 0.08|x8: 0.05|x9: 0.06|x10: 0.09|x11: 0.03|x12: 0.03|x13: 0.09|x14: 0.25|x15: 0.02|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.08|x2: 0.02|x3: 0.08|x4: 0.02|x5: 0.02|x6: 0.03|x7: 0.05|x8: 0.17|x9: 0.16|x10: 0.06|x11: 0.06|x12: 0.07|x13: 0.05|x14: 0.06|x15: 0.04|x16: 0.03|x17: 0.00</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.25]</t>
+          <t>[0.00, 0.06, 0.17]</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[8, 9]</t>
         </is>
       </c>
       <c r="G141" t="b">
@@ -5526,12 +5526,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.02|x3: 0.09|x4: 0.23|x5: 0.03|x6: 0.02|x7: 0.08|x8: 0.09|x9: 0.10|x10: 0.10|x11: 0.03|x12: 0.04|x13: 0.03|x14: 0.02|x15: 0.01|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.07|x2: 0.03|x3: 0.05|x4: 0.22|x5: 0.04|x6: 0.05|x7: 0.04|x8: 0.05|x9: 0.07|x10: 0.06|x11: 0.04|x12: 0.05|x13: 0.07|x14: 0.06|x15: 0.04|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.23]</t>
+          <t>[0.00, 0.06, 0.22]</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -5562,17 +5562,17 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.06|x3: 0.05|x4: 0.05|x5: 0.06|x6: 0.04|x7: 0.06|x8: 0.07|x9: 0.08|x10: 0.06|x11: 0.08|x12: 0.08|x13: 0.03|x14: 0.17|x15: 0.02|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.08|x2: 0.05|x3: 0.07|x4: 0.06|x5: 0.04|x6: 0.05|x7: 0.06|x8: 0.08|x9: 0.09|x10: 0.07|x11: 0.07|x12: 0.06|x13: 0.06|x14: 0.06|x15: 0.06|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.17]</t>
+          <t>[0.00, 0.06, 0.09]</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G143" t="b">
@@ -5598,24 +5598,24 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.19|x3: 0.03|x4: 0.02|x5: 0.06|x6: 0.05|x7: 0.08|x8: 0.10|x9: 0.12|x10: 0.10|x11: 0.04|x12: 0.04|x13: 0.05|x14: 0.02|x15: 0.04|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.08|x2: 0.05|x3: 0.05|x4: 0.05|x5: 0.07|x6: 0.04|x7: 0.04|x8: 0.09|x9: 0.05|x10: 0.07|x11: 0.07|x12: 0.05|x13: 0.06|x14: 0.07|x15: 0.08|x16: 0.08|x17: 0.00</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.19]</t>
+          <t>[0.00, 0.06, 0.09]</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>[2, 8, 9]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -5634,24 +5634,24 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.07|x3: 0.03|x4: 0.06|x5: 0.05|x6: 0.01|x7: 0.07|x8: 0.11|x9: 0.12|x10: 0.08|x11: 0.06|x12: 0.07|x13: 0.09|x14: 0.04|x15: 0.04|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.06|x3: 0.07|x4: 0.07|x5: 0.06|x6: 0.06|x7: 0.04|x8: 0.07|x9: 0.07|x10: 0.06|x11: 0.06|x12: 0.05|x13: 0.05|x14: 0.07|x15: 0.08|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.12]</t>
+          <t>[0.00, 0.06, 0.08]</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>[8, 9]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G145" t="b">
         <v>0</v>
       </c>
       <c r="H145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -5670,24 +5670,24 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.04|x3: 0.03|x4: 0.04|x5: 0.08|x6: 0.05|x7: 0.04|x8: 0.16|x9: 0.20|x10: 0.05|x11: 0.05|x12: 0.05|x13: 0.01|x14: 0.04|x15: 0.03|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.10|x2: 0.06|x3: 0.06|x4: 0.07|x5: 0.06|x6: 0.04|x7: 0.05|x8: 0.08|x9: 0.07|x10: 0.07|x11: 0.07|x12: 0.05|x13: 0.05|x14: 0.05|x15: 0.05|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.20]</t>
+          <t>[0.00, 0.06, 0.10]</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>[8, 9]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -5706,24 +5706,24 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.05|x3: 0.02|x4: 0.04|x5: 0.07|x6: 0.11|x7: 0.02|x8: 0.15|x9: 0.19|x10: 0.02|x11: 0.06|x12: 0.07|x13: 0.04|x14: 0.05|x15: 0.02|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.05|x2: 0.04|x3: 0.08|x4: 0.06|x5: 0.03|x6: 0.08|x7: 0.05|x8: 0.06|x9: 0.08|x10: 0.06|x11: 0.06|x12: 0.06|x13: 0.08|x14: 0.08|x15: 0.08|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.19]</t>
+          <t>[0.00, 0.06, 0.08]</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>[6, 8, 9]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -5742,24 +5742,24 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.02|x3: 0.03|x4: 0.01|x5: 0.04|x6: 0.01|x7: 0.10|x8: 0.15|x9: 0.20|x10: 0.12|x11: 0.06|x12: 0.03|x13: 0.10|x14: 0.02|x15: 0.02|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.09|x2: 0.06|x3: 0.05|x4: 0.05|x5: 0.02|x6: 0.05|x7: 0.06|x8: 0.06|x9: 0.10|x10: 0.08|x11: 0.07|x12: 0.06|x13: 0.05|x14: 0.07|x15: 0.06|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.20]</t>
+          <t>[0.00, 0.06, 0.10]</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>[7, 8, 9, 10, 13]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G148" t="b">
         <v>0</v>
       </c>
       <c r="H148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -5778,17 +5778,17 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.10|x3: 0.10|x4: 0.12|x5: 0.12|x6: 0.06|x7: 0.02|x8: 0.09|x9: 0.10|x10: 0.02|x11: 0.03|x12: 0.04|x13: 0.01|x14: 0.03|x15: 0.05|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.07|x2: 0.07|x3: 0.09|x4: 0.05|x5: 0.07|x6: 0.06|x7: 0.05|x8: 0.05|x9: 0.05|x10: 0.05|x11: 0.07|x12: 0.05|x13: 0.06|x14: 0.07|x15: 0.08|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.12]</t>
+          <t>[0.00, 0.06, 0.09]</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>[2, 4, 5]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G149" t="b">
@@ -5814,17 +5814,17 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.02|x3: 0.02|x4: 0.19|x5: 0.07|x6: 0.02|x7: 0.03|x8: 0.07|x9: 0.08|x10: 0.02|x11: 0.07|x12: 0.06|x13: 0.08|x14: 0.11|x15: 0.02|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.04|x2: 0.04|x3: 0.07|x4: 0.14|x5: 0.08|x6: 0.06|x7: 0.04|x8: 0.10|x9: 0.09|x10: 0.04|x11: 0.04|x12: 0.05|x13: 0.04|x14: 0.05|x15: 0.04|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.19]</t>
+          <t>[0.00, 0.06, 0.14]</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>[4, 14]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="G150" t="b">
@@ -5850,24 +5850,24 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.08|x3: 0.15|x4: 0.06|x5: 0.01|x6: 0.03|x7: 0.15|x8: 0.01|x9: 0.01|x10: 0.16|x11: 0.06|x12: 0.04|x13: 0.08|x14: 0.08|x15: 0.03|x16: 0.01|x17: 0.00</t>
+          <t>x1: 0.08|x2: 0.06|x3: 0.10|x4: 0.07|x5: 0.06|x6: 0.06|x7: 0.04|x8: 0.04|x9: 0.05|x10: 0.06|x11: 0.07|x12: 0.05|x13: 0.06|x14: 0.06|x15: 0.07|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.16]</t>
+          <t>[0.00, 0.06, 0.10]</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>[3, 7, 10]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -5886,24 +5886,24 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.01|x3: 0.05|x4: 0.06|x5: 0.01|x6: 0.03|x7: 0.08|x8: 0.07|x9: 0.11|x10: 0.10|x11: 0.26|x12: 0.10|x13: 0.04|x14: 0.03|x15: 0.01|x16: 0.01|x17: 0.00</t>
+          <t>x1: 0.04|x2: 0.05|x3: 0.09|x4: 0.11|x5: 0.03|x6: 0.06|x7: 0.04|x8: 0.06|x9: 0.08|x10: 0.06|x11: 0.06|x12: 0.05|x13: 0.06|x14: 0.08|x15: 0.09|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.26]</t>
+          <t>[0.00, 0.06, 0.11]</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>[9, 10, 11, 12]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="G152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -5922,17 +5922,17 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.02|x3: 0.02|x4: 0.07|x5: 0.09|x6: 0.02|x7: 0.07|x8: 0.10|x9: 0.13|x10: 0.08|x11: 0.03|x12: 0.03|x13: 0.05|x14: 0.17|x15: 0.01|x16: 0.10|x17: 0.00</t>
+          <t>x1: 0.02|x2: 0.04|x3: 0.08|x4: 0.13|x5: 0.02|x6: 0.07|x7: 0.07|x8: 0.04|x9: 0.09|x10: 0.06|x11: 0.04|x12: 0.07|x13: 0.07|x14: 0.07|x15: 0.07|x16: 0.04|x17: 0.00</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.17]</t>
+          <t>[0.00, 0.06, 0.13]</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>[9, 14]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="G153" t="b">
@@ -5958,7 +5958,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.03|x3: 0.06|x4: 0.13|x5: 0.05|x6: 0.04|x7: 0.04|x8: 0.07|x9: 0.07|x10: 0.05|x11: 0.08|x12: 0.05|x13: 0.06|x14: 0.05|x15: 0.09|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.05|x2: 0.05|x3: 0.11|x4: 0.13|x5: 0.03|x6: 0.06|x7: 0.05|x8: 0.06|x9: 0.06|x10: 0.05|x11: 0.05|x12: 0.05|x13: 0.05|x14: 0.06|x15: 0.06|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -5968,7 +5968,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[3, 4]</t>
         </is>
       </c>
       <c r="G154" t="b">
@@ -5994,24 +5994,24 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.14|x3: 0.05|x4: 0.01|x5: 0.09|x6: 0.02|x7: 0.06|x8: 0.09|x9: 0.08|x10: 0.07|x11: 0.05|x12: 0.10|x13: 0.02|x14: 0.06|x15: 0.03|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.09|x2: 0.05|x3: 0.04|x4: 0.09|x5: 0.05|x6: 0.06|x7: 0.04|x8: 0.04|x9: 0.05|x10: 0.06|x11: 0.08|x12: 0.05|x13: 0.06|x14: 0.08|x15: 0.09|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.14]</t>
+          <t>[0.00, 0.06, 0.09]</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>[2, 12]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -6030,7 +6030,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.08|x3: 0.03|x4: 0.07|x5: 0.08|x6: 0.02|x7: 0.05|x8: 0.07|x9: 0.07|x10: 0.05|x11: 0.06|x12: 0.08|x13: 0.09|x14: 0.10|x15: 0.03|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.10|x2: 0.05|x3: 0.03|x4: 0.07|x5: 0.07|x6: 0.05|x7: 0.03|x8: 0.08|x9: 0.05|x10: 0.07|x11: 0.08|x12: 0.05|x13: 0.06|x14: 0.07|x15: 0.08|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[1]</t>
         </is>
       </c>
       <c r="G156" t="b">
@@ -6066,12 +6066,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.08|x3: 0.02|x4: 0.01|x5: 0.02|x6: 0.05|x7: 0.02|x8: 0.05|x9: 0.06|x10: 0.03|x11: 0.06|x12: 0.04|x13: 0.05|x14: 0.18|x15: 0.22|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.05|x3: 0.06|x4: 0.05|x5: 0.04|x6: 0.06|x7: 0.04|x8: 0.05|x9: 0.04|x10: 0.05|x11: 0.07|x12: 0.05|x13: 0.08|x14: 0.10|x15: 0.12|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.22]</t>
+          <t>[0.00, 0.06, 0.12]</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -6102,24 +6102,24 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.05|x3: 0.03|x4: 0.02|x5: 0.06|x6: 0.09|x7: 0.02|x8: 0.07|x9: 0.09|x10: 0.01|x11: 0.11|x12: 0.07|x13: 0.06|x14: 0.18|x15: 0.03|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.10|x2: 0.05|x3: 0.09|x4: 0.06|x5: 0.03|x6: 0.06|x7: 0.04|x8: 0.06|x9: 0.06|x10: 0.06|x11: 0.08|x12: 0.05|x13: 0.06|x14: 0.08|x15: 0.08|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.18]</t>
+          <t>[0.00, 0.06, 0.10]</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>[11, 14]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -6138,24 +6138,24 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.06|x3: 0.09|x4: 0.05|x5: 0.04|x6: 0.07|x7: 0.05|x8: 0.07|x9: 0.08|x10: 0.05|x11: 0.07|x12: 0.07|x13: 0.01|x14: 0.12|x15: 0.08|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.12|x2: 0.04|x3: 0.03|x4: 0.13|x5: 0.02|x6: 0.06|x7: 0.04|x8: 0.06|x9: 0.06|x10: 0.06|x11: 0.08|x12: 0.05|x13: 0.05|x14: 0.07|x15: 0.07|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.12]</t>
+          <t>[0.00, 0.06, 0.13]</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[1, 4]</t>
         </is>
       </c>
       <c r="G159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -6174,24 +6174,24 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.09|x3: 0.02|x4: 0.17|x5: 0.02|x6: 0.02|x7: 0.03|x8: 0.08|x9: 0.06|x10: 0.04|x11: 0.05|x12: 0.11|x13: 0.03|x14: 0.09|x15: 0.10|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.05|x2: 0.08|x3: 0.06|x4: 0.11|x5: 0.03|x6: 0.06|x7: 0.04|x8: 0.05|x9: 0.05|x10: 0.04|x11: 0.06|x12: 0.06|x13: 0.06|x14: 0.09|x15: 0.09|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.17]</t>
+          <t>[0.00, 0.06, 0.11]</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>[4, 12, 15]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="G160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -6210,17 +6210,17 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>x1: 0.09|x2: 0.08|x3: 0.03|x4: 0.03|x5: 0.02|x6: 0.01|x7: 0.03|x8: 0.04|x9: 0.04|x10: 0.04|x11: 0.04|x12: 0.03|x13: 0.15|x14: 0.06|x15: 0.28|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.07|x2: 0.08|x3: 0.04|x4: 0.02|x5: 0.03|x6: 0.06|x7: 0.04|x8: 0.05|x9: 0.05|x10: 0.05|x11: 0.08|x12: 0.05|x13: 0.08|x14: 0.11|x15: 0.12|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.28]</t>
+          <t>[0.00, 0.06, 0.12]</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>[13, 15]</t>
+          <t>[14, 15]</t>
         </is>
       </c>
       <c r="G161" t="b">
@@ -6246,17 +6246,17 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.05|x3: 0.11|x4: 0.08|x5: 0.08|x6: 0.05|x7: 0.08|x8: 0.02|x9: 0.02|x10: 0.09|x11: 0.06|x12: 0.03|x13: 0.08|x14: 0.06|x15: 0.08|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.05|x2: 0.06|x3: 0.09|x4: 0.12|x5: 0.03|x6: 0.06|x7: 0.05|x8: 0.06|x9: 0.06|x10: 0.05|x11: 0.06|x12: 0.05|x13: 0.05|x14: 0.07|x15: 0.08|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.11]</t>
+          <t>[0.00, 0.06, 0.12]</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>[3]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="G162" t="b">
@@ -6282,24 +6282,24 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.09|x3: 0.16|x4: 0.03|x5: 0.15|x6: 0.01|x7: 0.03|x8: 0.08|x9: 0.10|x10: 0.03|x11: 0.07|x12: 0.03|x13: 0.02|x14: 0.03|x15: 0.02|x16: 0.14|x17: 0.00</t>
+          <t>x1: 0.04|x2: 0.04|x3: 0.09|x4: 0.09|x5: 0.05|x6: 0.08|x7: 0.06|x8: 0.07|x9: 0.07|x10: 0.04|x11: 0.05|x12: 0.06|x13: 0.06|x14: 0.06|x15: 0.06|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.16]</t>
+          <t>[0.00, 0.06, 0.09]</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>[3, 5, 9, 16]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -6318,24 +6318,24 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>x1: 0.09|x2: 0.11|x3: 0.04|x4: 0.14|x5: 0.09|x6: 0.02|x7: 0.01|x8: 0.06|x9: 0.04|x10: 0.02|x11: 0.04|x12: 0.05|x13: 0.09|x14: 0.03|x15: 0.04|x16: 0.11|x17: 0.00</t>
+          <t>x1: 0.05|x2: 0.05|x3: 0.06|x4: 0.13|x5: 0.10|x6: 0.06|x7: 0.05|x8: 0.05|x9: 0.05|x10: 0.05|x11: 0.05|x12: 0.05|x13: 0.06|x14: 0.06|x15: 0.06|x16: 0.09|x17: 0.00</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.14]</t>
+          <t>[0.00, 0.06, 0.13]</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>[2, 4, 16]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="G164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -6354,12 +6354,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.04|x3: 0.25|x4: 0.10|x5: 0.09|x6: 0.04|x7: 0.05|x8: 0.04|x9: 0.02|x10: 0.06|x11: 0.03|x12: 0.05|x13: 0.01|x14: 0.05|x15: 0.02|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.07|x2: 0.04|x3: 0.12|x4: 0.11|x5: 0.08|x6: 0.06|x7: 0.04|x8: 0.04|x9: 0.05|x10: 0.05|x11: 0.07|x12: 0.04|x13: 0.05|x14: 0.05|x15: 0.05|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.25]</t>
+          <t>[0.00, 0.06, 0.12]</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">

--- a/Project_python/out/LDA/test2.xlsx
+++ b/Project_python/out/LDA/test2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H165"/>
+  <dimension ref="A1:I165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,20 +451,25 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>sdgs_segmentated</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>stats</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>predict_sdgs</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>all_valid</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>any_valid</t>
         </is>
@@ -486,24 +491,29 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.05|x3: 0.04|x4: 0.07|x5: 0.06|x6: 0.06|x7: 0.03|x8: 0.12|x9: 0.05|x10: 0.08|x11: 0.07|x12: 0.05|x13: 0.05|x14: 0.05|x15: 0.06|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.32|x2: 0.17|x3: 0.18|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.13|x9: 0.18|x10: 0.00|x11: 0.15|x12: 0.36|x13: 0.00|x14: 0.50|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.12]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[8]</t>
-        </is>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.50]</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[1, 12, 14]</t>
+        </is>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -522,23 +532,28 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>x1: 0.09|x2: 0.04|x3: 0.08|x4: 0.12|x5: 0.07|x6: 0.06|x7: 0.04|x8: 0.05|x9: 0.06|x10: 0.06|x11: 0.06|x12: 0.05|x13: 0.05|x14: 0.05|x15: 0.04|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.17|x2: 0.00|x3: 0.00|x4: 0.51|x5: 0.00|x6: 0.13|x7: 0.13|x8: 0.14|x9: 0.32|x10: 0.16|x11: 0.12|x12: 0.16|x13: 0.00|x14: 0.17|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.12]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[4]</t>
-        </is>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.51]</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[4, 9]</t>
+        </is>
       </c>
       <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -558,24 +573,29 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.05|x3: 0.06|x4: 0.06|x5: 0.07|x6: 0.06|x7: 0.04|x8: 0.05|x9: 0.05|x10: 0.05|x11: 0.06|x12: 0.05|x13: 0.07|x14: 0.09|x15: 0.10|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.20|x3: 0.00|x4: 0.16|x5: 0.00|x6: 0.25|x7: 0.25|x8: 0.00|x9: 0.14|x10: 0.00|x11: 0.31|x12: 0.15|x13: 0.00|x14: 0.39|x15: 0.00|x16: 0.14|x17: 0.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.10]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[15]</t>
-        </is>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.39]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[2, 6, 7, 11, 14]</t>
+        </is>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -594,24 +614,29 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>x1: 0.10|x2: 0.05|x3: 0.04|x4: 0.07|x5: 0.05|x6: 0.04|x7: 0.05|x8: 0.07|x9: 0.07|x10: 0.08|x11: 0.07|x12: 0.05|x13: 0.06|x14: 0.07|x15: 0.06|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.49|x2: 0.00|x3: 0.00|x4: 0.18|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.22|x9: 0.43|x10: 0.41|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.11|x15: 0.00|x16: 0.16|x17: 0.00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.10]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.49]</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[1, 8, 9, 10]</t>
+        </is>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -630,24 +655,29 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.13|x3: 0.05|x4: 0.08|x5: 0.03|x6: 0.05|x7: 0.05|x8: 0.08|x9: 0.07|x10: 0.06|x11: 0.05|x12: 0.06|x13: 0.06|x14: 0.06|x15: 0.06|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.25|x2: 0.16|x3: 0.00|x4: 0.19|x5: 0.00|x6: 0.26|x7: 0.26|x8: 0.00|x9: 0.29|x10: 0.00|x11: 0.14|x12: 0.27|x13: 0.00|x14: 0.17|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.13]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[2]</t>
-        </is>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 0.29]</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[1, 6, 7, 9, 12]</t>
+        </is>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -666,23 +696,28 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.04|x3: 0.07|x4: 0.18|x5: 0.12|x6: 0.06|x7: 0.04|x8: 0.05|x9: 0.05|x10: 0.05|x11: 0.05|x12: 0.04|x13: 0.04|x14: 0.04|x15: 0.03|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.32|x2: 0.11|x3: 0.00|x4: 0.39|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.70|x12: 0.00|x13: 0.00|x14: 0.48|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.18]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[4, 5]</t>
-        </is>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.70]</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>[1, 4, 11, 14]</t>
+        </is>
       </c>
       <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -702,24 +737,29 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.08|x3: 0.05|x4: 0.05|x5: 0.03|x6: 0.07|x7: 0.05|x8: 0.05|x9: 0.06|x10: 0.06|x11: 0.08|x12: 0.05|x13: 0.06|x14: 0.08|x15: 0.09|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.14|x2: 0.28|x3: 0.00|x4: 0.41|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.73|x10: 0.00|x11: 0.00|x12: 0.20|x13: 0.00|x14: 0.24|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.09]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.73]</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>[2, 4, 9, 12, 14]</t>
+        </is>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -738,23 +778,28 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.06|x3: 0.06|x4: 0.06|x5: 0.03|x6: 0.06|x7: 0.05|x8: 0.06|x9: 0.05|x10: 0.06|x11: 0.08|x12: 0.06|x13: 0.07|x14: 0.08|x15: 0.09|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.31|x2: 0.15|x3: 0.00|x4: 0.37|x5: 0.18|x6: 0.00|x7: 0.00|x8: 0.14|x9: 0.18|x10: 0.00|x11: 0.00|x12: 0.29|x13: 0.18|x14: 0.20|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.09]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.37]</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>[1, 4, 12, 14]</t>
+        </is>
       </c>
       <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -774,23 +819,28 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.07|x3: 0.07|x4: 0.06|x5: 0.06|x6: 0.07|x7: 0.05|x8: 0.05|x9: 0.06|x10: 0.05|x11: 0.06|x12: 0.05|x13: 0.07|x14: 0.09|x15: 0.09|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.13|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.19|x7: 0.19|x8: 0.14|x9: 0.12|x10: 0.00|x11: 0.21|x12: 0.26|x13: 0.16|x14: 0.47|x15: 0.00|x16: 0.12|x17: 0.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.09]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.47]</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>[11, 12, 14]</t>
+        </is>
       </c>
       <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -810,24 +860,29 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.09|x3: 0.08|x4: 0.10|x5: 0.06|x6: 0.05|x7: 0.03|x8: 0.07|x9: 0.04|x10: 0.04|x11: 0.06|x12: 0.05|x13: 0.05|x14: 0.07|x15: 0.08|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.21|x2: 0.26|x3: 0.00|x4: 0.43|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.13|x10: 0.00|x11: 0.17|x12: 0.20|x13: 0.00|x14: 0.42|x15: 0.17|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.10]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[4]</t>
-        </is>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.43]</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 14]</t>
+        </is>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -846,23 +901,28 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.09|x3: 0.05|x4: 0.09|x5: 0.04|x6: 0.07|x7: 0.04|x8: 0.05|x9: 0.05|x10: 0.05|x11: 0.06|x12: 0.06|x13: 0.06|x14: 0.08|x15: 0.09|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.22|x5: 0.00|x6: 0.18|x7: 0.17|x8: 0.00|x9: 0.22|x10: 0.00|x11: 0.19|x12: 0.45|x13: 0.00|x14: 0.27|x15: 0.30|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.09]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.45]</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>[4, 9, 12, 14, 15]</t>
+        </is>
       </c>
       <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -882,23 +942,28 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.14|x3: 0.08|x4: 0.08|x5: 0.03|x6: 0.06|x7: 0.05|x8: 0.08|x9: 0.06|x10: 0.05|x11: 0.06|x12: 0.06|x13: 0.04|x14: 0.05|x15: 0.05|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.16|x2: 0.38|x3: 0.30|x4: 0.00|x5: 0.00|x6: 0.19|x7: 0.19|x8: 0.11|x9: 0.28|x10: 0.21|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.18|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.14]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[2]</t>
-        </is>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 0.38]</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>[2, 3, 9, 10]</t>
+        </is>
       </c>
       <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="b">
         <v>1</v>
       </c>
     </row>
@@ -918,24 +983,29 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.05|x3: 0.15|x4: 0.13|x5: 0.03|x6: 0.05|x7: 0.05|x8: 0.04|x9: 0.05|x10: 0.04|x11: 0.06|x12: 0.05|x13: 0.05|x14: 0.07|x15: 0.07|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.22|x3: 0.60|x4: 0.67|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.17|x10: 0.00|x11: 0.18|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.17|x17: 0.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.15]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[3, 4]</t>
-        </is>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.67]</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>[2, 3, 4]</t>
+        </is>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -954,23 +1024,28 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.07|x3: 0.25|x4: 0.04|x5: 0.03|x6: 0.07|x7: 0.04|x8: 0.05|x9: 0.05|x10: 0.04|x11: 0.06|x12: 0.05|x13: 0.05|x14: 0.05|x15: 0.06|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.26|x2: 0.00|x3: 0.66|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.26|x10: 0.18|x11: 0.00|x12: 0.32|x13: 0.00|x14: 0.33|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.25]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[3]</t>
-        </is>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.66]</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>[1, 3, 9, 12, 14]</t>
+        </is>
       </c>
       <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="b">
         <v>1</v>
       </c>
     </row>
@@ -990,23 +1065,28 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.04|x3: 0.25|x4: 0.05|x5: 0.08|x6: 0.06|x7: 0.04|x8: 0.06|x9: 0.06|x10: 0.06|x11: 0.06|x12: 0.04|x13: 0.03|x14: 0.03|x15: 0.03|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.36|x2: 0.13|x3: 0.83|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.42|x15: 0.00|x16: 0.26|x17: 0.00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.25]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[3]</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 0.83]</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>[1, 3, 14, 16]</t>
+        </is>
       </c>
       <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1026,24 +1106,29 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.04|x3: 0.07|x4: 0.15|x5: 0.13|x6: 0.06|x7: 0.04|x8: 0.04|x9: 0.05|x10: 0.04|x11: 0.04|x12: 0.05|x13: 0.05|x14: 0.04|x15: 0.04|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.21|x4: 0.79|x5: 0.28|x6: 0.00|x7: 0.00|x8: 0.13|x9: 0.14|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.16|x14: 0.30|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.15]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[4, 5]</t>
-        </is>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.79]</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>[3, 4, 5, 14]</t>
+        </is>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1062,23 +1147,28 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.09|x3: 0.12|x4: 0.07|x5: 0.03|x6: 0.05|x7: 0.05|x8: 0.07|x9: 0.07|x10: 0.06|x11: 0.05|x12: 0.05|x13: 0.06|x14: 0.07|x15: 0.07|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.24|x4: 0.45|x5: 0.00|x6: 0.13|x7: 0.13|x8: 0.15|x9: 0.00|x10: 0.00|x11: 0.33|x12: 0.26|x13: 0.00|x14: 0.31|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.12]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[3]</t>
-        </is>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 0.45]</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>[3, 4, 11, 12, 14]</t>
+        </is>
       </c>
       <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1098,23 +1188,28 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.05|x3: 0.08|x4: 0.23|x5: 0.07|x6: 0.06|x7: 0.05|x8: 0.05|x9: 0.06|x10: 0.04|x11: 0.04|x12: 0.04|x13: 0.04|x14: 0.05|x15: 0.03|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.39|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.19|x9: 0.26|x10: 0.12|x11: 0.23|x12: 0.13|x13: 0.21|x14: 0.46|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.23]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[4]</t>
-        </is>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.46]</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>[4, 9, 11, 13, 14]</t>
+        </is>
       </c>
       <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1134,24 +1229,29 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.06|x3: 0.07|x4: 0.01|x5: 0.04|x6: 0.08|x7: 0.07|x8: 0.06|x9: 0.06|x10: 0.05|x11: 0.06|x12: 0.08|x13: 0.09|x14: 0.08|x15: 0.09|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.15|x2: 0.00|x3: 0.39|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.20|x10: 0.00|x11: 0.00|x12: 0.56|x13: 0.00|x14: 0.54|x15: 0.16|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.09]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.56]</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>[3, 12, 14]</t>
+        </is>
       </c>
       <c r="H20" t="b">
         <v>0</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1170,23 +1270,28 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.04|x3: 0.05|x4: 0.09|x5: 0.08|x6: 0.05|x7: 0.07|x8: 0.03|x9: 0.05|x10: 0.04|x11: 0.06|x12: 0.08|x13: 0.09|x14: 0.08|x15: 0.08|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.16|x3: 0.00|x4: 0.43|x5: 0.27|x6: 0.00|x7: 0.00|x8: 0.17|x9: 0.18|x10: 0.00|x11: 0.00|x12: 0.21|x13: 0.30|x14: 0.29|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.09]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.43]</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>[4, 5, 12, 13, 14]</t>
+        </is>
       </c>
       <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1206,23 +1311,28 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>x1: 0.13|x2: 0.03|x3: 0.20|x4: 0.11|x5: 0.02|x6: 0.05|x7: 0.04|x8: 0.05|x9: 0.04|x10: 0.07|x11: 0.09|x12: 0.04|x13: 0.03|x14: 0.03|x15: 0.03|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.62|x4: 0.16|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.21|x13: 0.00|x14: 0.56|x15: 0.19|x16: 0.26|x17: 0.00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.20]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[1, 3, 4]</t>
-        </is>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 0.62]</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>[3, 12, 14, 16]</t>
+        </is>
       </c>
       <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1242,23 +1352,28 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.05|x3: 0.11|x4: 0.11|x5: 0.03|x6: 0.08|x7: 0.05|x8: 0.05|x9: 0.05|x10: 0.05|x11: 0.07|x12: 0.05|x13: 0.06|x14: 0.07|x15: 0.07|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.29|x4: 0.31|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.14|x9: 0.00|x10: 0.00|x11: 0.33|x12: 0.00|x13: 0.23|x14: 0.51|x15: 0.00|x16: 0.20|x17: 0.00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.11]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[3, 4]</t>
-        </is>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 0.51]</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>[3, 4, 11, 13, 14]</t>
+        </is>
       </c>
       <c r="H23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1278,23 +1393,28 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.08|x3: 0.08|x4: 0.11|x5: 0.03|x6: 0.06|x7: 0.05|x8: 0.05|x9: 0.07|x10: 0.05|x11: 0.05|x12: 0.06|x13: 0.07|x14: 0.08|x15: 0.08|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.12|x4: 0.26|x5: 0.13|x6: 0.00|x7: 0.00|x8: 0.13|x9: 0.38|x10: 0.14|x11: 0.28|x12: 0.29|x13: 0.00|x14: 0.27|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.11]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[4]</t>
-        </is>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.38]</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>[4, 9, 11, 12, 14]</t>
+        </is>
       </c>
       <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1314,23 +1434,28 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.06|x3: 0.20|x4: 0.05|x5: 0.07|x6: 0.06|x7: 0.05|x8: 0.04|x9: 0.05|x10: 0.04|x11: 0.05|x12: 0.05|x13: 0.06|x14: 0.07|x15: 0.07|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.21|x3: 0.41|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.28|x10: 0.00|x11: 0.28|x12: 0.29|x13: 0.20|x14: 0.33|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.20]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[3]</t>
-        </is>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 0.41]</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>[2, 3, 9, 11, 12, 13, 14]</t>
+        </is>
       </c>
       <c r="H25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1350,24 +1475,29 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.12|x3: 0.08|x4: 0.04|x5: 0.06|x6: 0.05|x7: 0.04|x8: 0.06|x9: 0.05|x10: 0.05|x11: 0.06|x12: 0.05|x13: 0.06|x14: 0.07|x15: 0.07|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.31|x4: 0.00|x5: 0.00|x6: 0.18|x7: 0.18|x8: 0.13|x9: 0.20|x10: 0.20|x11: 0.24|x12: 0.18|x13: 0.00|x14: 0.37|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.12]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[2]</t>
-        </is>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.37]</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>[3, 10, 11, 14]</t>
+        </is>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1386,23 +1516,28 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>x1: 0.15|x2: 0.06|x3: 0.04|x4: 0.04|x5: 0.09|x6: 0.05|x7: 0.03|x8: 0.06|x9: 0.05|x10: 0.07|x11: 0.09|x12: 0.05|x13: 0.05|x14: 0.05|x15: 0.06|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.14|x5: 0.00|x6: 0.27|x7: 0.26|x8: 0.33|x9: 0.19|x10: 0.17|x11: 0.00|x12: 0.22|x13: 0.42|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.15]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[1]</t>
-        </is>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.42]</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>[6, 7, 8, 12, 13]</t>
+        </is>
       </c>
       <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1422,23 +1557,28 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.12|x3: 0.16|x4: 0.05|x5: 0.04|x6: 0.05|x7: 0.03|x8: 0.08|x9: 0.04|x10: 0.05|x11: 0.05|x12: 0.05|x13: 0.05|x14: 0.07|x15: 0.09|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.17|x2: 0.33|x3: 0.50|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.46|x10: 0.00|x11: 0.28|x12: 0.26|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.16]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[2, 3]</t>
-        </is>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 0.50]</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>[2, 3, 9, 11, 12]</t>
+        </is>
       </c>
       <c r="H28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1458,23 +1598,28 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.04|x3: 0.37|x4: 0.08|x5: 0.02|x6: 0.07|x7: 0.04|x8: 0.04|x9: 0.05|x10: 0.04|x11: 0.05|x12: 0.04|x13: 0.03|x14: 0.04|x15: 0.04|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.25|x2: 0.00|x3: 1.17|x4: 0.38|x5: 0.20|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.37]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[3]</t>
-        </is>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 1.17]</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>[1, 3, 4]</t>
+        </is>
       </c>
       <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1494,23 +1639,28 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>x1: 0.10|x2: 0.06|x3: 0.12|x4: 0.03|x5: 0.03|x6: 0.04|x7: 0.04|x8: 0.04|x9: 0.04|x10: 0.06|x11: 0.08|x12: 0.04|x13: 0.07|x14: 0.09|x15: 0.10|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.17|x2: 0.23|x3: 0.32|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.19|x10: 0.00|x11: 0.00|x12: 0.37|x13: 0.00|x14: 0.72|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.12]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>[3, 15]</t>
-        </is>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 0.72]</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>[2, 3, 12, 14]</t>
+        </is>
       </c>
       <c r="H30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1530,23 +1680,28 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.04|x3: 0.09|x4: 0.19|x5: 0.03|x6: 0.05|x7: 0.04|x8: 0.03|x9: 0.04|x10: 0.03|x11: 0.05|x12: 0.05|x13: 0.07|x14: 0.09|x15: 0.09|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.41|x5: 0.00|x6: 0.14|x7: 0.14|x8: 0.00|x9: 0.27|x10: 0.13|x11: 0.12|x12: 0.37|x13: 0.00|x14: 0.12|x15: 0.31|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.19]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[4]</t>
-        </is>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.41]</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>[4, 9, 12, 15]</t>
+        </is>
       </c>
       <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1566,23 +1721,28 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.03|x3: 0.11|x4: 0.12|x5: 0.09|x6: 0.07|x7: 0.05|x8: 0.03|x9: 0.05|x10: 0.03|x11: 0.05|x12: 0.06|x13: 0.07|x14: 0.05|x15: 0.05|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.25|x3: 0.26|x4: 1.02|x5: 0.33|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.14|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.12]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[3, 4]</t>
-        </is>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 1.02]</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>[2, 3, 4, 5]</t>
+        </is>
       </c>
       <c r="H32" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1602,23 +1762,28 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.05|x3: 0.20|x4: 0.08|x5: 0.05|x6: 0.03|x7: 0.04|x8: 0.04|x9: 0.07|x10: 0.08|x11: 0.05|x12: 0.04|x13: 0.04|x14: 0.04|x15: 0.04|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.25|x2: 0.00|x3: 0.58|x4: 0.24|x5: 0.00|x6: 0.14|x7: 0.13|x8: 0.15|x9: 0.00|x10: 0.00|x11: 0.25|x12: 0.00|x13: 0.27|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.20]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[3]</t>
-        </is>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 0.58]</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>[1, 3, 4, 11, 13]</t>
+        </is>
       </c>
       <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1638,23 +1803,28 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.05|x3: 0.27|x4: 0.05|x5: 0.03|x6: 0.07|x7: 0.05|x8: 0.04|x9: 0.05|x10: 0.04|x11: 0.05|x12: 0.04|x13: 0.05|x14: 0.07|x15: 0.08|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.72|x4: 0.00|x5: 0.00|x6: 0.16|x7: 0.16|x8: 0.00|x9: 0.22|x10: 0.00|x11: 0.00|x12: 0.60|x13: 0.00|x14: 0.14|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.27]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>[3]</t>
-        </is>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 0.72]</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>[3, 9, 12]</t>
+        </is>
       </c>
       <c r="H34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1674,23 +1844,28 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.05|x3: 0.28|x4: 0.11|x5: 0.06|x6: 0.06|x7: 0.03|x8: 0.04|x9: 0.04|x10: 0.04|x11: 0.05|x12: 0.04|x13: 0.04|x14: 0.03|x15: 0.03|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.28|x2: 0.00|x3: 1.12|x4: 0.26|x5: 0.17|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.18|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.28]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>[3, 4]</t>
-        </is>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 1.12]</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>[1, 3, 4]</t>
+        </is>
       </c>
       <c r="H35" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1710,23 +1885,28 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.04|x3: 0.13|x4: 0.10|x5: 0.03|x6: 0.06|x7: 0.05|x8: 0.05|x9: 0.06|x10: 0.07|x11: 0.06|x12: 0.05|x13: 0.06|x14: 0.05|x15: 0.05|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.36|x2: 0.00|x3: 0.54|x4: 0.00|x5: 0.15|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.66|x12: 0.14|x13: 0.00|x14: 0.15|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.13]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>[3, 4]</t>
-        </is>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 0.66]</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>[1, 3, 11]</t>
+        </is>
       </c>
       <c r="H36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1746,24 +1926,29 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.03|x3: 0.08|x4: 0.15|x5: 0.07|x6: 0.09|x7: 0.04|x8: 0.06|x9: 0.06|x10: 0.04|x11: 0.05|x12: 0.06|x13: 0.06|x14: 0.06|x15: 0.06|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.27|x4: 0.53|x5: 0.25|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.23|x10: 0.00|x11: 0.00|x12: 0.42|x13: 0.00|x14: 0.31|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.15]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>[4]</t>
-        </is>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.53]</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>[3, 4, 5, 9, 12, 14]</t>
+        </is>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I37" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1782,23 +1967,28 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.05|x3: 0.26|x4: 0.03|x5: 0.10|x6: 0.07|x7: 0.05|x8: 0.04|x9: 0.07|x10: 0.06|x11: 0.04|x12: 0.04|x13: 0.04|x14: 0.03|x15: 0.03|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.94|x4: 0.00|x5: 0.20|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.13|x10: 0.15|x11: 0.00|x12: 0.16|x13: 0.00|x14: 0.23|x15: 0.00|x16: 0.19|x17: 0.00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.26]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[3]</t>
-        </is>
-      </c>
-      <c r="G38" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 0.94]</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>[3, 5, 14]</t>
+        </is>
       </c>
       <c r="H38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1818,23 +2008,28 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.07|x3: 0.17|x4: 0.03|x5: 0.03|x6: 0.05|x7: 0.04|x8: 0.07|x9: 0.05|x10: 0.06|x11: 0.06|x12: 0.04|x13: 0.05|x14: 0.07|x15: 0.08|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.50|x2: 0.17|x3: 0.35|x4: 0.23|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.24|x10: 0.14|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.37|x17: 0.00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.17]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[3]</t>
-        </is>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 0.50]</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>[1, 3, 4, 9, 16]</t>
+        </is>
       </c>
       <c r="H39" t="b">
+        <v>1</v>
+      </c>
+      <c r="I39" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1854,23 +2049,28 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.05|x3: 0.03|x4: 0.13|x5: 0.09|x6: 0.05|x7: 0.03|x8: 0.05|x9: 0.05|x10: 0.04|x11: 0.05|x12: 0.05|x13: 0.07|x14: 0.09|x15: 0.09|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.23|x3: 0.00|x4: 0.26|x5: 0.35|x6: 0.00|x7: 0.00|x8: 0.15|x9: 0.36|x10: 0.00|x11: 0.00|x12: 0.27|x13: 0.13|x14: 0.00|x15: 0.00|x16: 0.24|x17: 0.00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.13]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[4]</t>
-        </is>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.36]</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>[2, 4, 5, 9, 12, 16]</t>
+        </is>
       </c>
       <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1890,23 +2090,28 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.03|x3: 0.18|x4: 0.12|x5: 0.03|x6: 0.09|x7: 0.05|x8: 0.06|x9: 0.05|x10: 0.05|x11: 0.06|x12: 0.05|x13: 0.05|x14: 0.04|x15: 0.04|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.18|x3: 0.56|x4: 0.35|x5: 0.00|x6: 0.14|x7: 0.14|x8: 0.00|x9: 0.34|x10: 0.00|x11: 0.00|x12: 0.17|x13: 0.12|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.18]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[3, 4]</t>
-        </is>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 0.56]</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>[3, 4, 9]</t>
+        </is>
       </c>
       <c r="H41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1926,23 +2131,28 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.07|x3: 0.11|x4: 0.09|x5: 0.10|x6: 0.04|x7: 0.04|x8: 0.05|x9: 0.05|x10: 0.05|x11: 0.04|x12: 0.05|x13: 0.06|x14: 0.07|x15: 0.08|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.40|x4: 0.34|x5: 0.26|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.26|x10: 0.00|x11: 0.00|x12: 0.29|x13: 0.00|x14: 0.30|x15: 0.00|x16: 0.15|x17: 0.00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.11]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[3, 5]</t>
-        </is>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 0.40]</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>[3, 4, 5, 9, 12, 14]</t>
+        </is>
       </c>
       <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1962,23 +2172,28 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.04|x3: 0.29|x4: 0.10|x5: 0.06|x6: 0.06|x7: 0.03|x8: 0.06|x9: 0.04|x10: 0.05|x11: 0.04|x12: 0.04|x13: 0.03|x14: 0.04|x15: 0.04|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.20|x2: 0.00|x3: 0.91|x4: 0.32|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.39|x15: 0.00|x16: 0.18|x17: 0.00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.29]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>[3, 4]</t>
-        </is>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 0.91]</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>[1, 3, 4, 14]</t>
+        </is>
       </c>
       <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1998,24 +2213,29 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.10|x3: 0.04|x4: 0.04|x5: 0.22|x6: 0.04|x7: 0.04|x8: 0.07|x9: 0.05|x10: 0.06|x11: 0.05|x12: 0.04|x13: 0.03|x14: 0.03|x15: 0.02|x16: 0.12|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.16|x3: 0.29|x4: 0.00|x5: 0.51|x6: 0.00|x7: 0.00|x8: 0.11|x9: 0.18|x10: 0.20|x11: 0.00|x12: 0.24|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.32|x17: 0.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.22]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>[2, 5, 16]</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.51]</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>[3, 5, 10, 12, 16]</t>
+        </is>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -2034,23 +2254,28 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.03|x3: 0.05|x4: 0.11|x5: 0.10|x6: 0.07|x7: 0.04|x8: 0.06|x9: 0.06|x10: 0.05|x11: 0.05|x12: 0.05|x13: 0.06|x14: 0.06|x15: 0.05|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.11|x4: 0.34|x5: 0.41|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.18|x10: 0.13|x11: 0.26|x12: 0.18|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.39|x17: 0.00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.11]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>[4, 5]</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.41]</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>[4, 5, 11, 16]</t>
+        </is>
       </c>
       <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2070,24 +2295,29 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>x1: 0.09|x2: 0.04|x3: 0.05|x4: 0.10|x5: 0.03|x6: 0.07|x7: 0.04|x8: 0.06|x9: 0.05|x10: 0.06|x11: 0.07|x12: 0.05|x13: 0.07|x14: 0.07|x15: 0.08|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.13|x2: 0.00|x3: 0.33|x4: 0.38|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.18|x10: 0.00|x11: 0.17|x12: 0.37|x13: 0.00|x14: 0.44|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.10]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.44]</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>[3, 4, 12, 14]</t>
+        </is>
       </c>
       <c r="H46" t="b">
         <v>0</v>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2106,24 +2336,29 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.05|x3: 0.14|x4: 0.18|x5: 0.03|x6: 0.05|x7: 0.03|x8: 0.08|x9: 0.06|x10: 0.04|x11: 0.04|x12: 0.05|x13: 0.05|x14: 0.05|x15: 0.04|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.20|x2: 0.00|x3: 0.11|x4: 0.53|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.12|x9: 0.18|x10: 0.12|x11: 0.26|x12: 0.35|x13: 0.13|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.18]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>[3, 4]</t>
-        </is>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 0.53]</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>[1, 4, 11, 12]</t>
+        </is>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2142,23 +2377,28 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.05|x3: 0.14|x4: 0.10|x5: 0.03|x6: 0.04|x7: 0.06|x8: 0.03|x9: 0.05|x10: 0.05|x11: 0.06|x12: 0.06|x13: 0.07|x14: 0.07|x15: 0.07|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.24|x2: 0.26|x3: 0.40|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.14|x10: 0.00|x11: 0.22|x12: 0.21|x13: 0.00|x14: 0.52|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.14]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>[3]</t>
-        </is>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.52]</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>[1, 2, 3, 11, 12, 14]</t>
+        </is>
       </c>
       <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2178,23 +2418,28 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.07|x3: 0.12|x4: 0.10|x5: 0.05|x6: 0.05|x7: 0.05|x8: 0.06|x9: 0.07|x10: 0.08|x11: 0.05|x12: 0.05|x13: 0.05|x14: 0.05|x15: 0.04|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.19|x2: 0.00|x3: 0.36|x4: 0.36|x5: 0.00|x6: 0.13|x7: 0.12|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.38|x12: 0.29|x13: 0.17|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.12]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>[3, 4]</t>
-        </is>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 0.38]</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>[3, 4, 11, 12]</t>
+        </is>
       </c>
       <c r="H49" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2214,23 +2459,28 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.03|x3: 0.07|x4: 0.17|x5: 0.03|x6: 0.08|x7: 0.05|x8: 0.04|x9: 0.06|x10: 0.05|x11: 0.05|x12: 0.06|x13: 0.08|x14: 0.07|x15: 0.07|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.72|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.17|x9: 0.13|x10: 0.18|x11: 0.13|x12: 0.00|x13: 0.16|x14: 0.33|x15: 0.00|x16: 0.20|x17: 0.00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.17]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>[4]</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 0.72]</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>[4, 14]</t>
+        </is>
       </c>
       <c r="H50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2250,23 +2500,28 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.05|x3: 0.06|x4: 0.17|x5: 0.04|x6: 0.05|x7: 0.05|x8: 0.05|x9: 0.05|x10: 0.06|x11: 0.07|x12: 0.05|x13: 0.05|x14: 0.06|x15: 0.06|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.35|x2: 0.00|x3: 0.28|x4: 0.35|x5: 0.15|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.22|x10: 0.17|x11: 0.25|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.24|x17: 0.00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.17]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>[4]</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 0.35]</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>[1, 3, 4, 9, 11, 16]</t>
+        </is>
       </c>
       <c r="H51" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2286,23 +2541,28 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.03|x3: 0.05|x4: 0.23|x5: 0.03|x6: 0.08|x7: 0.05|x8: 0.06|x9: 0.06|x10: 0.04|x11: 0.05|x12: 0.06|x13: 0.06|x14: 0.05|x15: 0.05|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 1.06|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.13|x9: 0.22|x10: 0.25|x11: 0.00|x12: 0.21|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.13|x17: 0.00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.23]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>[4]</t>
-        </is>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 1.06]</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>[4, 9, 10, 12]</t>
+        </is>
       </c>
       <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2322,23 +2582,28 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.04|x3: 0.07|x4: 0.15|x5: 0.09|x6: 0.04|x7: 0.03|x8: 0.07|x9: 0.06|x10: 0.05|x11: 0.05|x12: 0.04|x13: 0.04|x14: 0.06|x15: 0.05|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.71|x5: 0.30|x6: 0.13|x7: 0.13|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.43|x15: 0.00|x16: 0.31|x17: 0.00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.15]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[4]</t>
-        </is>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 0.71]</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>[4, 5, 14, 16]</t>
+        </is>
       </c>
       <c r="H53" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2358,23 +2623,28 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.05|x3: 0.10|x4: 0.15|x5: 0.02|x6: 0.06|x7: 0.06|x8: 0.05|x9: 0.09|x10: 0.07|x11: 0.05|x12: 0.06|x13: 0.06|x14: 0.06|x15: 0.04|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.28|x4: 0.85|x5: 0.17|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.32|x10: 0.00|x11: 0.00|x12: 0.24|x13: 0.14|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.15]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>[3, 4]</t>
-        </is>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 0.85]</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>[3, 4, 9, 12]</t>
+        </is>
       </c>
       <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2394,23 +2664,28 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.06|x3: 0.03|x4: 0.29|x5: 0.03|x6: 0.06|x7: 0.03|x8: 0.04|x9: 0.05|x10: 0.03|x11: 0.04|x12: 0.05|x13: 0.06|x14: 0.07|x15: 0.07|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 1.09|x5: 0.35|x6: 0.28|x7: 0.28|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.29]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>[4]</t>
-        </is>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 1.09]</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>[4, 5, 6, 7]</t>
+        </is>
       </c>
       <c r="H55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2430,23 +2705,28 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.04|x3: 0.04|x4: 0.21|x5: 0.03|x6: 0.07|x7: 0.05|x8: 0.06|x9: 0.06|x10: 0.06|x11: 0.05|x12: 0.06|x13: 0.06|x14: 0.07|x15: 0.06|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.83|x5: 0.29|x6: 0.00|x7: 0.00|x8: 0.13|x9: 0.19|x10: 0.17|x11: 0.00|x12: 0.20|x13: 0.00|x14: 0.20|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.21]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>[4]</t>
-        </is>
-      </c>
-      <c r="G56" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 0.83]</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>[4, 5, 12]</t>
+        </is>
       </c>
       <c r="H56" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2466,24 +2746,29 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.05|x3: 0.06|x4: 0.05|x5: 0.05|x6: 0.08|x7: 0.05|x8: 0.07|x9: 0.07|x10: 0.05|x11: 0.07|x12: 0.06|x13: 0.06|x14: 0.08|x15: 0.08|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.18|x3: 0.00|x4: 0.39|x5: 0.14|x6: 0.00|x7: 0.00|x8: 0.16|x9: 0.56|x10: 0.00|x11: 0.00|x12: 0.28|x13: 0.29|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.08]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.56]</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>[4, 9, 12, 13]</t>
+        </is>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I57" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2502,23 +2787,28 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.02|x3: 0.09|x4: 0.20|x5: 0.08|x6: 0.05|x7: 0.02|x8: 0.09|x9: 0.07|x10: 0.04|x11: 0.05|x12: 0.04|x13: 0.04|x14: 0.04|x15: 0.03|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.16|x2: 0.00|x3: 0.19|x4: 0.70|x5: 0.18|x6: 0.13|x7: 0.12|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.16|x12: 0.00|x13: 0.00|x14: 0.36|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.20]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>[4]</t>
-        </is>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 0.70]</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>[4, 14]</t>
+        </is>
       </c>
       <c r="H58" t="b">
+        <v>1</v>
+      </c>
+      <c r="I58" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2538,23 +2828,28 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.06|x3: 0.09|x4: 0.08|x5: 0.05|x6: 0.07|x7: 0.04|x8: 0.07|x9: 0.07|x10: 0.05|x11: 0.07|x12: 0.05|x13: 0.05|x14: 0.05|x15: 0.06|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.13|x3: 0.00|x4: 0.13|x5: 0.00|x6: 0.15|x7: 0.15|x8: 0.21|x9: 0.20|x10: 0.00|x11: 0.39|x12: 0.00|x13: 0.28|x14: 0.00|x15: 0.20|x16: 0.16|x17: 0.00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.09]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.39]</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>[8, 11, 13]</t>
+        </is>
       </c>
       <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2574,23 +2869,28 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.03|x3: 0.10|x4: 0.09|x5: 0.04|x6: 0.08|x7: 0.05|x8: 0.05|x9: 0.06|x10: 0.06|x11: 0.07|x12: 0.05|x13: 0.06|x14: 0.05|x15: 0.05|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.23|x2: 0.00|x3: 0.25|x4: 0.30|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.15|x9: 0.14|x10: 0.00|x11: 0.11|x12: 0.18|x13: 0.27|x14: 0.18|x15: 0.18|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.10]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>[3]</t>
-        </is>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.30]</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>[1, 3, 4, 13]</t>
+        </is>
       </c>
       <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2610,23 +2910,28 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.08|x3: 0.05|x4: 0.16|x5: 0.09|x6: 0.05|x7: 0.04|x8: 0.04|x9: 0.04|x10: 0.03|x11: 0.04|x12: 0.05|x13: 0.06|x14: 0.08|x15: 0.09|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.74|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.12|x11: 0.13|x12: 0.12|x13: 0.00|x14: 0.24|x15: 0.00|x16: 0.65|x17: 0.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.16]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>[4]</t>
-        </is>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.74]</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>[4, 14, 16]</t>
+        </is>
       </c>
       <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2646,24 +2951,29 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.12|x3: 0.04|x4: 0.02|x5: 0.10|x6: 0.05|x7: 0.03|x8: 0.04|x9: 0.05|x10: 0.05|x11: 0.06|x12: 0.05|x13: 0.06|x14: 0.09|x15: 0.11|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.40|x2: 0.18|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.16|x11: 0.15|x12: 0.00|x13: 0.00|x14: 0.48|x15: 0.00|x16: 0.64|x17: 0.00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.12]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[2, 5, 15]</t>
-        </is>
-      </c>
-      <c r="G62" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 0.64]</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>[1, 14, 16]</t>
+        </is>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I62" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2682,23 +2992,28 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.05|x3: 0.10|x4: 0.06|x5: 0.17|x6: 0.05|x7: 0.04|x8: 0.04|x9: 0.04|x10: 0.04|x11: 0.05|x12: 0.04|x13: 0.05|x14: 0.07|x15: 0.08|x16: 0.11|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.14|x4: 0.15|x5: 0.41|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.58|x12: 0.13|x13: 0.00|x14: 0.23|x15: 0.25|x16: 0.12|x17: 0.00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.17]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>[5, 16]</t>
-        </is>
-      </c>
-      <c r="G63" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 0.58]</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>[5, 11, 14, 15]</t>
+        </is>
       </c>
       <c r="H63" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2718,23 +3033,28 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.02|x3: 0.09|x4: 0.08|x5: 0.18|x6: 0.06|x7: 0.04|x8: 0.04|x9: 0.04|x10: 0.04|x11: 0.04|x12: 0.05|x13: 0.06|x14: 0.05|x15: 0.05|x16: 0.11|x17: 0.00</t>
+          <t>x1: 0.14|x2: 0.22|x3: 0.00|x4: 0.30|x5: 0.44|x6: 0.00|x7: 0.00|x8: 0.21|x9: 0.00|x10: 0.00|x11: 0.14|x12: 0.00|x13: 0.25|x14: 0.18|x15: 0.00|x16: 0.13|x17: 0.00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.18]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>[5, 16]</t>
-        </is>
-      </c>
-      <c r="G64" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 0.44]</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>[2, 4, 5, 8, 13]</t>
+        </is>
       </c>
       <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2754,23 +3074,28 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.03|x3: 0.05|x4: 0.12|x5: 0.16|x6: 0.06|x7: 0.04|x8: 0.05|x9: 0.05|x10: 0.05|x11: 0.05|x12: 0.04|x13: 0.05|x14: 0.05|x15: 0.05|x16: 0.10|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.16|x5: 0.41|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.18|x10: 0.18|x11: 0.16|x12: 0.23|x13: 0.00|x14: 0.35|x15: 0.00|x16: 0.34|x17: 0.00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.16]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>[4, 5]</t>
-        </is>
-      </c>
-      <c r="G65" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 0.41]</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>[5, 12, 14, 16]</t>
+        </is>
       </c>
       <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2790,23 +3115,28 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.05|x3: 0.16|x4: 0.04|x5: 0.04|x6: 0.06|x7: 0.06|x8: 0.07|x9: 0.10|x10: 0.06|x11: 0.05|x12: 0.05|x13: 0.05|x14: 0.06|x15: 0.06|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.32|x4: 0.25|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.24|x10: 0.00|x11: 0.24|x12: 0.64|x13: 0.00|x14: 0.30|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.16]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>[3]</t>
-        </is>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.64]</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>[3, 4, 9, 11, 12, 14]</t>
+        </is>
       </c>
       <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2826,23 +3156,28 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.05|x3: 0.11|x4: 0.11|x5: 0.06|x6: 0.07|x7: 0.05|x8: 0.06|x9: 0.06|x10: 0.05|x11: 0.06|x12: 0.05|x13: 0.05|x14: 0.06|x15: 0.06|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.43|x4: 0.56|x5: 0.12|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.20|x10: 0.00|x11: 0.14|x12: 0.28|x13: 0.00|x14: 0.28|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.11]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>[3, 4]</t>
-        </is>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.56]</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>[3, 4, 12, 14]</t>
+        </is>
       </c>
       <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2862,23 +3197,28 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.07|x3: 0.07|x4: 0.09|x5: 0.04|x6: 0.07|x7: 0.04|x8: 0.04|x9: 0.05|x10: 0.04|x11: 0.06|x12: 0.05|x13: 0.08|x14: 0.10|x15: 0.11|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.20|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.26|x10: 0.00|x11: 0.32|x12: 0.21|x13: 0.00|x14: 0.28|x15: 0.73|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.11]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>[15]</t>
-        </is>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.73]</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>[9, 11, 12, 14, 15]</t>
+        </is>
       </c>
       <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2898,23 +3238,28 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.05|x3: 0.04|x4: 0.13|x5: 0.03|x6: 0.06|x7: 0.04|x8: 0.09|x9: 0.07|x10: 0.06|x11: 0.06|x12: 0.06|x13: 0.06|x14: 0.07|x15: 0.06|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.28|x2: 0.00|x3: 0.00|x4: 0.55|x5: 0.00|x6: 0.17|x7: 0.17|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.15|x12: 0.33|x13: 0.00|x14: 0.16|x15: 0.00|x16: 0.20|x17: 0.00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.13]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>[4]</t>
-        </is>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.55]</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>[1, 4, 12]</t>
+        </is>
       </c>
       <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2934,24 +3279,29 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.07|x3: 0.03|x4: 0.07|x5: 0.04|x6: 0.05|x7: 0.03|x8: 0.05|x9: 0.05|x10: 0.06|x11: 0.06|x12: 0.05|x13: 0.08|x14: 0.09|x15: 0.10|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.12|x5: 0.00|x6: 0.21|x7: 0.20|x8: 0.00|x9: 0.23|x10: 0.00|x11: 0.00|x12: 0.45|x13: 0.00|x14: 0.55|x15: 0.24|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.10]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.55]</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>[6, 7, 9, 12, 14, 15]</t>
+        </is>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I70" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2970,24 +3320,29 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.05|x3: 0.05|x4: 0.15|x5: 0.04|x6: 0.09|x7: 0.04|x8: 0.04|x9: 0.05|x10: 0.04|x11: 0.05|x12: 0.06|x13: 0.07|x14: 0.09|x15: 0.10|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.24|x4: 0.42|x5: 0.12|x6: 0.12|x7: 0.11|x8: 0.00|x9: 0.18|x10: 0.00|x11: 0.00|x12: 0.37|x13: 0.00|x14: 0.26|x15: 0.17|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.15]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>[4]</t>
-        </is>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.42]</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>[3, 4, 12, 14]</t>
+        </is>
       </c>
       <c r="H71" t="b">
         <v>0</v>
+      </c>
+      <c r="I71" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -3006,24 +3361,29 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.04|x3: 0.07|x4: 0.09|x5: 0.04|x6: 0.09|x7: 0.06|x8: 0.07|x9: 0.07|x10: 0.05|x11: 0.06|x12: 0.07|x13: 0.07|x14: 0.06|x15: 0.07|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.33|x5: 0.00|x6: 0.34|x7: 0.33|x8: 0.00|x9: 0.12|x10: 0.00|x11: 0.22|x12: 0.23|x13: 0.00|x14: 0.00|x15: 0.30|x16: 0.14|x17: 0.00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.09]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.34]</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>[4, 6, 7, 11, 12, 15]</t>
+        </is>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I72" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -3042,24 +3402,29 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>x1: 0.09|x2: 0.05|x3: 0.06|x4: 0.07|x5: 0.07|x6: 0.06|x7: 0.05|x8: 0.09|x9: 0.06|x10: 0.07|x11: 0.07|x12: 0.05|x13: 0.04|x14: 0.04|x15: 0.04|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.17|x3: 0.00|x4: 0.15|x5: 0.00|x6: 0.27|x7: 0.26|x8: 0.11|x9: 0.21|x10: 0.00|x11: 0.00|x12: 0.34|x13: 0.17|x14: 0.11|x15: 0.00|x16: 0.21|x17: 0.00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.09]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.34]</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>[6, 7, 9, 12, 16]</t>
+        </is>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I73" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -3078,24 +3443,29 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>x1: 0.10|x2: 0.06|x3: 0.09|x4: 0.12|x5: 0.02|x6: 0.04|x7: 0.07|x8: 0.05|x9: 0.06|x10: 0.06|x11: 0.07|x12: 0.07|x13: 0.06|x14: 0.04|x15: 0.03|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.14|x4: 0.36|x5: 0.00|x6: 0.17|x7: 0.17|x8: 0.21|x9: 0.25|x10: 0.25|x11: 0.00|x12: 0.22|x13: 0.00|x14: 0.22|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.12]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>[4]</t>
-        </is>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.36]</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>[4, 8, 9, 10, 12, 14]</t>
+        </is>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I74" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -3114,24 +3484,29 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.10|x3: 0.05|x4: 0.02|x5: 0.07|x6: 0.05|x7: 0.04|x8: 0.05|x9: 0.04|x10: 0.04|x11: 0.06|x12: 0.06|x13: 0.08|x14: 0.10|x15: 0.12|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.12|x6: 0.14|x7: 0.14|x8: 0.36|x9: 0.26|x10: 0.00|x11: 0.00|x12: 0.25|x13: 0.55|x14: 0.18|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.12]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>[2, 15]</t>
-        </is>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.55]</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>[8, 9, 12, 13]</t>
+        </is>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I75" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3150,23 +3525,28 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.08|x3: 0.03|x4: 0.11|x5: 0.06|x6: 0.04|x7: 0.05|x8: 0.08|x9: 0.06|x10: 0.06|x11: 0.05|x12: 0.06|x13: 0.07|x14: 0.08|x15: 0.09|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.13|x2: 0.00|x3: 0.21|x4: 0.31|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.32|x10: 0.00|x11: 0.00|x12: 0.57|x13: 0.00|x14: 0.26|x15: 0.00|x16: 0.19|x17: 0.00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.11]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>[4]</t>
-        </is>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.57]</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>[3, 4, 9, 12, 14]</t>
+        </is>
       </c>
       <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3186,24 +3566,29 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.05|x3: 0.10|x4: 0.15|x5: 0.04|x6: 0.04|x7: 0.03|x8: 0.07|x9: 0.04|x10: 0.06|x11: 0.06|x12: 0.04|x13: 0.06|x14: 0.06|x15: 0.06|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.40|x2: 0.12|x3: 0.30|x4: 0.31|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.34|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.52|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.15]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>[4]</t>
-        </is>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.52]</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>[1, 3, 4, 8, 13]</t>
+        </is>
       </c>
       <c r="H77" t="b">
         <v>0</v>
+      </c>
+      <c r="I77" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3222,24 +3607,29 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.04|x3: 0.06|x4: 0.20|x5: 0.04|x6: 0.07|x7: 0.05|x8: 0.06|x9: 0.06|x10: 0.05|x11: 0.04|x12: 0.06|x13: 0.07|x14: 0.06|x15: 0.05|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.27|x9: 0.38|x10: 0.27|x11: 0.00|x12: 0.00|x13: 0.19|x14: 0.88|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.20]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>[4]</t>
-        </is>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.88]</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>[8, 9, 10, 14]</t>
+        </is>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3258,23 +3648,28 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.07|x3: 0.05|x4: 0.08|x5: 0.06|x6: 0.08|x7: 0.05|x8: 0.05|x9: 0.05|x10: 0.04|x11: 0.06|x12: 0.05|x13: 0.06|x14: 0.08|x15: 0.09|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.57|x7: 0.56|x8: 0.13|x9: 0.13|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.15|x14: 0.46|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.09]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.57]</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>[6, 7, 14]</t>
+        </is>
       </c>
       <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3294,23 +3689,28 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.11|x3: 0.04|x4: 0.05|x5: 0.03|x6: 0.05|x7: 0.05|x8: 0.08|x9: 0.08|x10: 0.06|x11: 0.07|x12: 0.06|x13: 0.05|x14: 0.07|x15: 0.08|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.35|x2: 0.18|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.35|x7: 0.34|x8: 0.23|x9: 0.00|x10: 0.00|x11: 0.13|x12: 0.00|x13: 0.22|x14: 0.19|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.11]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>[2]</t>
-        </is>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.35]</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>[1, 6, 7, 8, 13]</t>
+        </is>
       </c>
       <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3330,24 +3730,29 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.05|x3: 0.05|x4: 0.07|x5: 0.03|x6: 0.07|x7: 0.04|x8: 0.08|x9: 0.08|x10: 0.05|x11: 0.07|x12: 0.06|x13: 0.06|x14: 0.08|x15: 0.09|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.42|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.21|x10: 0.16|x11: 0.69|x12: 0.32|x13: 0.00|x14: 0.20|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.09]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.69]</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>[4, 9, 11, 12, 14]</t>
+        </is>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I81" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3366,23 +3771,28 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.03|x3: 0.09|x4: 0.07|x5: 0.03|x6: 0.09|x7: 0.06|x8: 0.05|x9: 0.06|x10: 0.05|x11: 0.06|x12: 0.07|x13: 0.08|x14: 0.07|x15: 0.08|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.34|x5: 0.00|x6: 0.35|x7: 0.35|x8: 0.00|x9: 0.17|x10: 0.00|x11: 0.16|x12: 0.37|x13: 0.00|x14: 0.26|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.09]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.37]</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>[4, 6, 7, 12, 14]</t>
+        </is>
       </c>
       <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3402,23 +3812,28 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.07|x3: 0.10|x4: 0.09|x5: 0.04|x6: 0.07|x7: 0.05|x8: 0.07|x9: 0.07|x10: 0.05|x11: 0.05|x12: 0.05|x13: 0.06|x14: 0.06|x15: 0.06|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.31|x4: 0.00|x5: 0.00|x6: 0.15|x7: 0.15|x8: 0.00|x9: 0.00|x10: 0.11|x11: 0.00|x12: 0.19|x13: 0.12|x14: 0.37|x15: 0.00|x16: 0.60|x17: 0.00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.10]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>[3]</t>
-        </is>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.60]</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>[3, 14, 16]</t>
+        </is>
       </c>
       <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3438,24 +3853,29 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.07|x3: 0.09|x4: 0.07|x5: 0.03|x6: 0.06|x7: 0.05|x8: 0.07|x9: 0.06|x10: 0.05|x11: 0.06|x12: 0.06|x13: 0.07|x14: 0.07|x15: 0.08|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.11|x2: 0.00|x3: 0.00|x4: 0.17|x5: 0.13|x6: 0.21|x7: 0.20|x8: 0.11|x9: 0.18|x10: 0.22|x11: 0.25|x12: 0.14|x13: 0.00|x14: 0.14|x15: 0.00|x16: 0.14|x17: 0.00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.09]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.25]</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>[6, 7, 10, 11]</t>
+        </is>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I84" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3474,23 +3894,28 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.04|x3: 0.15|x4: 0.10|x5: 0.04|x6: 0.04|x7: 0.03|x8: 0.06|x9: 0.04|x10: 0.06|x11: 0.05|x12: 0.04|x13: 0.06|x14: 0.07|x15: 0.08|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.18|x3: 0.23|x4: 0.19|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.14|x9: 0.14|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.15|x14: 0.49|x15: 0.00|x16: 0.47|x17: 0.00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.15]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>[3, 4]</t>
-        </is>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.49]</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>[3, 14, 16]</t>
+        </is>
       </c>
       <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3510,23 +3935,28 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.04|x3: 0.07|x4: 0.12|x5: 0.13|x6: 0.06|x7: 0.03|x8: 0.06|x9: 0.04|x10: 0.05|x11: 0.04|x12: 0.05|x13: 0.06|x14: 0.06|x15: 0.07|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.19|x4: 0.21|x5: 0.27|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.19|x10: 0.00|x11: 0.00|x12: 0.23|x13: 0.19|x14: 0.39|x15: 0.00|x16: 0.34|x17: 0.00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.13]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>[4, 5]</t>
-        </is>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.39]</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>[4, 5, 12, 14, 16]</t>
+        </is>
       </c>
       <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3546,23 +3976,28 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.04|x3: 0.05|x4: 0.04|x5: 0.17|x6: 0.03|x7: 0.02|x8: 0.10|x9: 0.07|x10: 0.06|x11: 0.05|x12: 0.04|x13: 0.04|x14: 0.04|x15: 0.04|x16: 0.11|x17: 0.00</t>
+          <t>x1: 0.14|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.25|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.16|x10: 0.00|x11: 0.46|x12: 0.47|x13: 0.00|x14: 0.24|x15: 0.00|x16: 0.28|x17: 0.00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.17]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>[5, 8, 16]</t>
-        </is>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.47]</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>[5, 11, 12, 14, 16]</t>
+        </is>
       </c>
       <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3582,23 +4017,28 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>x1: 0.13|x2: 0.06|x3: 0.04|x4: 0.08|x5: 0.03|x6: 0.04|x7: 0.04|x8: 0.05|x9: 0.05|x10: 0.07|x11: 0.08|x12: 0.05|x13: 0.07|x14: 0.08|x15: 0.08|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.57|x2: 0.14|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.15|x10: 0.00|x11: 0.49|x12: 0.38|x13: 0.00|x14: 0.27|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.13]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>[1]</t>
-        </is>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.57]</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>[1, 11, 12, 14]</t>
+        </is>
       </c>
       <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3618,23 +4058,28 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>x1: 0.11|x2: 0.04|x3: 0.06|x4: 0.08|x5: 0.12|x6: 0.04|x7: 0.04|x8: 0.06|x9: 0.05|x10: 0.07|x11: 0.07|x12: 0.04|x13: 0.04|x14: 0.05|x15: 0.05|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.38|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.30|x9: 0.19|x10: 0.15|x11: 0.00|x12: 0.23|x13: 0.37|x14: 0.38|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.12]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>[1, 5]</t>
-        </is>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.38]</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>[4, 8, 12, 13, 14]</t>
+        </is>
       </c>
       <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3654,24 +4099,29 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>x1: 0.10|x2: 0.02|x3: 0.10|x4: 0.24|x5: 0.03|x6: 0.05|x7: 0.03|x8: 0.04|x9: 0.04|x10: 0.05|x11: 0.05|x12: 0.04|x13: 0.06|x14: 0.05|x15: 0.03|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.40|x4: 0.00|x5: 0.00|x6: 0.36|x7: 0.35|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.47|x12: 0.21|x13: 0.20|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.24]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>[1, 4]</t>
-        </is>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.47]</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>[3, 6, 7, 11, 12, 13]</t>
+        </is>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I90" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3690,24 +4140,29 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>x1: 0.09|x2: 0.04|x3: 0.10|x4: 0.08|x5: 0.02|x6: 0.06|x7: 0.05|x8: 0.04|x9: 0.06|x10: 0.07|x11: 0.07|x12: 0.05|x13: 0.06|x14: 0.07|x15: 0.08|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.15|x2: 0.00|x3: 0.29|x4: 0.21|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.33|x10: 0.17|x11: 0.85|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.10]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>[3]</t>
-        </is>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.85]</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>[3, 4, 9, 11]</t>
+        </is>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I91" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3726,24 +4181,29 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.08|x3: 0.06|x4: 0.05|x5: 0.12|x6: 0.05|x7: 0.05|x8: 0.06|x9: 0.06|x10: 0.06|x11: 0.06|x12: 0.05|x13: 0.04|x14: 0.06|x15: 0.06|x16: 0.10|x17: 0.00</t>
+          <t>x1: 0.13|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.54|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.16|x10: 0.00|x11: 0.32|x12: 0.43|x13: 0.13|x14: 0.14|x15: 0.00|x16: 0.16|x17: 0.00</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.12]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>[5]</t>
-        </is>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.54]</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>[5, 11, 12]</t>
+        </is>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I92" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3762,24 +4222,29 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.13|x3: 0.07|x4: 0.04|x5: 0.07|x6: 0.05|x7: 0.05|x8: 0.06|x9: 0.06|x10: 0.05|x11: 0.05|x12: 0.05|x13: 0.06|x14: 0.08|x15: 0.09|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.49|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.13|x7: 0.13|x8: 0.13|x9: 0.70|x10: 0.00|x11: 0.29|x12: 0.00|x13: 0.14|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.13]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>[2]</t>
-        </is>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.70]</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>[2, 9, 11]</t>
+        </is>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I93" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3798,23 +4263,28 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.04|x3: 0.17|x4: 0.07|x5: 0.06|x6: 0.06|x7: 0.05|x8: 0.04|x9: 0.05|x10: 0.05|x11: 0.06|x12: 0.05|x13: 0.06|x14: 0.06|x15: 0.07|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.46|x4: 0.12|x5: 0.00|x6: 0.15|x7: 0.15|x8: 0.00|x9: 0.12|x10: 0.00|x11: 0.12|x12: 0.25|x13: 0.13|x14: 0.31|x15: 0.00|x16: 0.18|x17: 0.00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.17]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>[3]</t>
-        </is>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.46]</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>[3, 12, 14]</t>
+        </is>
       </c>
       <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3834,23 +4304,28 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.05|x3: 0.12|x4: 0.07|x5: 0.03|x6: 0.06|x7: 0.05|x8: 0.07|x9: 0.07|x10: 0.05|x11: 0.06|x12: 0.06|x13: 0.07|x14: 0.07|x15: 0.08|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.28|x2: 0.00|x3: 0.32|x4: 0.00|x5: 0.00|x6: 0.17|x7: 0.17|x8: 0.00|x9: 0.37|x10: 0.00|x11: 0.00|x12: 0.23|x13: 0.00|x14: 0.46|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.12]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>[3]</t>
-        </is>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.46]</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>[1, 3, 9, 12, 14]</t>
+        </is>
       </c>
       <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3870,23 +4345,28 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.06|x3: 0.05|x4: 0.09|x5: 0.04|x6: 0.07|x7: 0.05|x8: 0.05|x9: 0.05|x10: 0.05|x11: 0.07|x12: 0.06|x13: 0.07|x14: 0.08|x15: 0.08|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.14|x3: 0.41|x4: 0.18|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.31|x13: 0.00|x14: 0.78|x15: 0.00|x16: 0.17|x17: 0.00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.09]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.78]</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>[3, 12, 14]</t>
+        </is>
       </c>
       <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3906,23 +4386,28 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.05|x3: 0.05|x4: 0.16|x5: 0.03|x6: 0.06|x7: 0.03|x8: 0.05|x9: 0.05|x10: 0.04|x11: 0.07|x12: 0.05|x13: 0.07|x14: 0.09|x15: 0.09|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.37|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.13|x9: 0.00|x10: 0.00|x11: 0.18|x12: 0.00|x13: 0.19|x14: 0.24|x15: 0.90|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.16]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>[4]</t>
-        </is>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.90]</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>[4, 14, 15]</t>
+        </is>
       </c>
       <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3942,23 +4427,28 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.03|x3: 0.26|x4: 0.12|x5: 0.07|x6: 0.07|x7: 0.04|x8: 0.04|x9: 0.05|x10: 0.05|x11: 0.05|x12: 0.04|x13: 0.03|x14: 0.03|x15: 0.03|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.58|x4: 0.18|x5: 0.20|x6: 0.21|x7: 0.21|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.21|x13: 0.00|x14: 0.29|x15: 0.00|x16: 0.13|x17: 0.00</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.26]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>[3, 4]</t>
-        </is>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.58]</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>[3, 6, 7, 12, 14]</t>
+        </is>
       </c>
       <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3978,23 +4468,28 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.07|x3: 0.07|x4: 0.10|x5: 0.06|x6: 0.06|x7: 0.05|x8: 0.06|x9: 0.05|x10: 0.05|x11: 0.05|x12: 0.05|x13: 0.06|x14: 0.06|x15: 0.06|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.12|x2: 0.20|x3: 0.00|x4: 0.26|x5: 0.14|x6: 0.28|x7: 0.27|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.33|x12: 0.00|x13: 0.18|x14: 0.22|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.10]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>[4]</t>
-        </is>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.33]</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>[4, 6, 7, 11, 14]</t>
+        </is>
       </c>
       <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4014,23 +4509,28 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.05|x3: 0.13|x4: 0.12|x5: 0.06|x6: 0.06|x7: 0.05|x8: 0.05|x9: 0.06|x10: 0.05|x11: 0.05|x12: 0.05|x13: 0.04|x14: 0.04|x15: 0.04|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.33|x2: 0.00|x3: 0.00|x4: 0.24|x5: 0.21|x6: 0.24|x7: 0.24|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.15|x13: 0.13|x14: 0.28|x15: 0.17|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.13]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>[3, 4]</t>
-        </is>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.33]</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>[1, 4, 5, 6, 7, 14]</t>
+        </is>
       </c>
       <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4050,24 +4550,29 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.05|x3: 0.05|x4: 0.05|x5: 0.05|x6: 0.05|x7: 0.08|x8: 0.04|x9: 0.07|x10: 0.06|x11: 0.06|x12: 0.07|x13: 0.09|x14: 0.08|x15: 0.08|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.23|x2: 0.17|x3: 0.00|x4: 0.20|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.69|x10: 0.21|x11: 0.14|x12: 0.35|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.09]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.69]</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>[1, 4, 9, 10, 12]</t>
+        </is>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I101" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -4086,24 +4591,29 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.08|x3: 0.05|x4: 0.09|x5: 0.03|x6: 0.05|x7: 0.04|x8: 0.04|x9: 0.05|x10: 0.04|x11: 0.07|x12: 0.06|x13: 0.08|x14: 0.10|x15: 0.12|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.21|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.30|x9: 0.20|x10: 0.00|x11: 0.00|x12: 0.13|x13: 0.50|x14: 0.66|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.12]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>[14, 15]</t>
-        </is>
-      </c>
-      <c r="G102" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.66]</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>[4, 8, 9, 13, 14]</t>
+        </is>
       </c>
       <c r="H102" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I102" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -4122,23 +4632,28 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.07|x3: 0.04|x4: 0.12|x5: 0.06|x6: 0.07|x7: 0.03|x8: 0.05|x9: 0.06|x10: 0.04|x11: 0.05|x12: 0.05|x13: 0.07|x14: 0.09|x15: 0.10|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.73|x5: 0.20|x6: 0.19|x7: 0.19|x8: 0.00|x9: 0.11|x10: 0.14|x11: 0.11|x12: 0.11|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.22|x17: 0.00</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.12]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>[4, 15]</t>
-        </is>
-      </c>
-      <c r="G103" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.73]</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>[4, 5, 16]</t>
+        </is>
       </c>
       <c r="H103" t="b">
+        <v>0</v>
+      </c>
+      <c r="I103" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4158,24 +4673,29 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.06|x3: 0.06|x4: 0.08|x5: 0.07|x6: 0.06|x7: 0.04|x8: 0.06|x9: 0.05|x10: 0.06|x11: 0.06|x12: 0.05|x13: 0.06|x14: 0.07|x15: 0.07|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.15|x2: 0.12|x3: 0.00|x4: 0.18|x5: 0.14|x6: 0.14|x7: 0.14|x8: 0.00|x9: 0.20|x10: 0.00|x11: 0.00|x12: 0.14|x13: 0.00|x14: 0.61|x15: 0.00|x16: 0.17|x17: 0.00</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.08]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G104" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.61]</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>[9, 14]</t>
+        </is>
       </c>
       <c r="H104" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I104" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -4194,24 +4714,29 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.06|x3: 0.06|x4: 0.07|x5: 0.07|x6: 0.06|x7: 0.05|x8: 0.04|x9: 0.06|x10: 0.05|x11: 0.06|x12: 0.05|x13: 0.07|x14: 0.09|x15: 0.09|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.17|x6: 0.15|x7: 0.15|x8: 0.00|x9: 0.15|x10: 0.00|x11: 0.00|x12: 0.23|x13: 0.00|x14: 0.65|x15: 0.51|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.09]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G105" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.65]</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>[12, 14, 15]</t>
+        </is>
       </c>
       <c r="H105" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I105" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -4230,24 +4755,29 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.05|x3: 0.06|x4: 0.03|x5: 0.04|x6: 0.08|x7: 0.06|x8: 0.05|x9: 0.06|x10: 0.05|x11: 0.07|x12: 0.06|x13: 0.07|x14: 0.08|x15: 0.09|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.30|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.17|x10: 0.00|x11: 0.18|x12: 0.27|x13: 0.13|x14: 0.96|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.09]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G106" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.96]</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>[1, 12, 14]</t>
+        </is>
       </c>
       <c r="H106" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I106" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -4266,24 +4796,29 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.04|x3: 0.13|x4: 0.09|x5: 0.02|x6: 0.07|x7: 0.05|x8: 0.07|x9: 0.07|x10: 0.05|x11: 0.07|x12: 0.05|x13: 0.05|x14: 0.06|x15: 0.05|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.34|x2: 0.15|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.16|x7: 0.15|x8: 0.00|x9: 0.48|x10: 0.00|x11: 0.00|x12: 0.20|x13: 0.00|x14: 0.51|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.13]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>[3]</t>
-        </is>
-      </c>
-      <c r="G107" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.51]</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>[1, 9, 12, 14]</t>
+        </is>
       </c>
       <c r="H107" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I107" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -4302,24 +4837,29 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.04|x3: 0.10|x4: 0.06|x5: 0.06|x6: 0.07|x7: 0.05|x8: 0.05|x9: 0.06|x10: 0.06|x11: 0.06|x12: 0.05|x13: 0.07|x14: 0.07|x15: 0.07|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.24|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.14|x6: 0.17|x7: 0.17|x8: 0.00|x9: 0.33|x10: 0.00|x11: 0.00|x12: 0.48|x13: 0.00|x14: 0.47|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.10]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G108" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.48]</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>[1, 9, 12, 14]</t>
+        </is>
       </c>
       <c r="H108" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I108" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -4338,24 +4878,29 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.05|x3: 0.10|x4: 0.05|x5: 0.07|x6: 0.07|x7: 0.05|x8: 0.05|x9: 0.04|x10: 0.04|x11: 0.06|x12: 0.06|x13: 0.08|x14: 0.09|x15: 0.11|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.11|x7: 0.00|x8: 0.16|x9: 0.15|x10: 0.14|x11: 0.13|x12: 0.25|x13: 0.18|x14: 0.63|x15: 0.00|x16: 0.23|x17: 0.00</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.11]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>[15]</t>
-        </is>
-      </c>
-      <c r="G109" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.63]</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>[12, 14, 16]</t>
+        </is>
       </c>
       <c r="H109" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I109" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -4374,24 +4919,29 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.06|x3: 0.07|x4: 0.05|x5: 0.04|x6: 0.07|x7: 0.05|x8: 0.06|x9: 0.05|x10: 0.05|x11: 0.06|x12: 0.06|x13: 0.08|x14: 0.09|x15: 0.10|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.15|x3: 0.00|x4: 0.43|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.28|x10: 0.00|x11: 0.20|x12: 0.26|x13: 0.00|x14: 0.40|x15: 0.28|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.10]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>[15]</t>
-        </is>
-      </c>
-      <c r="G110" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.43]</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>[4, 9, 11, 12, 14, 15]</t>
+        </is>
       </c>
       <c r="H110" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I110" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -4410,24 +4960,29 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.08|x3: 0.09|x4: 0.06|x5: 0.03|x6: 0.05|x7: 0.07|x8: 0.05|x9: 0.06|x10: 0.04|x11: 0.06|x12: 0.07|x13: 0.08|x14: 0.08|x15: 0.09|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.16|x3: 0.18|x4: 0.53|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.29|x13: 0.12|x14: 0.52|x15: 0.20|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.09]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G111" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.53]</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>[4, 12, 14, 15]</t>
+        </is>
       </c>
       <c r="H111" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I111" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -4446,24 +5001,29 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.04|x3: 0.06|x4: 0.05|x5: 0.05|x6: 0.09|x7: 0.05|x8: 0.05|x9: 0.06|x10: 0.05|x11: 0.07|x12: 0.06|x13: 0.07|x14: 0.08|x15: 0.09|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.20|x2: 0.00|x3: 0.29|x4: 0.25|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.13|x9: 0.16|x10: 0.00|x11: 0.00|x12: 0.31|x13: 0.00|x14: 0.14|x15: 0.51|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.09]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G112" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.51]</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>[1, 3, 4, 12, 15]</t>
+        </is>
       </c>
       <c r="H112" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I112" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -4482,23 +5042,28 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.07|x3: 0.08|x4: 0.07|x5: 0.04|x6: 0.05|x7: 0.05|x8: 0.06|x9: 0.06|x10: 0.05|x11: 0.05|x12: 0.05|x13: 0.07|x14: 0.09|x15: 0.09|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.33|x4: 0.16|x5: 0.00|x6: 0.14|x7: 0.00|x8: 0.00|x9: 0.20|x10: 0.00|x11: 0.00|x12: 0.30|x13: 0.00|x14: 0.68|x15: 0.00|x16: 0.19|x17: 0.00</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.09]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G113" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.68]</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>[3, 12, 14]</t>
+        </is>
       </c>
       <c r="H113" t="b">
+        <v>0</v>
+      </c>
+      <c r="I113" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4518,24 +5083,29 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.05|x3: 0.08|x4: 0.11|x5: 0.05|x6: 0.06|x7: 0.05|x8: 0.04|x9: 0.05|x10: 0.04|x11: 0.06|x12: 0.05|x13: 0.07|x14: 0.08|x15: 0.09|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.24|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.29|x7: 0.29|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.58|x12: 0.18|x13: 0.00|x14: 0.00|x15: 0.42|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.11]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>[4]</t>
-        </is>
-      </c>
-      <c r="G114" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.58]</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>[1, 6, 7, 11, 15]</t>
+        </is>
       </c>
       <c r="H114" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I114" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -4554,24 +5124,29 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.07|x3: 0.05|x4: 0.07|x5: 0.04|x6: 0.06|x7: 0.04|x8: 0.05|x9: 0.05|x10: 0.05|x11: 0.07|x12: 0.05|x13: 0.07|x14: 0.09|x15: 0.10|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.18|x2: 0.00|x3: 0.00|x4: 0.22|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.32|x12: 0.13|x13: 0.13|x14: 0.35|x15: 0.52|x16: 0.15|x17: 0.00</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.10]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G115" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.52]</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>[4, 11, 14, 15]</t>
+        </is>
       </c>
       <c r="H115" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I115" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -4590,23 +5165,28 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.05|x3: 0.09|x4: 0.06|x5: 0.03|x6: 0.07|x7: 0.03|x8: 0.04|x9: 0.04|x10: 0.04|x11: 0.07|x12: 0.05|x13: 0.08|x14: 0.11|x15: 0.12|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.20|x5: 0.14|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.15|x10: 0.00|x11: 0.00|x12: 0.19|x13: 0.18|x14: 0.14|x15: 0.72|x16: 0.26|x17: 0.00</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.12]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>[14, 15]</t>
-        </is>
-      </c>
-      <c r="G116" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 0.72]</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>[4, 15, 16]</t>
+        </is>
       </c>
       <c r="H116" t="b">
+        <v>1</v>
+      </c>
+      <c r="I116" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4626,23 +5206,28 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.05|x3: 0.05|x4: 0.08|x5: 0.03|x6: 0.08|x7: 0.04|x8: 0.04|x9: 0.05|x10: 0.04|x11: 0.07|x12: 0.06|x13: 0.08|x14: 0.10|x15: 0.11|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.28|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.30|x10: 0.00|x11: 0.29|x12: 0.40|x13: 0.00|x14: 0.31|x15: 0.42|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.11]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>[14, 15]</t>
-        </is>
-      </c>
-      <c r="G117" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 0.42]</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>[4, 9, 11, 12, 14, 15]</t>
+        </is>
       </c>
       <c r="H117" t="b">
+        <v>1</v>
+      </c>
+      <c r="I117" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4662,24 +5247,29 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>x1: 0.10|x2: 0.06|x3: 0.03|x4: 0.08|x5: 0.07|x6: 0.05|x7: 0.03|x8: 0.05|x9: 0.04|x10: 0.06|x11: 0.08|x12: 0.05|x13: 0.06|x14: 0.08|x15: 0.09|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.27|x2: 0.00|x3: 0.00|x4: 0.28|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.17|x10: 0.00|x11: 0.00|x12: 0.20|x13: 0.13|x14: 0.29|x15: 0.28|x16: 0.39|x17: 0.00</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.10]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>[1]</t>
-        </is>
-      </c>
-      <c r="G118" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.39]</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>[1, 4, 14, 15, 16]</t>
+        </is>
       </c>
       <c r="H118" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I118" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -4698,24 +5288,29 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.07|x3: 0.10|x4: 0.09|x5: 0.04|x6: 0.04|x7: 0.05|x8: 0.04|x9: 0.05|x10: 0.04|x11: 0.05|x12: 0.06|x13: 0.08|x14: 0.09|x15: 0.09|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.15|x4: 0.00|x5: 0.00|x6: 0.31|x7: 0.30|x8: 0.00|x9: 0.19|x10: 0.00|x11: 0.00|x12: 0.27|x13: 0.00|x14: 0.33|x15: 0.45|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.10]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>[3]</t>
-        </is>
-      </c>
-      <c r="G119" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.45]</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>[6, 7, 12, 14, 15]</t>
+        </is>
       </c>
       <c r="H119" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I119" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -4734,24 +5329,29 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.05|x3: 0.09|x4: 0.06|x5: 0.07|x6: 0.05|x7: 0.04|x8: 0.06|x9: 0.04|x10: 0.06|x11: 0.07|x12: 0.04|x13: 0.05|x14: 0.07|x15: 0.08|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.21|x5: 0.12|x6: 0.13|x7: 0.12|x8: 0.00|x9: 0.20|x10: 0.00|x11: 0.32|x12: 0.25|x13: 0.00|x14: 0.00|x15: 0.30|x16: 0.34|x17: 0.00</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.09]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G120" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.34]</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>[4, 9, 11, 12, 15, 16]</t>
+        </is>
       </c>
       <c r="H120" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I120" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -4770,24 +5370,29 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.05|x3: 0.12|x4: 0.07|x5: 0.03|x6: 0.05|x7: 0.05|x8: 0.07|x9: 0.05|x10: 0.05|x11: 0.07|x12: 0.06|x13: 0.07|x14: 0.08|x15: 0.08|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.54|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.19|x10: 0.00|x11: 0.23|x12: 0.44|x13: 0.00|x14: 0.38|x15: 0.00|x16: 0.22|x17: 0.00</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.12]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>[3]</t>
-        </is>
-      </c>
-      <c r="G121" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.54]</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>[3, 11, 12, 14, 16]</t>
+        </is>
       </c>
       <c r="H121" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I121" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -4806,23 +5411,28 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.06|x3: 0.06|x4: 0.07|x5: 0.04|x6: 0.05|x7: 0.06|x8: 0.04|x9: 0.06|x10: 0.04|x11: 0.05|x12: 0.07|x13: 0.10|x14: 0.10|x15: 0.11|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.14|x3: 0.34|x4: 0.46|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.32|x10: 0.14|x11: 0.00|x12: 0.34|x13: 0.00|x14: 0.26|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.11]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>[13, 14, 15]</t>
-        </is>
-      </c>
-      <c r="G122" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.46]</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>[3, 4, 9, 12, 14]</t>
+        </is>
       </c>
       <c r="H122" t="b">
+        <v>0</v>
+      </c>
+      <c r="I122" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4842,23 +5452,28 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>x1: 0.11|x2: 0.03|x3: 0.04|x4: 0.11|x5: 0.02|x6: 0.07|x7: 0.04|x8: 0.11|x9: 0.09|x10: 0.05|x11: 0.08|x12: 0.06|x13: 0.05|x14: 0.06|x15: 0.05|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.19|x2: 0.00|x3: 0.00|x4: 0.81|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.13|x9: 0.17|x10: 0.00|x11: 0.00|x12: 0.17|x13: 0.24|x14: 0.30|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.11]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>[1, 4, 8]</t>
-        </is>
-      </c>
-      <c r="G123" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.81]</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>[4, 13, 14]</t>
+        </is>
       </c>
       <c r="H123" t="b">
+        <v>0</v>
+      </c>
+      <c r="I123" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4878,24 +5493,29 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>x1: 0.10|x2: 0.05|x3: 0.05|x4: 0.09|x5: 0.03|x6: 0.06|x7: 0.03|x8: 0.06|x9: 0.06|x10: 0.05|x11: 0.08|x12: 0.05|x13: 0.06|x14: 0.09|x15: 0.09|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.54|x2: 0.00|x3: 0.00|x4: 0.27|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.36|x13: 0.00|x14: 0.54|x15: 0.00|x16: 0.29|x17: 0.00</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.10]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>[1]</t>
-        </is>
-      </c>
-      <c r="G124" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.54]</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>[1, 4, 12, 14, 16]</t>
+        </is>
       </c>
       <c r="H124" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I124" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -4914,23 +5534,28 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.04|x3: 0.11|x4: 0.09|x5: 0.03|x6: 0.07|x7: 0.07|x8: 0.05|x9: 0.07|x10: 0.05|x11: 0.05|x12: 0.07|x13: 0.08|x14: 0.07|x15: 0.07|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.13|x3: 0.00|x4: 0.33|x5: 0.20|x6: 0.00|x7: 0.00|x8: 0.21|x9: 0.23|x10: 0.21|x11: 0.00|x12: 0.25|x13: 0.00|x14: 0.44|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.11]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>[3]</t>
-        </is>
-      </c>
-      <c r="G125" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.44]</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>[4, 5, 8, 9, 10, 12, 14]</t>
+        </is>
       </c>
       <c r="H125" t="b">
+        <v>0</v>
+      </c>
+      <c r="I125" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4950,24 +5575,29 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.07|x3: 0.06|x4: 0.08|x5: 0.07|x6: 0.05|x7: 0.04|x8: 0.05|x9: 0.05|x10: 0.05|x11: 0.07|x12: 0.04|x13: 0.06|x14: 0.09|x15: 0.10|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.24|x5: 0.14|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.14|x10: 0.00|x11: 0.37|x12: 0.21|x13: 0.00|x14: 0.43|x15: 0.00|x16: 0.48|x17: 0.00</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.10]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G126" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.48]</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>[4, 11, 12, 14, 16]</t>
+        </is>
       </c>
       <c r="H126" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I126" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -4986,23 +5616,28 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.05|x3: 0.10|x4: 0.12|x5: 0.03|x6: 0.06|x7: 0.05|x8: 0.07|x9: 0.07|x10: 0.06|x11: 0.06|x12: 0.05|x13: 0.06|x14: 0.07|x15: 0.07|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.13|x7: 0.12|x8: 0.19|x9: 0.34|x10: 0.00|x11: 0.13|x12: 0.44|x13: 0.33|x14: 0.32|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.12]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>[4]</t>
-        </is>
-      </c>
-      <c r="G127" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.44]</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>[9, 12, 13, 14]</t>
+        </is>
       </c>
       <c r="H127" t="b">
+        <v>0</v>
+      </c>
+      <c r="I127" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5022,23 +5657,28 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.05|x3: 0.20|x4: 0.05|x5: 0.03|x6: 0.05|x7: 0.04|x8: 0.05|x9: 0.06|x10: 0.04|x11: 0.05|x12: 0.05|x13: 0.06|x14: 0.08|x15: 0.09|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.68|x4: 0.31|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.18|x10: 0.00|x11: 0.52|x12: 0.00|x13: 0.00|x14: 0.30|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.20]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>[3]</t>
-        </is>
-      </c>
-      <c r="G128" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 0.68]</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>[3, 4, 11, 14]</t>
+        </is>
       </c>
       <c r="H128" t="b">
+        <v>1</v>
+      </c>
+      <c r="I128" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5058,23 +5698,28 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.03|x3: 0.19|x4: 0.15|x5: 0.03|x6: 0.07|x7: 0.05|x8: 0.07|x9: 0.06|x10: 0.05|x11: 0.04|x12: 0.05|x13: 0.05|x14: 0.04|x15: 0.03|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.19|x2: 0.00|x3: 0.39|x4: 0.40|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.45|x10: 0.00|x11: 0.00|x12: 0.33|x13: 0.00|x14: 0.24|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.19]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>[3, 4]</t>
-        </is>
-      </c>
-      <c r="G129" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 0.45]</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>[3, 4, 9, 12, 14]</t>
+        </is>
       </c>
       <c r="H129" t="b">
+        <v>1</v>
+      </c>
+      <c r="I129" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5094,23 +5739,28 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.04|x3: 0.19|x4: 0.02|x5: 0.04|x6: 0.06|x7: 0.04|x8: 0.07|x9: 0.07|x10: 0.05|x11: 0.07|x12: 0.05|x13: 0.05|x14: 0.07|x15: 0.08|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.18|x2: 0.00|x3: 0.52|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.24|x10: 0.00|x11: 0.43|x12: 0.43|x13: 0.00|x14: 0.19|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.19]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>[3]</t>
-        </is>
-      </c>
-      <c r="G130" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 0.52]</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>[3, 9, 11, 12]</t>
+        </is>
       </c>
       <c r="H130" t="b">
+        <v>1</v>
+      </c>
+      <c r="I130" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5130,23 +5780,28 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>x1: 0.09|x2: 0.03|x3: 0.21|x4: 0.09|x5: 0.03|x6: 0.05|x7: 0.04|x8: 0.06|x9: 0.04|x10: 0.07|x11: 0.07|x12: 0.04|x13: 0.04|x14: 0.04|x15: 0.04|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.24|x2: 0.00|x3: 0.50|x4: 0.42|x5: 0.00|x6: 0.15|x7: 0.15|x8: 0.22|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.31|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.21]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>[3]</t>
-        </is>
-      </c>
-      <c r="G131" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 0.50]</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>[1, 3, 4, 8, 13]</t>
+        </is>
       </c>
       <c r="H131" t="b">
+        <v>1</v>
+      </c>
+      <c r="I131" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5166,23 +5821,28 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.04|x3: 0.15|x4: 0.09|x5: 0.10|x6: 0.06|x7: 0.04|x8: 0.04|x9: 0.04|x10: 0.05|x11: 0.06|x12: 0.04|x13: 0.05|x14: 0.05|x15: 0.05|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.79|x4: 0.29|x5: 0.32|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.25|x13: 0.00|x14: 0.13|x15: 0.00|x16: 0.22|x17: 0.00</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.15]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>[3]</t>
-        </is>
-      </c>
-      <c r="G132" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 0.79]</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>[3, 4, 5, 12, 16]</t>
+        </is>
       </c>
       <c r="H132" t="b">
+        <v>1</v>
+      </c>
+      <c r="I132" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5202,23 +5862,28 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>x1: 0.10|x2: 0.03|x3: 0.17|x4: 0.12|x5: 0.03|x6: 0.06|x7: 0.04|x8: 0.04|x9: 0.04|x10: 0.06|x11: 0.07|x12: 0.04|x13: 0.05|x14: 0.05|x15: 0.05|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.33|x2: 0.00|x3: 0.52|x4: 0.36|x5: 0.00|x6: 0.22|x7: 0.22|x8: 0.00|x9: 0.16|x10: 0.19|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.17]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>[1, 3, 4]</t>
-        </is>
-      </c>
-      <c r="G133" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 0.52]</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>[1, 3, 4, 6, 7]</t>
+        </is>
       </c>
       <c r="H133" t="b">
+        <v>1</v>
+      </c>
+      <c r="I133" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5238,23 +5903,28 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.07|x3: 0.12|x4: 0.03|x5: 0.23|x6: 0.03|x7: 0.03|x8: 0.07|x9: 0.04|x10: 0.05|x11: 0.04|x12: 0.03|x13: 0.02|x14: 0.02|x15: 0.02|x16: 0.12|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.34|x4: 0.00|x5: 0.49|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.20|x10: 0.14|x11: 0.00|x12: 0.38|x13: 0.00|x14: 0.29|x15: 0.00|x16: 0.15|x17: 0.00</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.23]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>[3, 5, 16]</t>
-        </is>
-      </c>
-      <c r="G134" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 0.49]</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>[3, 5, 12, 14]</t>
+        </is>
       </c>
       <c r="H134" t="b">
+        <v>1</v>
+      </c>
+      <c r="I134" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5274,24 +5944,29 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.10|x3: 0.10|x4: 0.11|x5: 0.02|x6: 0.06|x7: 0.04|x8: 0.04|x9: 0.07|x10: 0.07|x11: 0.05|x12: 0.05|x13: 0.05|x14: 0.06|x15: 0.06|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.52|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.20|x9: 0.17|x10: 0.29|x11: 0.23|x12: 0.00|x13: 0.00|x14: 0.20|x15: 0.00|x16: 0.38|x17: 0.00</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.11]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>[4]</t>
-        </is>
-      </c>
-      <c r="G135" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.52]</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>[3, 8, 10, 11, 16]</t>
+        </is>
       </c>
       <c r="H135" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I135" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -5310,23 +5985,28 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.04|x3: 0.16|x4: 0.03|x5: 0.04|x6: 0.07|x7: 0.06|x8: 0.04|x9: 0.07|x10: 0.07|x11: 0.07|x12: 0.06|x13: 0.06|x14: 0.06|x15: 0.06|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.24|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.22|x9: 0.35|x10: 0.22|x11: 0.16|x12: 0.59|x13: 0.00|x14: 0.22|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.16]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>[3]</t>
-        </is>
-      </c>
-      <c r="G136" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.59]</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>[3, 8, 9, 10, 12, 14]</t>
+        </is>
       </c>
       <c r="H136" t="b">
+        <v>0</v>
+      </c>
+      <c r="I136" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5346,23 +6026,28 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.03|x3: 0.04|x4: 0.18|x5: 0.09|x6: 0.06|x7: 0.04|x8: 0.07|x9: 0.06|x10: 0.05|x11: 0.05|x12: 0.05|x13: 0.05|x14: 0.05|x15: 0.05|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.90|x5: 0.30|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.13|x10: 0.18|x11: 0.49|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.18]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>[4]</t>
-        </is>
-      </c>
-      <c r="G137" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 0.90]</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>[4, 5, 11]</t>
+        </is>
       </c>
       <c r="H137" t="b">
+        <v>1</v>
+      </c>
+      <c r="I137" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5382,23 +6067,28 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.04|x3: 0.03|x4: 0.21|x5: 0.03|x6: 0.06|x7: 0.04|x8: 0.06|x9: 0.07|x10: 0.07|x11: 0.05|x12: 0.05|x13: 0.05|x14: 0.07|x15: 0.06|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.20|x2: 0.13|x3: 0.00|x4: 1.09|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.28|x10: 0.00|x11: 0.00|x12: 0.13|x13: 0.00|x14: 0.17|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.21]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>[4]</t>
-        </is>
-      </c>
-      <c r="G138" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 1.09]</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>[4, 9]</t>
+        </is>
       </c>
       <c r="H138" t="b">
+        <v>1</v>
+      </c>
+      <c r="I138" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5418,23 +6108,28 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.05|x3: 0.03|x4: 0.12|x5: 0.03|x6: 0.04|x7: 0.06|x8: 0.05|x9: 0.08|x10: 0.06|x11: 0.06|x12: 0.06|x13: 0.07|x14: 0.09|x15: 0.08|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.45|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.17|x9: 0.43|x10: 0.17|x11: 0.00|x12: 0.30|x13: 0.13|x14: 0.36|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.12]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>[4]</t>
-        </is>
-      </c>
-      <c r="G139" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.45]</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>[4, 9, 12, 14]</t>
+        </is>
       </c>
       <c r="H139" t="b">
+        <v>0</v>
+      </c>
+      <c r="I139" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5454,24 +6149,29 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.07|x3: 0.05|x4: 0.05|x5: 0.06|x6: 0.07|x7: 0.06|x8: 0.05|x9: 0.07|x10: 0.06|x11: 0.05|x12: 0.06|x13: 0.08|x14: 0.09|x15: 0.09|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.16|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.29|x7: 0.28|x8: 0.12|x9: 0.13|x10: 0.00|x11: 0.00|x12: 0.13|x13: 0.21|x14: 0.37|x15: 0.32|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.09]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G140" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.37]</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>[6, 7, 13, 14, 15]</t>
+        </is>
       </c>
       <c r="H140" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I140" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -5490,23 +6190,28 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.02|x3: 0.08|x4: 0.02|x5: 0.02|x6: 0.03|x7: 0.05|x8: 0.17|x9: 0.16|x10: 0.06|x11: 0.06|x12: 0.07|x13: 0.05|x14: 0.06|x15: 0.04|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.24|x3: 0.27|x4: 0.23|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.42|x10: 0.00|x11: 0.00|x12: 0.53|x13: 0.00|x14: 0.31|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.17]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>[8, 9]</t>
-        </is>
-      </c>
-      <c r="G141" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.53]</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>[2, 3, 4, 9, 12, 14]</t>
+        </is>
       </c>
       <c r="H141" t="b">
+        <v>0</v>
+      </c>
+      <c r="I141" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5526,23 +6231,28 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.03|x3: 0.05|x4: 0.22|x5: 0.04|x6: 0.05|x7: 0.04|x8: 0.05|x9: 0.07|x10: 0.06|x11: 0.04|x12: 0.05|x13: 0.07|x14: 0.06|x15: 0.04|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.69|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.17|x9: 0.30|x10: 0.17|x11: 0.00|x12: 0.26|x13: 0.13|x14: 0.28|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.22]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>[4]</t>
-        </is>
-      </c>
-      <c r="G142" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.69]</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>[4, 9, 12, 14]</t>
+        </is>
       </c>
       <c r="H142" t="b">
+        <v>0</v>
+      </c>
+      <c r="I142" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5562,24 +6272,29 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.05|x3: 0.07|x4: 0.06|x5: 0.04|x6: 0.05|x7: 0.06|x8: 0.08|x9: 0.09|x10: 0.07|x11: 0.07|x12: 0.06|x13: 0.06|x14: 0.06|x15: 0.06|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.19|x2: 0.00|x3: 0.00|x4: 0.19|x5: 0.00|x6: 0.26|x7: 0.25|x8: 0.00|x9: 0.30|x10: 0.00|x11: 0.00|x12: 0.47|x13: 0.00|x14: 0.33|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.09]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G143" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.47]</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>[6, 7, 9, 12, 14]</t>
+        </is>
       </c>
       <c r="H143" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I143" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -5598,24 +6313,29 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.05|x3: 0.05|x4: 0.05|x5: 0.07|x6: 0.04|x7: 0.04|x8: 0.09|x9: 0.05|x10: 0.07|x11: 0.07|x12: 0.05|x13: 0.06|x14: 0.07|x15: 0.08|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.18|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.42|x9: 0.24|x10: 0.15|x11: 0.00|x12: 0.23|x13: 0.52|x14: 0.25|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.09]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G144" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.52]</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>[8, 9, 12, 13, 14]</t>
+        </is>
       </c>
       <c r="H144" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I144" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -5634,23 +6354,28 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.06|x3: 0.07|x4: 0.07|x5: 0.06|x6: 0.06|x7: 0.04|x8: 0.07|x9: 0.07|x10: 0.06|x11: 0.06|x12: 0.05|x13: 0.05|x14: 0.07|x15: 0.08|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.23|x2: 0.00|x3: 0.00|x4: 0.18|x5: 0.00|x6: 0.18|x7: 0.17|x8: 0.19|x9: 0.34|x10: 0.00|x11: 0.31|x12: 0.16|x13: 0.24|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.08]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G145" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.34]</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>[1, 9, 11, 13]</t>
+        </is>
       </c>
       <c r="H145" t="b">
+        <v>0</v>
+      </c>
+      <c r="I145" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5670,24 +6395,29 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>x1: 0.10|x2: 0.06|x3: 0.06|x4: 0.07|x5: 0.06|x6: 0.04|x7: 0.05|x8: 0.08|x9: 0.07|x10: 0.07|x11: 0.07|x12: 0.05|x13: 0.05|x14: 0.05|x15: 0.05|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.27|x2: 0.12|x3: 0.00|x4: 0.36|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.25|x9: 0.17|x10: 0.23|x11: 0.00|x12: 0.15|x13: 0.24|x14: 0.21|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.10]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G146" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.36]</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>[1, 4, 8, 10, 13, 14]</t>
+        </is>
       </c>
       <c r="H146" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I146" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -5706,24 +6436,29 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.04|x3: 0.08|x4: 0.06|x5: 0.03|x6: 0.08|x7: 0.05|x8: 0.06|x9: 0.08|x10: 0.06|x11: 0.06|x12: 0.06|x13: 0.08|x14: 0.08|x15: 0.08|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.32|x3: 0.00|x4: 0.14|x5: 0.00|x6: 0.13|x7: 0.13|x8: 0.00|x9: 0.70|x10: 0.00|x11: 0.13|x12: 0.28|x13: 0.00|x14: 0.18|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.08]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G147" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.70]</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>[2, 9, 12]</t>
+        </is>
       </c>
       <c r="H147" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I147" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -5742,24 +6477,29 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>x1: 0.09|x2: 0.06|x3: 0.05|x4: 0.05|x5: 0.02|x6: 0.05|x7: 0.06|x8: 0.06|x9: 0.10|x10: 0.08|x11: 0.07|x12: 0.06|x13: 0.05|x14: 0.07|x15: 0.06|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.12|x2: 0.00|x3: 0.12|x4: 0.00|x5: 0.00|x6: 0.22|x7: 0.22|x8: 0.21|x9: 0.23|x10: 0.17|x11: 0.00|x12: 0.38|x13: 0.23|x14: 0.11|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.10]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G148" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.38]</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>[6, 7, 8, 9, 12, 13]</t>
+        </is>
       </c>
       <c r="H148" t="b">
         <v>0</v>
+      </c>
+      <c r="I148" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -5778,23 +6518,28 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.07|x3: 0.09|x4: 0.05|x5: 0.07|x6: 0.06|x7: 0.05|x8: 0.05|x9: 0.05|x10: 0.05|x11: 0.07|x12: 0.05|x13: 0.06|x14: 0.07|x15: 0.08|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.41|x2: 0.00|x3: 0.21|x4: 0.00|x5: 0.23|x6: 0.17|x7: 0.17|x8: 0.00|x9: 0.00|x10: 0.12|x11: 0.00|x12: 0.16|x13: 0.00|x14: 0.12|x15: 0.00|x16: 0.42|x17: 0.00</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.09]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G149" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.42]</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>[1, 3, 5, 16]</t>
+        </is>
       </c>
       <c r="H149" t="b">
+        <v>0</v>
+      </c>
+      <c r="I149" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5814,23 +6559,28 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.04|x3: 0.07|x4: 0.14|x5: 0.08|x6: 0.06|x7: 0.04|x8: 0.10|x9: 0.09|x10: 0.04|x11: 0.04|x12: 0.05|x13: 0.04|x14: 0.05|x15: 0.04|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.30|x2: 0.00|x3: 0.00|x4: 0.57|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.12|x10: 0.00|x11: 0.18|x12: 0.34|x13: 0.17|x14: 0.16|x15: 0.16|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.14]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>[4]</t>
-        </is>
-      </c>
-      <c r="G150" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.57]</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>[1, 4, 12]</t>
+        </is>
       </c>
       <c r="H150" t="b">
+        <v>0</v>
+      </c>
+      <c r="I150" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5850,23 +6600,28 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.06|x3: 0.10|x4: 0.07|x5: 0.06|x6: 0.06|x7: 0.04|x8: 0.04|x9: 0.05|x10: 0.06|x11: 0.07|x12: 0.05|x13: 0.06|x14: 0.06|x15: 0.07|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.21|x4: 0.00|x5: 0.12|x6: 0.11|x7: 0.11|x8: 0.29|x9: 0.25|x10: 0.11|x11: 0.00|x12: 0.13|x13: 0.40|x14: 0.28|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.10]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G151" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.40]</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>[3, 8, 9, 13, 14]</t>
+        </is>
       </c>
       <c r="H151" t="b">
+        <v>0</v>
+      </c>
+      <c r="I151" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5886,24 +6641,29 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.05|x3: 0.09|x4: 0.11|x5: 0.03|x6: 0.06|x7: 0.04|x8: 0.06|x9: 0.08|x10: 0.06|x11: 0.06|x12: 0.05|x13: 0.06|x14: 0.08|x15: 0.09|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.24|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.12|x9: 0.27|x10: 0.15|x11: 1.01|x12: 0.21|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.11]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>[4]</t>
-        </is>
-      </c>
-      <c r="G152" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 1.01]</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>[4, 9, 11, 12]</t>
+        </is>
       </c>
       <c r="H152" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I152" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -5922,23 +6682,28 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.04|x3: 0.08|x4: 0.13|x5: 0.02|x6: 0.07|x7: 0.07|x8: 0.04|x9: 0.09|x10: 0.06|x11: 0.04|x12: 0.07|x13: 0.07|x14: 0.07|x15: 0.07|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.16|x3: 0.00|x4: 0.38|x5: 0.00|x6: 0.27|x7: 0.27|x8: 0.00|x9: 0.38|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.53|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.13]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>[4]</t>
-        </is>
-      </c>
-      <c r="G153" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.53]</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>[4, 6, 7, 9, 14]</t>
+        </is>
       </c>
       <c r="H153" t="b">
+        <v>0</v>
+      </c>
+      <c r="I153" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5958,24 +6723,29 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.05|x3: 0.11|x4: 0.13|x5: 0.03|x6: 0.06|x7: 0.05|x8: 0.06|x9: 0.06|x10: 0.05|x11: 0.05|x12: 0.05|x13: 0.05|x14: 0.06|x15: 0.06|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.18|x4: 0.58|x5: 0.00|x6: 0.17|x7: 0.17|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.24|x12: 0.18|x13: 0.00|x14: 0.19|x15: 0.30|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.13]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>[3, 4]</t>
-        </is>
-      </c>
-      <c r="G154" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.58]</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>[4, 11, 15]</t>
+        </is>
       </c>
       <c r="H154" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I154" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -5994,24 +6764,29 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>x1: 0.09|x2: 0.05|x3: 0.04|x4: 0.09|x5: 0.05|x6: 0.06|x7: 0.04|x8: 0.04|x9: 0.05|x10: 0.06|x11: 0.08|x12: 0.05|x13: 0.06|x14: 0.08|x15: 0.09|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.38|x2: 0.00|x3: 0.00|x4: 0.28|x5: 0.00|x6: 0.13|x7: 0.13|x8: 0.00|x9: 0.00|x10: 0.12|x11: 0.15|x12: 0.25|x13: 0.00|x14: 0.20|x15: 0.00|x16: 0.36|x17: 0.00</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.09]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G155" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.38]</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>[1, 4, 12, 16]</t>
+        </is>
       </c>
       <c r="H155" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I155" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -6030,23 +6805,28 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>x1: 0.10|x2: 0.05|x3: 0.03|x4: 0.07|x5: 0.07|x6: 0.05|x7: 0.03|x8: 0.08|x9: 0.05|x10: 0.07|x11: 0.08|x12: 0.05|x13: 0.06|x14: 0.07|x15: 0.08|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.32|x2: 0.00|x3: 0.00|x4: 0.22|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.14|x9: 0.22|x10: 0.00|x11: 0.28|x12: 0.13|x13: 0.18|x14: 0.25|x15: 0.00|x16: 0.27|x17: 0.00</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.10]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>[1]</t>
-        </is>
-      </c>
-      <c r="G156" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.32]</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>[1, 4, 9, 11, 14, 16]</t>
+        </is>
       </c>
       <c r="H156" t="b">
+        <v>0</v>
+      </c>
+      <c r="I156" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6066,23 +6846,28 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.05|x3: 0.06|x4: 0.05|x5: 0.04|x6: 0.06|x7: 0.04|x8: 0.05|x9: 0.04|x10: 0.05|x11: 0.07|x12: 0.05|x13: 0.08|x14: 0.10|x15: 0.12|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.13|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.29|x10: 0.00|x11: 0.00|x12: 0.30|x13: 0.00|x14: 0.70|x15: 0.59|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.12]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>[14, 15]</t>
-        </is>
-      </c>
-      <c r="G157" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 0.70]</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>[9, 12, 14, 15]</t>
+        </is>
       </c>
       <c r="H157" t="b">
+        <v>1</v>
+      </c>
+      <c r="I157" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6102,24 +6887,29 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>x1: 0.10|x2: 0.05|x3: 0.09|x4: 0.06|x5: 0.03|x6: 0.06|x7: 0.04|x8: 0.06|x9: 0.06|x10: 0.06|x11: 0.08|x12: 0.05|x13: 0.06|x14: 0.08|x15: 0.08|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.14|x3: 0.00|x4: 0.14|x5: 0.00|x6: 0.17|x7: 0.17|x8: 0.00|x9: 0.29|x10: 0.00|x11: 0.00|x12: 0.13|x13: 0.00|x14: 0.83|x15: 0.00|x16: 0.13|x17: 0.00</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.10]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G158" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.83]</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>[9, 14]</t>
+        </is>
       </c>
       <c r="H158" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I158" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -6138,24 +6928,29 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>x1: 0.12|x2: 0.04|x3: 0.03|x4: 0.13|x5: 0.02|x6: 0.06|x7: 0.04|x8: 0.06|x9: 0.06|x10: 0.06|x11: 0.08|x12: 0.05|x13: 0.05|x14: 0.07|x15: 0.07|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.23|x4: 0.21|x5: 0.00|x6: 0.18|x7: 0.18|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.63|x12: 0.00|x13: 0.00|x14: 0.57|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.13]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>[1, 4]</t>
-        </is>
-      </c>
-      <c r="G159" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.63]</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>[3, 4, 11, 14]</t>
+        </is>
       </c>
       <c r="H159" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I159" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -6174,24 +6969,29 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.08|x3: 0.06|x4: 0.11|x5: 0.03|x6: 0.06|x7: 0.04|x8: 0.05|x9: 0.05|x10: 0.04|x11: 0.06|x12: 0.06|x13: 0.06|x14: 0.09|x15: 0.09|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.16|x2: 0.13|x3: 0.00|x4: 0.32|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.42|x10: 0.00|x11: 0.00|x12: 0.25|x13: 0.00|x14: 0.21|x15: 0.26|x16: 0.25|x17: 0.00</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.11]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>[4]</t>
-        </is>
-      </c>
-      <c r="G160" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.42]</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>[4, 9, 12, 14, 15, 16]</t>
+        </is>
       </c>
       <c r="H160" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I160" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -6210,23 +7010,28 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.08|x3: 0.04|x4: 0.02|x5: 0.03|x6: 0.06|x7: 0.04|x8: 0.05|x9: 0.05|x10: 0.05|x11: 0.08|x12: 0.05|x13: 0.08|x14: 0.11|x15: 0.12|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.43|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.18|x10: 0.00|x11: 0.00|x12: 0.32|x13: 0.14|x14: 0.27|x15: 0.65|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.12]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>[14, 15]</t>
-        </is>
-      </c>
-      <c r="G161" t="b">
-        <v>1</v>
+          <t>[0.00, 0.12, 0.65]</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>[1, 12, 14, 15]</t>
+        </is>
       </c>
       <c r="H161" t="b">
+        <v>1</v>
+      </c>
+      <c r="I161" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6246,24 +7051,29 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.06|x3: 0.09|x4: 0.12|x5: 0.03|x6: 0.06|x7: 0.05|x8: 0.06|x9: 0.06|x10: 0.05|x11: 0.06|x12: 0.05|x13: 0.05|x14: 0.07|x15: 0.08|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.51|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.12|x9: 0.18|x10: 0.00|x11: 0.30|x12: 0.28|x13: 0.00|x14: 0.37|x15: 0.23|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.12]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>[4]</t>
-        </is>
-      </c>
-      <c r="G162" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.51]</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>[3, 11, 12, 14, 15]</t>
+        </is>
       </c>
       <c r="H162" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I162" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -6282,23 +7092,28 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.04|x3: 0.09|x4: 0.09|x5: 0.05|x6: 0.08|x7: 0.06|x8: 0.07|x9: 0.07|x10: 0.04|x11: 0.05|x12: 0.06|x13: 0.06|x14: 0.06|x15: 0.06|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.43|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.62|x12: 0.27|x13: 0.19|x14: 0.30|x15: 0.00|x16: 0.19|x17: 0.00</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.09]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G163" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.62]</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>[3, 11, 12, 14]</t>
+        </is>
       </c>
       <c r="H163" t="b">
+        <v>0</v>
+      </c>
+      <c r="I163" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6318,24 +7133,29 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.05|x3: 0.06|x4: 0.13|x5: 0.10|x6: 0.06|x7: 0.05|x8: 0.05|x9: 0.05|x10: 0.05|x11: 0.05|x12: 0.05|x13: 0.06|x14: 0.06|x15: 0.06|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.65|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.19|x9: 0.00|x10: 0.14|x11: 0.00|x12: 0.16|x13: 0.29|x14: 0.00|x15: 0.00|x16: 0.57|x17: 0.00</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.13]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>[4]</t>
-        </is>
-      </c>
-      <c r="G164" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.65]</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>[4, 13, 16]</t>
+        </is>
       </c>
       <c r="H164" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I164" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -6354,23 +7174,28 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.04|x3: 0.12|x4: 0.11|x5: 0.08|x6: 0.06|x7: 0.04|x8: 0.04|x9: 0.05|x10: 0.05|x11: 0.07|x12: 0.04|x13: 0.05|x14: 0.05|x15: 0.05|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.13|x3: 0.21|x4: 0.13|x5: 0.31|x6: 0.12|x7: 0.12|x8: 0.00|x9: 0.17|x10: 0.00|x11: 0.22|x12: 0.15|x13: 0.00|x14: 0.45|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.12]</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>[3, 4]</t>
-        </is>
-      </c>
-      <c r="G165" t="b">
-        <v>0</v>
+          <t>[0.00, 0.12, 0.45]</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>[3, 5, 11, 14]</t>
+        </is>
       </c>
       <c r="H165" t="b">
+        <v>0</v>
+      </c>
+      <c r="I165" t="b">
         <v>0</v>
       </c>
     </row>
